--- a/bugs_table.xlsx
+++ b/bugs_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxbe\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C5D6E-9196-46FB-B20D-19A5E7E7F8C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F6CA44-DE50-488A-BC4B-F61503EBC69A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88C54D22-CC6D-44EB-88DB-9A6383E82FD2}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>crc32.c</t>
-  </si>
-  <si>
     <t>crc32_ccitt_tvb(tvbuff_t *tvb, guint len)</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>CWE-823</t>
   </si>
   <si>
-    <t>packet.c</t>
-  </si>
-  <si>
     <t>dissect_packet(epan_dissect_t *edt, union wtap_pseudo_header *pseudo_header, const guchar *pd, frame_data *fd, column_info *cinfo)</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>add_attribute(const gchar* name, const  gchar* codestr, radius_attr_dissector_t type, const  gchar* vendor_name, gboolean crypt, gboolean tagged, const gchar* current_attr)</t>
   </si>
   <si>
-    <t>radius_dict.c</t>
-  </si>
-  <si>
     <t>CWE-416</t>
   </si>
   <si>
@@ -121,18 +112,12 @@
     <t>gboolean radius_load_dictionary (radius_dictionary_t* d, gchar* dir, const gchar* filename, gchar** err_str)</t>
   </si>
   <si>
-    <t>reassemble.c</t>
-  </si>
-  <si>
     <t>fragment_add_work(fragment_data *fd_head, tvbuff_t *tvb, int offset, packet_info *pinfo, guint32 frag_offset, guint32 frag_data_len, gboolean more_frags)</t>
   </si>
   <si>
     <t>8C32D803</t>
   </si>
   <si>
-    <t>sigcomp-udvm.c</t>
-  </si>
-  <si>
     <t>decompress_sigcomp_message(tvbuff_t *bytecode_tvb, tvbuff_t *message_tvb, packet_info *pinfo, proto_tree *udvm_tree, gint udvm_mem_dest, gint print_flags, gint hf_id, gint header_len, gint byte_code_state_len, gint byte_code_id_len, gint udvm_start_ip)</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>tvb_free_chain(tvbuff_t* tvb)</t>
   </si>
   <si>
-    <t>tvbuff.c</t>
-  </si>
-  <si>
     <t>ACBA7CD4</t>
   </si>
   <si>
@@ -229,24 +211,15 @@
     <t>test_njack(tvbuff_t *tvb)</t>
   </si>
   <si>
-    <t>packet-3com-njack.c</t>
-  </si>
-  <si>
     <t>D894FECC</t>
   </si>
   <si>
     <t>OUT_RXString(field)</t>
   </si>
   <si>
-    <t>packet-afs.c</t>
-  </si>
-  <si>
     <t>arphrdaddr_to_str(const guint8 *ad, int ad_len, guint16 type)</t>
   </si>
   <si>
-    <t>packet-arp.c</t>
-  </si>
-  <si>
     <t>ABF12F56</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>fBitStringTagVS (tvbuff_t *tvb, proto_tree *tree, guint offset, const gchar *label, const value_string *src)</t>
   </si>
   <si>
-    <t>packet-bacapp.c</t>
-  </si>
-  <si>
     <t>D206D57A</t>
   </si>
   <si>
@@ -283,18 +253,12 @@
     <t>dissect_bootp(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree)</t>
   </si>
   <si>
-    <t>packet-bootp.c</t>
-  </si>
-  <si>
     <t>68DE1B7B</t>
   </si>
   <si>
     <t>dissect_options(tvbuff_t *tvb, int offset, packet_info *pinfo _U_, proto_tree *tree, int length, psm_data_t *psm_data _U_, config_data_t *config_data)</t>
   </si>
   <si>
-    <t>packet-btl2cap.c</t>
-  </si>
-  <si>
     <t>dissect_configrequest(tvbuff_t *tvb, int offset, packet_info *pinfo _U_, proto_tree *tree, guint16 length)</t>
   </si>
   <si>
@@ -307,9 +271,6 @@
     <t>void dissect_i_frame(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree, proto_tree *btl2cap_tree, psm_data_t *psm_data, guint16 length, int offset, config_data_t *config_data)</t>
   </si>
   <si>
-    <t>packet-catapult-dct2000.c</t>
-  </si>
-  <si>
     <t>2D551C70</t>
   </si>
   <si>
@@ -334,9 +295,6 @@
     <t>dissect_catapult_dct2000(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree)</t>
   </si>
   <si>
-    <t>packet-cdp.c</t>
-  </si>
-  <si>
     <t>dissect_cdp(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree)</t>
   </si>
   <si>
@@ -349,9 +307,6 @@
     <t>eventlog_dissect_element_Record_strings(tvbuff_t *tvb, int offset, packet_info *pinfo _U_, proto_tree *tree, guint8 *drep _U_)</t>
   </si>
   <si>
-    <t>packet-dcerpc-eventlog.c</t>
-  </si>
-  <si>
     <t>CWE-834</t>
   </si>
   <si>
@@ -364,18 +319,12 @@
     <t>CWE-191</t>
   </si>
   <si>
-    <t>packet-dcerpc-nt.c</t>
-  </si>
-  <si>
     <t>pol_value *find_pol_handle(e_ctx_hnd *policy_hnd, guint32 frame, pol_hash_value **valuep)</t>
   </si>
   <si>
     <t>C58965E4</t>
   </si>
   <si>
-    <t>packet-dnp.c</t>
-  </si>
-  <si>
     <t>dnp3_al_process_object(tvbuff_t *tvb, packet_info *pinfo, int offset, proto_tree *robj_tree, gboolean header_only, guint16 *al_objtype)</t>
   </si>
   <si>
@@ -385,36 +334,24 @@
     <t>CWE-469</t>
   </si>
   <si>
-    <t>packet-dns.c</t>
-  </si>
-  <si>
     <t>get_dns_name(tvbuff_t *tvb, int offset, int max_len, int dns_data_offset, const guchar **name)</t>
   </si>
   <si>
     <t>52CA9094</t>
   </si>
   <si>
-    <t>packet-enttec.c</t>
-  </si>
-  <si>
     <t>dissect_enttec_dmx_data(tvbuff_t *tvb, guint offset, proto_tree *tree)</t>
   </si>
   <si>
     <t>2D623370</t>
   </si>
   <si>
-    <t>packet-gsm_a_common.c</t>
-  </si>
-  <si>
     <t>guint16 elem_tlv(tvbuff_t *tvb, proto_tree *tree, guint8 iei, gint pdu_type, int idx, guint32 offset, guint len _U_, const gchar *name_add)</t>
   </si>
   <si>
     <t>2CC07361</t>
   </si>
   <si>
-    <t>packet-gsm_a_gm.c</t>
-  </si>
-  <si>
     <t>get_sm_msg_params(guint8 oct, const gchar **msg_str, int *ett_tree, int *hf_idx, msg_fcn *msg_fcn)</t>
   </si>
   <si>
@@ -424,9 +361,6 @@
     <t>8708BE95</t>
   </si>
   <si>
-    <t>packet-gsm_bsslap.c</t>
-  </si>
-  <si>
     <t>de_rrlp_ie(tvbuff_t *tvb, proto_tree *tree, guint32 offset, guint len _U_, gchar *add_string _U_, int string_len _U_)</t>
   </si>
   <si>
@@ -442,24 +376,15 @@
     <t>B11C16A5</t>
   </si>
   <si>
-    <t>packet-http.c</t>
-  </si>
-  <si>
     <t>reinit_http(void)</t>
   </si>
   <si>
     <t>16D311E6</t>
   </si>
   <si>
-    <t>packet-icmpv6.c</t>
-  </si>
-  <si>
     <t>dissect_icmpv6ndopt(tvbuff_t *tvb, int offset, packet_info *pinfo, proto_tree *tree)</t>
   </si>
   <si>
-    <t>packet-ieee80211.c</t>
-  </si>
-  <si>
     <t>C728B755</t>
   </si>
   <si>
@@ -478,9 +403,6 @@
     <t>find_next_header_sequence(guint32 OpCode)</t>
   </si>
   <si>
-    <t>packet-infiniband.c</t>
-  </si>
-  <si>
     <t>CWE-131</t>
   </si>
   <si>
@@ -493,9 +415,6 @@
     <t>parse_PAYLOAD(proto_tree *parentTree, packet_info *pinfo, tvbuff_t *tvb, gint *offset, gint length, guint8 virtualLane)</t>
   </si>
   <si>
-    <t>packet-ip.c</t>
-  </si>
-  <si>
     <t>dissect_ipopt_security(const ip_tcp_opt *optp, tvbuff_t *tvb, int offset, guint optlen, packet_info *pinfo _U_, proto_tree *opt_tree)</t>
   </si>
   <si>
@@ -520,24 +439,15 @@
     <t>add_events(tvbuff_t *tvb, int offs, proto_tree *tree, const struct true_false_string *tfs, const char *desc)</t>
   </si>
   <si>
-    <t>packet-ipmi-se.c</t>
-  </si>
-  <si>
     <t>28B3BB4B</t>
   </si>
   <si>
-    <t>packet-ipmi-transport.c</t>
-  </si>
-  <si>
     <t>lan_24(tvbuff_t *tvb, proto_tree *tree)</t>
   </si>
   <si>
     <t>1B24CC26</t>
   </si>
   <si>
-    <t>packet-isakmp.c</t>
-  </si>
-  <si>
     <t>dissect_payloads(tvbuff_t *tvb, proto_tree *tree, proto_tree *parent_tree, int isakmp_version, guint8 initial_payload, int offset, int length, packet_info *pinfo)</t>
   </si>
   <si>
@@ -550,9 +460,6 @@
     <t>dissect_enc(tvbuff_t *tvb, int offset, int length, proto_tree *tree, proto_tree *p _U_, packet_info *pinfo, int isakmp_version _U_, int unused _U_, guint8 inner_payload)</t>
   </si>
   <si>
-    <t>packet-kerberos.c</t>
-  </si>
-  <si>
     <t>dissect_kerberos_main(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree, int do_col_info, kerberos_callbacks *cb)</t>
   </si>
   <si>
@@ -571,9 +478,6 @@
     <t>wrap_dissect_gss_kerb(tvbuff_t *tvb, int offset, packet_info *pinfo, proto_tree *tree, guint8 *drep _U_)</t>
   </si>
   <si>
-    <t>packet-nbns.c</t>
-  </si>
-  <si>
     <t>nbns_add_nbns_flags(column_info *cinfo, proto_tree *nbns_tree, tvbuff_t *tvb, int offset, gushort flags, int is_wack)</t>
   </si>
   <si>
@@ -586,9 +490,6 @@
     <t>dissect_v9_options(proto_tree * pdutree, tvbuff_t * tvb, int offset, hdrinfo_t * hdrinfo, guint16 flowset_id)</t>
   </si>
   <si>
-    <t>packet-netflow.c</t>
-  </si>
-  <si>
     <t>BE33920B</t>
   </si>
   <si>
@@ -604,9 +505,6 @@
     <t>CWE-129</t>
   </si>
   <si>
-    <t>packet-ntlmssp.c</t>
-  </si>
-  <si>
     <t>dissect_ntlmssp_challenge (tvbuff_t *tvb, packet_info *pinfo, int offset, proto_tree *ntlmssp_tree, ntlmssp_header_t *ntlmssph _U_)</t>
   </si>
   <si>
@@ -616,9 +514,6 @@
     <t>dissect_q931_IEs(tvbuff_t *tvb, packet_info *pinfo, proto_tree *root_tree, proto_tree *q931_tree, gboolean is_over_ip, int offset, int initial_codeset)</t>
   </si>
   <si>
-    <t>packet-q931.c</t>
-  </si>
-  <si>
     <t>256C7C53</t>
   </si>
   <si>
@@ -631,9 +526,6 @@
     <t>79A7B3EC</t>
   </si>
   <si>
-    <t>packet-radius.c</t>
-  </si>
-  <si>
     <t>register_attrs(gpointer k _U_, gpointer v, gpointer p)</t>
   </si>
   <si>
@@ -643,9 +535,6 @@
     <t>rsvp_equal (gconstpointer k1, gconstpointer k2)</t>
   </si>
   <si>
-    <t>packet-rsvp.c</t>
-  </si>
-  <si>
     <t>CWE-825</t>
   </si>
   <si>
@@ -655,9 +544,6 @@
     <t>dissect_rsvp(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree)</t>
   </si>
   <si>
-    <t>packet-rtsp.c</t>
-  </si>
-  <si>
     <t>rtps_util_add_bitmap(proto_tree *tree, tvbuff_t * tvb, gint offset, int little_endian, const char *label _U_)</t>
   </si>
   <si>
@@ -667,9 +553,6 @@
     <t>CWE-121</t>
   </si>
   <si>
-    <t>packet-sigcomp.c</t>
-  </si>
-  <si>
     <t>dissect_sigcomp_tcp(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree)</t>
   </si>
   <si>
@@ -686,9 +569,6 @@
   </si>
   <si>
     <t>dissect_negprot_request(tvbuff_t *tvb, packet_info *pinfo _U_, proto_tree *tree, int offset, proto_tree *smb_tree _U_)</t>
-  </si>
-  <si>
-    <t>packet-smb.c</t>
   </si>
   <si>
     <t>E8EE6FC2</t>
@@ -722,15 +602,9 @@
     <t>dissect_smb2_ioctl_function(tvbuff_t *tvb, packet_info *pinfo, proto_tree *parent_tree, int offset, guint32 *ioctlfunc)</t>
   </si>
   <si>
-    <t>packet-smb2.c</t>
-  </si>
-  <si>
     <t>2AB010E1</t>
   </si>
   <si>
-    <t>packet-ssl.c</t>
-  </si>
-  <si>
     <t>global variable</t>
   </si>
   <si>
@@ -752,12 +626,6 @@
     <t>dissect_tcap_param(asn1_ctx_t *actx, proto_tree *tree, tvbuff_t *tvb, int offset)</t>
   </si>
   <si>
-    <t>packet-tcap.c</t>
-  </si>
-  <si>
-    <t>packet-x509sat.c</t>
-  </si>
-  <si>
     <t>dissect_x509sat_SyntaxBMPString(gboolean implicit_tag _U_, tvbuff_t *tvb _U_, int offset _U_, asn1_ctx_t *actx _U_, proto_tree *tree _U_, int hf_index _U_)</t>
   </si>
   <si>
@@ -767,18 +635,9 @@
     <t>dissect_yhoo(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree)</t>
   </si>
   <si>
-    <t>packet-yhoo.c</t>
-  </si>
-  <si>
     <t>dissect_zrtp(tvbuff_t *tvb, packet_info *pinfo, proto_tree *tree)</t>
   </si>
   <si>
-    <t>packet-zrtp.c</t>
-  </si>
-  <si>
-    <t>catapult_dct2000.c</t>
-  </si>
-  <si>
     <t>gboolean read_new_line(FILE_T fh, gint64 *offset, gint *length)</t>
   </si>
   <si>
@@ -797,15 +656,9 @@
     <t>lanalyzer_open(wtap *wth, int *err, gchar **err_info)</t>
   </si>
   <si>
-    <t>lanalyzer.c</t>
-  </si>
-  <si>
     <t>lanalyzer_close(wtap *wth)</t>
   </si>
   <si>
-    <t>pcapng.c</t>
-  </si>
-  <si>
     <t>pcapng_read_packet_block(FILE_T fh, pcapng_block_header_t *bh, pcapng_t *pn, wtapng_block_t *wblock,int *err, gchar **err_info _U_, gboolean enhanced)</t>
   </si>
   <si>
@@ -867,6 +720,153 @@
   </si>
   <si>
     <t>MEM30-C</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/crc32.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/packet.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/reassemble.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/radius_dict.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/sigcomp-udvm.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/tvbuff.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-3com-njack.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-afs.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-arp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-bacapp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-bootp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-btl2cap.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-catapult-dct2000.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-cdp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-dcerpc-eventlog.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-dcerpc-nt.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-dnp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-dns.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-enttec.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-gsm_a_common.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-gsm_a_gm.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-gsm_bsslap.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-http.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-icmpv6.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-ieee80211.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-infiniband.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-ip.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-ipmi-se.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-ipmi-transport.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-isakmp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-kerberos.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-nbns.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-netflow.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-ntlmssp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-q931.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-radius.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-rsvp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-rtps.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-sigcomp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-smb.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-smb2.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-ssl.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-tcap.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-x509sat.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-yhoo.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/epan/dissectors/packet-zrtp.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/wiretap/catapult_dct2000.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/wiretap/lanalyzer.c</t>
+  </si>
+  <si>
+    <t>pkg1/wireshark-1.2-buggy/wiretap/pcapng.c</t>
   </si>
 </sst>
 </file>
@@ -1225,12 +1225,12 @@
   <dimension ref="A1:Q380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H162" sqref="H162"/>
+      <selection activeCell="S385" sqref="S378:U385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
@@ -1244,314 +1244,314 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
       <c r="C4">
         <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
       </c>
       <c r="C5">
         <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>348</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1136</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>2826</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>2831</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14">
         <v>2966</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K14" s="1">
         <v>28025470</v>
@@ -1559,19 +1559,19 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>3008</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1">
         <v>28025470</v>
@@ -1580,19 +1580,19 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>3058</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K16" s="1">
         <v>28025470</v>
@@ -1601,6869 +1601,6869 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>657</v>
       </c>
       <c r="D17" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>716</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E18" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>721</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>327</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>339</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>344</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>348</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>377</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>408</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>419</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>450</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>461</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>485</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>495</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>536</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>576</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>607</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>616</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>647</v>
       </c>
       <c r="D35" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>657</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>695</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>705</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <v>745</v>
       </c>
       <c r="D39" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>755</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <v>795</v>
       </c>
       <c r="D41" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>862</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>948</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>956</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>995</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>1007</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>1106</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C48">
         <v>1120</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C49">
         <v>1209</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>1301</v>
       </c>
       <c r="D50" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H50" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C51">
         <v>1308</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <v>1432</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <v>1434</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H53" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <v>1511</v>
       </c>
       <c r="D54" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H54" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>1751</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C56">
         <v>1797</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>1930</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>1953</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>2052</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>2104</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H60" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>2236</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>2345</v>
       </c>
       <c r="D62" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C63">
         <v>2447</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H63" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C64">
         <v>2578</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H64" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>2590</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>2758</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="H66" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>2811</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>2823</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H68" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>2876</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>2881</v>
       </c>
       <c r="D70" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C71">
         <v>2891</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H71" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C72">
         <v>2894</v>
       </c>
       <c r="D72" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C73">
         <v>2907</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <v>2964</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H74" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C75">
         <v>2977</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>2989</v>
       </c>
       <c r="D76" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H76" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>3021</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C78">
         <v>3022</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H78" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C79">
         <v>3029</v>
       </c>
       <c r="D79" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H79" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C80">
         <v>3056</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H80" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C81">
         <v>3058</v>
       </c>
       <c r="D81" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C82">
         <v>220</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="H82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C83">
         <v>262</v>
       </c>
       <c r="H83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C84">
         <v>273</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C85">
         <v>278</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C86">
         <v>288</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C87">
         <v>299</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C88">
         <v>396</v>
       </c>
       <c r="D88" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E88" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F88" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G88" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H88" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K88" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C89">
         <v>463</v>
       </c>
       <c r="D89" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E89" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F89" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G89" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H89" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C90">
         <v>470</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E90" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F90" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G90" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H90" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K90" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C91">
         <v>510</v>
       </c>
       <c r="D91" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E91" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F91" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H91" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K91" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C92">
         <v>590</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E92" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C93">
         <v>592</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E93" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C94">
         <v>884</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E94" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C95">
         <v>890</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E95" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C96">
         <v>1114</v>
       </c>
       <c r="D96" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E96" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F96" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H96" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C97">
         <v>1115</v>
       </c>
       <c r="D97" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E97" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F97" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G97" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H97" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C98">
         <v>2831</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C99">
         <v>2964</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C100">
         <v>2993</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C101">
         <v>3003</v>
       </c>
       <c r="D101" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C102">
         <v>3064</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="E102" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="F102" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="H102" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C103">
         <v>3084</v>
       </c>
       <c r="D103" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="F103" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="H103" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C104">
         <v>3097</v>
       </c>
       <c r="D104" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H104" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C105">
         <v>654</v>
       </c>
       <c r="D105" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E105" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C106">
         <v>421</v>
       </c>
       <c r="D106" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B107" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C107">
         <v>192</v>
       </c>
       <c r="D107" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E107" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C108">
         <v>435</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H108" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C109">
         <v>439</v>
       </c>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H109" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C110">
         <v>442</v>
       </c>
       <c r="D110" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H110" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C111">
         <v>446</v>
       </c>
       <c r="D111" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C112">
         <v>462</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C113">
         <v>492</v>
       </c>
       <c r="D113" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H113" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C114">
         <v>889</v>
       </c>
       <c r="D114" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C115">
         <v>931</v>
       </c>
       <c r="D115" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E115" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C116">
         <v>970</v>
       </c>
       <c r="D116" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E116" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C117">
         <v>971</v>
       </c>
       <c r="D117" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E117" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="H117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C118">
         <v>978</v>
       </c>
       <c r="D118" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E118" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="H118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C119">
         <v>2774</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C120">
         <v>2782</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C121">
         <v>2796</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C122">
         <v>2814</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C123">
         <v>2821</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C124">
         <v>2822</v>
       </c>
       <c r="H124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C125">
         <v>878</v>
       </c>
       <c r="H125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C126">
         <v>914</v>
       </c>
       <c r="H126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C127">
         <v>1062</v>
       </c>
       <c r="H127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C128">
         <v>1073</v>
       </c>
       <c r="H128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C129">
         <v>3758</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C130">
         <v>3920</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B131" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C131">
         <v>370</v>
       </c>
       <c r="H131" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C132">
         <v>372</v>
       </c>
       <c r="H132" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B133" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C133">
         <v>417</v>
       </c>
       <c r="H133" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C134">
         <v>426</v>
       </c>
       <c r="H134" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C135">
         <v>428</v>
       </c>
       <c r="H135" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C136">
         <v>430</v>
       </c>
       <c r="H136" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C137">
         <v>506</v>
       </c>
       <c r="H137" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C138">
         <v>518</v>
       </c>
       <c r="H138" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B139" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C139">
         <v>520</v>
       </c>
       <c r="H139" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B140" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C140">
         <v>522</v>
       </c>
       <c r="H140" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B141" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C141">
         <v>672</v>
       </c>
       <c r="H141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B142" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C142">
         <v>673</v>
       </c>
       <c r="H142" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C143">
         <v>1136</v>
       </c>
       <c r="H143" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B144" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C144">
         <v>1160</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B145" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C145">
         <v>1160</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B146" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C146">
         <v>1293</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B147" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C147">
         <v>1300</v>
       </c>
       <c r="H147" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B148" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C148">
         <v>1302</v>
       </c>
       <c r="H148" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B149" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C149">
         <v>1307</v>
       </c>
       <c r="H149" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C150">
         <v>1309</v>
       </c>
       <c r="H150" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B151" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C151">
         <v>1300</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C152">
         <v>1302</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C153">
         <v>1307</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C154">
         <v>1309</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C155">
         <v>1321</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B156" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C156">
         <v>1323</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B157" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C157">
         <v>1327</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B158" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C158">
         <v>1329</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B159" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C159">
         <v>1321</v>
       </c>
       <c r="H159" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B160" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C160">
         <v>1323</v>
       </c>
       <c r="H160" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B161" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C161">
         <v>1327</v>
       </c>
       <c r="H161" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B162" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C162">
         <v>1329</v>
       </c>
       <c r="H162" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B163" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C163">
         <v>1636</v>
       </c>
       <c r="H163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B164" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C164">
         <v>1649</v>
       </c>
       <c r="H164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B165" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C165">
         <v>1650</v>
       </c>
       <c r="H165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C166">
         <v>185</v>
       </c>
       <c r="H166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="B167" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C167">
         <v>244</v>
       </c>
       <c r="H167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="B168" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C168">
         <v>248</v>
       </c>
       <c r="H168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C169">
         <v>388</v>
       </c>
       <c r="H169" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="B170" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C170">
         <v>390</v>
       </c>
       <c r="H170" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C171">
         <v>394</v>
       </c>
       <c r="H171" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="B172" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C172">
         <v>399</v>
       </c>
       <c r="H172" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="B173" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C173">
         <v>453</v>
       </c>
       <c r="H173" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="B174" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C174">
         <v>494</v>
       </c>
       <c r="H174" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="B175" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C175">
         <v>501</v>
       </c>
       <c r="H175" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="B176" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C176">
         <v>547</v>
       </c>
       <c r="H176" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="B177" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C177">
         <v>562</v>
       </c>
       <c r="H177" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="B178" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C178">
         <v>611</v>
       </c>
       <c r="H178" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B179" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C179">
         <v>1332</v>
       </c>
       <c r="H179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I179" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B180" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C180">
         <v>2204</v>
       </c>
       <c r="H180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I180" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B181" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C181">
         <v>2327</v>
       </c>
       <c r="H181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I181" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B182" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C182">
         <v>2467</v>
       </c>
       <c r="H182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I182" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B183" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C183">
         <v>2468</v>
       </c>
       <c r="H183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I183" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B184" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C184">
         <v>2471</v>
       </c>
       <c r="H184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I184" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B185" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C185">
         <v>2479</v>
       </c>
       <c r="H185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I185" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C186">
         <v>2483</v>
       </c>
       <c r="H186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I186" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C187">
         <v>2509</v>
       </c>
       <c r="H187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I187" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B188" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C188">
         <v>2553</v>
       </c>
       <c r="H188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I188" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B189" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C189">
         <v>2577</v>
       </c>
       <c r="H189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I189" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B190" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C190">
         <v>2593</v>
       </c>
       <c r="H190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I190" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="B191" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C191">
         <v>606</v>
       </c>
       <c r="H191" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="B192" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C192">
         <v>638</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="B193" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C193">
         <v>646</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B194" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C194">
         <v>197</v>
       </c>
       <c r="H194" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B195" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C195">
         <v>198</v>
       </c>
       <c r="H195" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B196" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C196">
         <v>225</v>
       </c>
       <c r="H196" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B197" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C197">
         <v>240</v>
       </c>
       <c r="H197" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B198" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C198">
         <v>241</v>
       </c>
       <c r="H198" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B199" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C199">
         <v>248</v>
       </c>
       <c r="H199" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B200" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C200">
         <v>253</v>
       </c>
       <c r="H200" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="B201" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C201">
         <v>700</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="B202" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C202">
         <v>702</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="B203" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C203">
         <v>5869</v>
       </c>
       <c r="H203" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="B204" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C204">
         <v>5872</v>
       </c>
       <c r="H204" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="B205" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C205">
         <v>251</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="B206" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C206">
         <v>262</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C207">
         <v>910</v>
       </c>
       <c r="H207" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C208">
         <v>2258</v>
       </c>
       <c r="H208" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="B209" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C209">
         <v>297</v>
       </c>
       <c r="H209" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="B210" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C210">
         <v>571</v>
       </c>
       <c r="H210" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="B211" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C211">
         <v>4024</v>
       </c>
       <c r="H211" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I211" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="B212" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C212">
         <v>4509</v>
       </c>
       <c r="H212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="B213" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C213">
         <v>4529</v>
       </c>
       <c r="H213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B214" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C214">
         <v>500</v>
       </c>
       <c r="H214" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B215" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C215">
         <v>503</v>
       </c>
       <c r="H215" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B216" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C216">
         <v>506</v>
       </c>
       <c r="H216" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B217" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C217">
         <v>509</v>
       </c>
       <c r="H217" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B218" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C218">
         <v>512</v>
       </c>
       <c r="H218" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B219" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C219">
         <v>515</v>
       </c>
       <c r="H219" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B220" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C220">
         <v>518</v>
       </c>
       <c r="H220" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B221" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C221">
         <v>521</v>
       </c>
       <c r="H221" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C222">
         <v>524</v>
       </c>
       <c r="H222" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B223" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C223">
         <v>527</v>
       </c>
       <c r="H223" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B224" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C224">
         <v>530</v>
       </c>
       <c r="H224" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B225" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C225">
         <v>533</v>
       </c>
       <c r="H225" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C226">
         <v>581</v>
       </c>
       <c r="H226" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B227" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C227">
         <v>942</v>
       </c>
       <c r="H227" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="B228" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C228">
         <v>642</v>
       </c>
       <c r="H228" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="B229" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C229">
         <v>650</v>
       </c>
       <c r="H229" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="B230" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C230">
         <v>758</v>
       </c>
       <c r="H230" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="B231" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C231">
         <v>760</v>
       </c>
       <c r="H231" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I231" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="B232" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C232">
         <v>761</v>
       </c>
       <c r="H232" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I232" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="B233" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C233">
         <v>1145</v>
       </c>
       <c r="H233" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="B234" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C234">
         <v>1290</v>
       </c>
       <c r="H234" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="B235" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C235">
         <v>2740</v>
       </c>
       <c r="H235" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="B236" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C236">
         <v>2743</v>
       </c>
       <c r="H236" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I236" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="B237" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C237">
         <v>2746</v>
       </c>
       <c r="H237" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I237" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="B238" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C238">
         <v>930</v>
       </c>
       <c r="H238" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I238" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="B239" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C239">
         <v>938</v>
       </c>
       <c r="H239" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I239" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B240" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C240">
         <v>935</v>
       </c>
       <c r="H240" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B241" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C241">
         <v>1071</v>
       </c>
       <c r="H241" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B242" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C242">
         <v>1078</v>
       </c>
       <c r="H242" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B243" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C243">
         <v>1079</v>
       </c>
       <c r="H243" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B244" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C244">
         <v>1089</v>
       </c>
       <c r="H244" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B245" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C245">
         <v>1201</v>
       </c>
       <c r="H245" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B246" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C246">
         <v>2665</v>
       </c>
       <c r="H246" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B247" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C247">
         <v>2666</v>
       </c>
       <c r="H247" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B248" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C248">
         <v>4536</v>
       </c>
       <c r="H248" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C249">
         <v>4567</v>
       </c>
       <c r="H249" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B250" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C250">
         <v>4591</v>
       </c>
       <c r="H250" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C251">
         <v>4651</v>
       </c>
       <c r="H251" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B252" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C252">
         <v>4652</v>
       </c>
       <c r="H252" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B253" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C253">
         <v>5389</v>
       </c>
       <c r="H253" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="B254" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C254">
         <v>462</v>
       </c>
       <c r="H254" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="B255" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C255">
         <v>470</v>
       </c>
       <c r="H255" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="B256" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C256">
         <v>1629</v>
       </c>
       <c r="H256" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C257">
         <v>1677</v>
       </c>
       <c r="H257" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C258">
         <v>2705</v>
       </c>
       <c r="H258" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I258" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J258" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C259">
         <v>2791</v>
       </c>
       <c r="H259" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I259" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J259" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C260">
         <v>2792</v>
       </c>
       <c r="H260" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I260" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J260" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C261">
         <v>2795</v>
       </c>
       <c r="H261" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I261" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J261" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C262">
         <v>2879</v>
       </c>
       <c r="H262" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I262" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J262" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C263">
         <v>2882</v>
       </c>
       <c r="H263" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I263" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J263" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C264">
         <v>3169</v>
       </c>
       <c r="H264" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I264" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J264" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C265">
         <v>3170</v>
       </c>
       <c r="H265" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I265" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J265" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C266">
         <v>3175</v>
       </c>
       <c r="H266" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I266" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J266" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B267" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C267">
         <v>3176</v>
       </c>
       <c r="H267" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I267" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J267" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="B268" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C268">
         <v>908</v>
       </c>
       <c r="H268" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="B269" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C269">
         <v>971</v>
       </c>
       <c r="H269" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="B270" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C270">
         <v>3116</v>
       </c>
       <c r="H270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="B271" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C271">
         <v>3117</v>
       </c>
       <c r="H271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B272" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C272">
         <v>880</v>
       </c>
       <c r="H272" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B273" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C273">
         <v>897</v>
       </c>
       <c r="H273" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B274" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C274">
         <v>906</v>
       </c>
       <c r="H274" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B275" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C275">
         <v>913</v>
       </c>
       <c r="H275" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B276" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C276">
         <v>1005</v>
       </c>
       <c r="H276" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B277" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C277">
         <v>1628</v>
       </c>
       <c r="H277" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="B278" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C278">
         <v>1440</v>
       </c>
       <c r="H278" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="I278" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="B279" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C279">
         <v>5774</v>
       </c>
       <c r="H279" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="I279" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="B280" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C280">
         <v>5778</v>
       </c>
       <c r="H280" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="I280" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="B281" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C281">
         <v>5880</v>
       </c>
       <c r="H281" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="I281" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B282" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C282">
         <v>2765</v>
       </c>
       <c r="H282" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B283" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C283">
         <v>2781</v>
       </c>
       <c r="H283" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B284" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C284">
         <v>2786</v>
       </c>
       <c r="H284" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B285" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C285">
         <v>2787</v>
       </c>
       <c r="H285" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B286" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C286">
         <v>2790</v>
       </c>
       <c r="H286" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B287" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C287">
         <v>2792</v>
       </c>
       <c r="H287" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="B288" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C288">
         <v>371</v>
       </c>
       <c r="H288" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I288" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="J288" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="B289" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C289">
         <v>385</v>
       </c>
       <c r="H289" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I289" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="J289" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="B290" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C290">
         <v>419</v>
       </c>
       <c r="H290" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I290" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="J290" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="B291" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C291">
         <v>426</v>
       </c>
       <c r="H291" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I291" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="J291" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B292" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C292">
         <v>2107</v>
       </c>
       <c r="H292" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B293" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C293">
         <v>2126</v>
       </c>
       <c r="H293" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B294" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="C294">
         <v>8210</v>
       </c>
       <c r="H294" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B295" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C295">
         <v>8430</v>
       </c>
       <c r="H295" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B296" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C296">
         <v>8455</v>
       </c>
       <c r="H296" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B297" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C297">
         <v>8522</v>
       </c>
       <c r="H297" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B298" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C298">
         <v>8631</v>
       </c>
       <c r="H298" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B299" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C299">
         <v>8684</v>
       </c>
       <c r="H299" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B300" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C300">
         <v>8684</v>
       </c>
       <c r="H300" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C301">
         <v>10389</v>
       </c>
       <c r="H301" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C302">
         <v>10399</v>
       </c>
       <c r="H302" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B303" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C303">
         <v>10499</v>
       </c>
       <c r="H303" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B304" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C304">
         <v>10500</v>
       </c>
       <c r="H304" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B305" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C305">
         <v>10596</v>
       </c>
       <c r="H305" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B306" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C306">
         <v>10597</v>
       </c>
       <c r="H306" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B307" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C307">
         <v>2107</v>
       </c>
       <c r="H307" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B308" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C308">
         <v>2126</v>
       </c>
       <c r="H308" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B309" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="C309">
         <v>8210</v>
       </c>
       <c r="H309" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B310" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C310">
         <v>8430</v>
       </c>
       <c r="H310" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B311" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C311">
         <v>8455</v>
       </c>
       <c r="H311" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B312" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C312">
         <v>8522</v>
       </c>
       <c r="H312" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B313" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C313">
         <v>8631</v>
       </c>
       <c r="H313" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B314" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C314">
         <v>8684</v>
       </c>
       <c r="H314" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B315" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C315">
         <v>8700</v>
       </c>
       <c r="H315" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B316" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C316">
         <v>10389</v>
       </c>
       <c r="H316" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B317" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C317">
         <v>10399</v>
       </c>
       <c r="H317" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B318" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C318">
         <v>10499</v>
       </c>
       <c r="H318" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B319" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C319">
         <v>10500</v>
       </c>
       <c r="H319" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B320" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C320">
         <v>10596</v>
       </c>
       <c r="H320" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B321" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C321">
         <v>10597</v>
       </c>
       <c r="H321" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="B322" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C322">
         <v>943</v>
       </c>
       <c r="H322" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B323" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C323">
         <v>275</v>
       </c>
       <c r="H323" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B324" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="C324">
         <v>692</v>
       </c>
       <c r="H324" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B325" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="C325">
         <v>715</v>
       </c>
       <c r="H325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B326" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="C326">
         <v>735</v>
       </c>
       <c r="H326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B327" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C327">
         <v>1328</v>
       </c>
       <c r="H327" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B328" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C328">
         <v>1356</v>
       </c>
       <c r="H328" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B329" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C329">
         <v>1401</v>
       </c>
       <c r="H329" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B330" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C330">
         <v>1482</v>
       </c>
       <c r="H330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B331" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C331">
         <v>1485</v>
       </c>
       <c r="H331" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B332" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C332">
         <v>1497</v>
       </c>
       <c r="H332" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B333" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C333">
         <v>1582</v>
       </c>
       <c r="H333" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B334" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C334">
         <v>1620</v>
       </c>
       <c r="H334" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B335" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="C335">
         <v>1682</v>
       </c>
       <c r="H335" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B336" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="C336">
         <v>1694</v>
       </c>
       <c r="H336" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B337" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="C337">
         <v>1793</v>
       </c>
       <c r="H337" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B338" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="C338">
         <v>1801</v>
       </c>
       <c r="H338" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B339" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C339">
         <v>2045</v>
       </c>
       <c r="H339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B340" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C340">
         <v>2070</v>
       </c>
       <c r="H340" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B341" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C341">
         <v>2071</v>
       </c>
       <c r="H341" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B342" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C342">
         <v>1506</v>
       </c>
       <c r="H342" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B343" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C343">
         <v>1515</v>
       </c>
       <c r="H343" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="B344" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="C344">
         <v>195</v>
       </c>
       <c r="H344" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="B345" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="C345">
         <v>411</v>
       </c>
       <c r="H345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B346" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C346">
         <v>797</v>
       </c>
       <c r="H346" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="I346" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B347" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C347">
         <v>805</v>
       </c>
       <c r="H347" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="I347" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B348" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C348">
         <v>809</v>
       </c>
       <c r="H348" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="I348" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B349" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C349">
         <v>811</v>
       </c>
       <c r="H349" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="I349" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B350" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C350">
         <v>161</v>
       </c>
       <c r="H350" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B351" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C351">
         <v>171</v>
       </c>
       <c r="H351" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B352" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C352">
         <v>181</v>
       </c>
       <c r="H352" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B353" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C353">
         <v>184</v>
       </c>
       <c r="H353" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B354" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C354">
         <v>202</v>
       </c>
       <c r="H354" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B355" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C355">
         <v>205</v>
       </c>
       <c r="H355" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B356" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C356">
         <v>248</v>
       </c>
       <c r="H356" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B357" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="C357">
         <v>261</v>
       </c>
       <c r="H357" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B358" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="C358">
         <v>433</v>
       </c>
       <c r="H358" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B359" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C359">
         <v>673</v>
       </c>
       <c r="H359" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B360" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C360">
         <v>673</v>
       </c>
       <c r="H360" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K360" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B361" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C361">
         <v>686</v>
       </c>
       <c r="H361" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B362" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C362">
         <v>687</v>
       </c>
       <c r="H362" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B363" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C363">
         <v>693</v>
       </c>
       <c r="H363" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B364" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C364">
         <v>694</v>
       </c>
       <c r="H364" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B365" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C365">
         <v>697</v>
       </c>
       <c r="H365" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B366" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C366">
         <v>697</v>
       </c>
       <c r="H366" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B367" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C367">
         <v>710</v>
       </c>
       <c r="H367" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B368" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C368">
         <v>711</v>
       </c>
       <c r="H368" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B369" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C369">
         <v>717</v>
       </c>
       <c r="H369" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B370" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C370">
         <v>718</v>
       </c>
       <c r="H370" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B371" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C371">
         <v>734</v>
       </c>
       <c r="H371" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B372" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C372">
         <v>739</v>
       </c>
       <c r="H372" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B373" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C373">
         <v>739</v>
       </c>
       <c r="H373" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K373" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B374" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C374">
         <v>841</v>
       </c>
       <c r="H374" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K374" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B375" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C375">
         <v>850</v>
       </c>
       <c r="H375" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B376" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C376">
         <v>852</v>
       </c>
       <c r="H376" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K376" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B377" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C377">
         <v>855</v>
       </c>
       <c r="H377" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B378" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C378">
         <v>868</v>
       </c>
       <c r="H378" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B379" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C379">
         <v>872</v>
       </c>
       <c r="H379" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B380" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C380">
         <v>872</v>
       </c>
       <c r="H380" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/bugs_table.xlsx
+++ b/bugs_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxbe\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F6CA44-DE50-488A-BC4B-F61503EBC69A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EC9A45-2D93-4050-A38B-1F2D96927399}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88C54D22-CC6D-44EB-88DB-9A6383E82FD2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$380</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$383</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$O:$O</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="279">
   <si>
     <t>File</t>
   </si>
@@ -1222,15 +1222,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEEF99E-85B6-452B-AB09-1A7819E6A45F}">
-  <dimension ref="A1:Q380"/>
+  <dimension ref="A1:Q383"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="S385" sqref="S378:U385"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
@@ -3567,45 +3567,42 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C107">
-        <v>192</v>
+        <v>423</v>
       </c>
       <c r="D107" t="s">
-        <v>221</v>
-      </c>
-      <c r="E107" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C108">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D108" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H108" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -3613,19 +3610,22 @@
         <v>238</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C109">
-        <v>439</v>
+        <v>192</v>
       </c>
       <c r="D109" t="s">
+        <v>221</v>
+      </c>
+      <c r="E109" t="s">
         <v>222</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -3636,7 +3636,7 @@
         <v>66</v>
       </c>
       <c r="C110">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D110" t="s">
         <v>222</v>
@@ -3656,16 +3656,16 @@
         <v>66</v>
       </c>
       <c r="C111">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D111" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -3676,16 +3676,16 @@
         <v>66</v>
       </c>
       <c r="C112">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D112" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H112" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -3696,16 +3696,16 @@
         <v>66</v>
       </c>
       <c r="C113">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="D113" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H113" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -3713,21 +3713,15 @@
         <v>238</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C114">
-        <v>889</v>
+        <v>462</v>
       </c>
       <c r="D114" t="s">
-        <v>216</v>
-      </c>
-      <c r="E114" t="s">
         <v>215</v>
       </c>
       <c r="H114" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" t="s">
         <v>4</v>
       </c>
       <c r="K114" s="1" t="s">
@@ -3739,25 +3733,19 @@
         <v>238</v>
       </c>
       <c r="B115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C115">
-        <v>931</v>
+        <v>492</v>
       </c>
       <c r="D115" t="s">
-        <v>216</v>
-      </c>
-      <c r="E115" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H115" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -3768,7 +3756,7 @@
         <v>68</v>
       </c>
       <c r="C116">
-        <v>970</v>
+        <v>889</v>
       </c>
       <c r="D116" t="s">
         <v>216</v>
@@ -3794,7 +3782,7 @@
         <v>68</v>
       </c>
       <c r="C117">
-        <v>971</v>
+        <v>931</v>
       </c>
       <c r="D117" t="s">
         <v>216</v>
@@ -3820,16 +3808,13 @@
         <v>68</v>
       </c>
       <c r="C118">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="D118" t="s">
         <v>216</v>
       </c>
       <c r="E118" t="s">
-        <v>226</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H118" t="s">
         <v>10</v>
@@ -3843,36 +3828,57 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C119">
-        <v>2774</v>
+        <v>971</v>
+      </c>
+      <c r="D119" t="s">
+        <v>216</v>
+      </c>
+      <c r="E119" t="s">
+        <v>215</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>4</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C120">
-        <v>2782</v>
+        <v>978</v>
+      </c>
+      <c r="D120" t="s">
+        <v>216</v>
+      </c>
+      <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
+        <v>224</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
+        <v>4</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -3883,7 +3889,7 @@
         <v>69</v>
       </c>
       <c r="C121">
-        <v>2796</v>
+        <v>2774</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
@@ -3900,7 +3906,7 @@
         <v>69</v>
       </c>
       <c r="C122">
-        <v>2814</v>
+        <v>2782</v>
       </c>
       <c r="H122" t="s">
         <v>18</v>
@@ -3917,7 +3923,7 @@
         <v>69</v>
       </c>
       <c r="C123">
-        <v>2821</v>
+        <v>2796</v>
       </c>
       <c r="H123" t="s">
         <v>18</v>
@@ -3934,7 +3940,7 @@
         <v>69</v>
       </c>
       <c r="C124">
-        <v>2822</v>
+        <v>2814</v>
       </c>
       <c r="H124" t="s">
         <v>18</v>
@@ -3945,36 +3951,36 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C125">
-        <v>878</v>
+        <v>2821</v>
       </c>
       <c r="H125" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C126">
-        <v>914</v>
+        <v>2822</v>
       </c>
       <c r="H126" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -3985,7 +3991,7 @@
         <v>71</v>
       </c>
       <c r="C127">
-        <v>1062</v>
+        <v>878</v>
       </c>
       <c r="H127" t="s">
         <v>10</v>
@@ -4002,7 +4008,7 @@
         <v>71</v>
       </c>
       <c r="C128">
-        <v>1073</v>
+        <v>914</v>
       </c>
       <c r="H128" t="s">
         <v>10</v>
@@ -4016,16 +4022,16 @@
         <v>240</v>
       </c>
       <c r="B129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C129">
-        <v>3758</v>
+        <v>1062</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -4033,50 +4039,50 @@
         <v>240</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C130">
-        <v>3920</v>
+        <v>1073</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B131" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C131">
-        <v>370</v>
+        <v>3758</v>
       </c>
       <c r="H131" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B132" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C132">
-        <v>372</v>
+        <v>3920</v>
       </c>
       <c r="H132" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -4084,10 +4090,10 @@
         <v>241</v>
       </c>
       <c r="B133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C133">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="H133" t="s">
         <v>64</v>
@@ -4101,10 +4107,10 @@
         <v>241</v>
       </c>
       <c r="B134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C134">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="H134" t="s">
         <v>64</v>
@@ -4121,7 +4127,7 @@
         <v>76</v>
       </c>
       <c r="C135">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="H135" t="s">
         <v>64</v>
@@ -4138,7 +4144,7 @@
         <v>76</v>
       </c>
       <c r="C136">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H136" t="s">
         <v>64</v>
@@ -4152,10 +4158,10 @@
         <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C137">
-        <v>506</v>
+        <v>428</v>
       </c>
       <c r="H137" t="s">
         <v>64</v>
@@ -4169,10 +4175,10 @@
         <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C138">
-        <v>518</v>
+        <v>430</v>
       </c>
       <c r="H138" t="s">
         <v>64</v>
@@ -4189,7 +4195,7 @@
         <v>77</v>
       </c>
       <c r="C139">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="H139" t="s">
         <v>64</v>
@@ -4206,7 +4212,7 @@
         <v>77</v>
       </c>
       <c r="C140">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H140" t="s">
         <v>64</v>
@@ -4220,16 +4226,16 @@
         <v>241</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C141">
-        <v>672</v>
+        <v>520</v>
       </c>
       <c r="H141" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -4237,50 +4243,50 @@
         <v>241</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C142">
-        <v>673</v>
+        <v>522</v>
       </c>
       <c r="H142" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C143">
-        <v>1136</v>
+        <v>672</v>
       </c>
       <c r="H143" t="s">
-        <v>85</v>
-      </c>
-      <c r="I143" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C144">
-        <v>1160</v>
+        <v>673</v>
+      </c>
+      <c r="H144" t="s">
+        <v>34</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -4288,13 +4294,19 @@
         <v>242</v>
       </c>
       <c r="B145" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C145">
-        <v>1160</v>
+        <v>1136</v>
+      </c>
+      <c r="H145" t="s">
+        <v>85</v>
+      </c>
+      <c r="I145" t="s">
+        <v>4</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -4305,7 +4317,7 @@
         <v>84</v>
       </c>
       <c r="C146">
-        <v>1293</v>
+        <v>1160</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>82</v>
@@ -4319,16 +4331,10 @@
         <v>84</v>
       </c>
       <c r="C147">
-        <v>1300</v>
-      </c>
-      <c r="H147" t="s">
-        <v>85</v>
-      </c>
-      <c r="I147" t="s">
-        <v>4</v>
+        <v>1160</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -4339,16 +4345,10 @@
         <v>84</v>
       </c>
       <c r="C148">
-        <v>1302</v>
-      </c>
-      <c r="H148" t="s">
-        <v>85</v>
-      </c>
-      <c r="I148" t="s">
-        <v>4</v>
+        <v>1293</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -4359,7 +4359,7 @@
         <v>84</v>
       </c>
       <c r="C149">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="H149" t="s">
         <v>85</v>
@@ -4379,7 +4379,7 @@
         <v>84</v>
       </c>
       <c r="C150">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="H150" t="s">
         <v>85</v>
@@ -4399,10 +4399,16 @@
         <v>84</v>
       </c>
       <c r="C151">
-        <v>1300</v>
+        <v>1307</v>
+      </c>
+      <c r="H151" t="s">
+        <v>85</v>
+      </c>
+      <c r="I151" t="s">
+        <v>4</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -4413,10 +4419,16 @@
         <v>84</v>
       </c>
       <c r="C152">
-        <v>1302</v>
+        <v>1309</v>
+      </c>
+      <c r="H152" t="s">
+        <v>85</v>
+      </c>
+      <c r="I152" t="s">
+        <v>4</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -4427,7 +4439,7 @@
         <v>84</v>
       </c>
       <c r="C153">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>82</v>
@@ -4441,7 +4453,7 @@
         <v>84</v>
       </c>
       <c r="C154">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>82</v>
@@ -4455,10 +4467,10 @@
         <v>84</v>
       </c>
       <c r="C155">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -4469,10 +4481,10 @@
         <v>84</v>
       </c>
       <c r="C156">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -4483,7 +4495,7 @@
         <v>84</v>
       </c>
       <c r="C157">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>83</v>
@@ -4497,7 +4509,7 @@
         <v>84</v>
       </c>
       <c r="C158">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>83</v>
@@ -4511,16 +4523,10 @@
         <v>84</v>
       </c>
       <c r="C159">
-        <v>1321</v>
-      </c>
-      <c r="H159" t="s">
-        <v>85</v>
-      </c>
-      <c r="I159" t="s">
-        <v>4</v>
+        <v>1327</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -4531,16 +4537,10 @@
         <v>84</v>
       </c>
       <c r="C160">
-        <v>1323</v>
-      </c>
-      <c r="H160" t="s">
-        <v>85</v>
-      </c>
-      <c r="I160" t="s">
-        <v>4</v>
+        <v>1329</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -4551,7 +4551,7 @@
         <v>84</v>
       </c>
       <c r="C161">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="H161" t="s">
         <v>85</v>
@@ -4571,7 +4571,7 @@
         <v>84</v>
       </c>
       <c r="C162">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="H162" t="s">
         <v>85</v>
@@ -4588,19 +4588,19 @@
         <v>242</v>
       </c>
       <c r="B163" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C163">
-        <v>1636</v>
+        <v>1327</v>
       </c>
       <c r="H163" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I163" t="s">
         <v>4</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -4608,19 +4608,19 @@
         <v>242</v>
       </c>
       <c r="B164" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C164">
-        <v>1649</v>
+        <v>1329</v>
       </c>
       <c r="H164" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I164" t="s">
         <v>4</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -4631,7 +4631,7 @@
         <v>87</v>
       </c>
       <c r="C165">
-        <v>1650</v>
+        <v>1636</v>
       </c>
       <c r="H165" t="s">
         <v>10</v>
@@ -4645,36 +4645,42 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C166">
-        <v>185</v>
+        <v>1649</v>
       </c>
       <c r="H166" t="s">
         <v>10</v>
       </c>
+      <c r="I166" t="s">
+        <v>4</v>
+      </c>
       <c r="K166" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C167">
-        <v>244</v>
+        <v>1650</v>
       </c>
       <c r="H167" t="s">
         <v>10</v>
       </c>
+      <c r="I167" t="s">
+        <v>4</v>
+      </c>
       <c r="K167" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -4685,7 +4691,7 @@
         <v>88</v>
       </c>
       <c r="C168">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="H168" t="s">
         <v>10</v>
@@ -4696,36 +4702,36 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169">
         <v>244</v>
       </c>
-      <c r="B169" t="s">
-        <v>91</v>
-      </c>
-      <c r="C169">
-        <v>388</v>
-      </c>
       <c r="H169" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B170" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C170">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="H170" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -4736,10 +4742,10 @@
         <v>91</v>
       </c>
       <c r="C171">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H171" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>93</v>
@@ -4753,10 +4759,10 @@
         <v>91</v>
       </c>
       <c r="C172">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H172" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>93</v>
@@ -4764,36 +4770,36 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B173" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C173">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="H173" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B174" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C174">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="H174" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -4804,7 +4810,7 @@
         <v>96</v>
       </c>
       <c r="C175">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="H175" t="s">
         <v>64</v>
@@ -4821,7 +4827,7 @@
         <v>96</v>
       </c>
       <c r="C176">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="H176" t="s">
         <v>64</v>
@@ -4838,7 +4844,7 @@
         <v>96</v>
       </c>
       <c r="C177">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="H177" t="s">
         <v>64</v>
@@ -4855,7 +4861,7 @@
         <v>96</v>
       </c>
       <c r="C178">
-        <v>611</v>
+        <v>547</v>
       </c>
       <c r="H178" t="s">
         <v>64</v>
@@ -4866,42 +4872,36 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B179" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C179">
-        <v>1332</v>
+        <v>562</v>
       </c>
       <c r="H179" t="s">
-        <v>10</v>
-      </c>
-      <c r="I179" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B180" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C180">
-        <v>2204</v>
+        <v>611</v>
       </c>
       <c r="H180" t="s">
-        <v>10</v>
-      </c>
-      <c r="I180" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -4909,10 +4909,10 @@
         <v>246</v>
       </c>
       <c r="B181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C181">
-        <v>2327</v>
+        <v>1332</v>
       </c>
       <c r="H181" t="s">
         <v>10</v>
@@ -4932,7 +4932,7 @@
         <v>99</v>
       </c>
       <c r="C182">
-        <v>2467</v>
+        <v>2204</v>
       </c>
       <c r="H182" t="s">
         <v>10</v>
@@ -4952,7 +4952,7 @@
         <v>99</v>
       </c>
       <c r="C183">
-        <v>2468</v>
+        <v>2327</v>
       </c>
       <c r="H183" t="s">
         <v>10</v>
@@ -4972,7 +4972,7 @@
         <v>99</v>
       </c>
       <c r="C184">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="H184" t="s">
         <v>10</v>
@@ -4992,7 +4992,7 @@
         <v>99</v>
       </c>
       <c r="C185">
-        <v>2479</v>
+        <v>2468</v>
       </c>
       <c r="H185" t="s">
         <v>10</v>
@@ -5012,7 +5012,7 @@
         <v>99</v>
       </c>
       <c r="C186">
-        <v>2483</v>
+        <v>2471</v>
       </c>
       <c r="H186" t="s">
         <v>10</v>
@@ -5032,7 +5032,7 @@
         <v>99</v>
       </c>
       <c r="C187">
-        <v>2509</v>
+        <v>2479</v>
       </c>
       <c r="H187" t="s">
         <v>10</v>
@@ -5052,7 +5052,7 @@
         <v>99</v>
       </c>
       <c r="C188">
-        <v>2553</v>
+        <v>2483</v>
       </c>
       <c r="H188" t="s">
         <v>10</v>
@@ -5072,7 +5072,7 @@
         <v>99</v>
       </c>
       <c r="C189">
-        <v>2577</v>
+        <v>2509</v>
       </c>
       <c r="H189" t="s">
         <v>10</v>
@@ -5092,7 +5092,7 @@
         <v>99</v>
       </c>
       <c r="C190">
-        <v>2593</v>
+        <v>2553</v>
       </c>
       <c r="H190" t="s">
         <v>10</v>
@@ -5106,36 +5106,42 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B191" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C191">
-        <v>606</v>
+        <v>2577</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I191" t="s">
+        <v>100</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B192" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C192">
-        <v>638</v>
+        <v>2593</v>
       </c>
       <c r="H192" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I192" t="s">
+        <v>100</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -5146,7 +5152,7 @@
         <v>101</v>
       </c>
       <c r="C193">
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="H193" t="s">
         <v>12</v>
@@ -5157,36 +5163,36 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B194" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C194">
-        <v>197</v>
+        <v>638</v>
       </c>
       <c r="H194" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B195" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C195">
-        <v>198</v>
+        <v>646</v>
       </c>
       <c r="H195" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -5197,7 +5203,7 @@
         <v>103</v>
       </c>
       <c r="C196">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="H196" t="s">
         <v>34</v>
@@ -5214,7 +5220,7 @@
         <v>103</v>
       </c>
       <c r="C197">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="H197" t="s">
         <v>34</v>
@@ -5231,7 +5237,7 @@
         <v>103</v>
       </c>
       <c r="C198">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H198" t="s">
         <v>34</v>
@@ -5248,7 +5254,7 @@
         <v>103</v>
       </c>
       <c r="C199">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H199" t="s">
         <v>34</v>
@@ -5265,7 +5271,7 @@
         <v>103</v>
       </c>
       <c r="C200">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H200" t="s">
         <v>34</v>
@@ -5276,98 +5282,104 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B201" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C201">
-        <v>700</v>
+        <v>248</v>
       </c>
       <c r="H201" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B202" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C202">
-        <v>702</v>
+        <v>253</v>
       </c>
       <c r="H202" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B203" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C203">
-        <v>5869</v>
+        <v>700</v>
       </c>
       <c r="H203" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B204" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C204">
-        <v>5872</v>
+        <v>702</v>
       </c>
       <c r="H204" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B205" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C205">
-        <v>251</v>
+        <v>5869</v>
+      </c>
+      <c r="H205" t="s">
+        <v>108</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B206" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C206">
-        <v>262</v>
+        <v>5872</v>
+      </c>
+      <c r="H206" t="s">
+        <v>108</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -5375,104 +5387,95 @@
         <v>251</v>
       </c>
       <c r="B207" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C207">
-        <v>910</v>
-      </c>
-      <c r="H207" t="s">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B208" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C208">
-        <v>2258</v>
-      </c>
-      <c r="H208" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B209" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C209">
-        <v>297</v>
+        <v>910</v>
       </c>
       <c r="H209" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B210" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C210">
-        <v>571</v>
+        <v>2258</v>
       </c>
       <c r="H210" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B211" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C211">
-        <v>4024</v>
+        <v>297</v>
       </c>
       <c r="H211" t="s">
-        <v>119</v>
-      </c>
-      <c r="I211" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B212" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C212">
-        <v>4509</v>
+        <v>571</v>
       </c>
       <c r="H212" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -5480,50 +5483,53 @@
         <v>254</v>
       </c>
       <c r="B213" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C213">
-        <v>4529</v>
+        <v>4024</v>
       </c>
       <c r="H213" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="I213" t="s">
+        <v>45</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B214" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C214">
-        <v>500</v>
+        <v>4509</v>
       </c>
       <c r="H214" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B215" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C215">
-        <v>503</v>
+        <v>4529</v>
       </c>
       <c r="H215" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
@@ -5534,7 +5540,7 @@
         <v>123</v>
       </c>
       <c r="C216">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H216" t="s">
         <v>124</v>
@@ -5551,7 +5557,7 @@
         <v>123</v>
       </c>
       <c r="C217">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H217" t="s">
         <v>124</v>
@@ -5568,7 +5574,7 @@
         <v>123</v>
       </c>
       <c r="C218">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H218" t="s">
         <v>124</v>
@@ -5585,7 +5591,7 @@
         <v>123</v>
       </c>
       <c r="C219">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H219" t="s">
         <v>124</v>
@@ -5602,7 +5608,7 @@
         <v>123</v>
       </c>
       <c r="C220">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H220" t="s">
         <v>124</v>
@@ -5619,7 +5625,7 @@
         <v>123</v>
       </c>
       <c r="C221">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H221" t="s">
         <v>124</v>
@@ -5636,7 +5642,7 @@
         <v>123</v>
       </c>
       <c r="C222">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H222" t="s">
         <v>124</v>
@@ -5653,7 +5659,7 @@
         <v>123</v>
       </c>
       <c r="C223">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H223" t="s">
         <v>124</v>
@@ -5670,7 +5676,7 @@
         <v>123</v>
       </c>
       <c r="C224">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H224" t="s">
         <v>124</v>
@@ -5687,7 +5693,7 @@
         <v>123</v>
       </c>
       <c r="C225">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H225" t="s">
         <v>124</v>
@@ -5701,10 +5707,10 @@
         <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C226">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="H226" t="s">
         <v>124</v>
@@ -5718,70 +5724,67 @@
         <v>255</v>
       </c>
       <c r="B227" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C227">
-        <v>942</v>
+        <v>533</v>
       </c>
       <c r="H227" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B228" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C228">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="H228" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B229" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C229">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="H229" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B230" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C230">
-        <v>758</v>
+        <v>942</v>
       </c>
       <c r="H230" t="s">
-        <v>124</v>
-      </c>
-      <c r="I230" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
@@ -5789,19 +5792,16 @@
         <v>256</v>
       </c>
       <c r="B231" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C231">
-        <v>760</v>
+        <v>642</v>
       </c>
       <c r="H231" t="s">
-        <v>124</v>
-      </c>
-      <c r="I231" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
@@ -5809,19 +5809,16 @@
         <v>256</v>
       </c>
       <c r="B232" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C232">
-        <v>761</v>
+        <v>650</v>
       </c>
       <c r="H232" t="s">
-        <v>124</v>
-      </c>
-      <c r="I232" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
@@ -5829,16 +5826,19 @@
         <v>256</v>
       </c>
       <c r="B233" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C233">
-        <v>1145</v>
+        <v>758</v>
       </c>
       <c r="H233" t="s">
-        <v>64</v>
+        <v>124</v>
+      </c>
+      <c r="I233" t="s">
+        <v>4</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -5846,87 +5846,84 @@
         <v>256</v>
       </c>
       <c r="B234" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C234">
-        <v>1290</v>
+        <v>760</v>
       </c>
       <c r="H234" t="s">
-        <v>64</v>
+        <v>124</v>
+      </c>
+      <c r="I234" t="s">
+        <v>4</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B235" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C235">
-        <v>2740</v>
+        <v>761</v>
       </c>
       <c r="H235" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="I235" t="s">
         <v>4</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B236" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C236">
-        <v>2743</v>
+        <v>1145</v>
       </c>
       <c r="H236" t="s">
-        <v>92</v>
-      </c>
-      <c r="I236" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B237" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C237">
-        <v>2746</v>
+        <v>1290</v>
       </c>
       <c r="H237" t="s">
-        <v>92</v>
-      </c>
-      <c r="I237" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B238" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C238">
-        <v>930</v>
+        <v>2740</v>
       </c>
       <c r="H238" t="s">
         <v>92</v>
@@ -5935,18 +5932,18 @@
         <v>4</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B239" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C239">
-        <v>938</v>
+        <v>2743</v>
       </c>
       <c r="H239" t="s">
         <v>92</v>
@@ -5955,58 +5952,67 @@
         <v>4</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B240" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C240">
-        <v>935</v>
+        <v>2746</v>
       </c>
       <c r="H240" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="I240" t="s">
+        <v>4</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B241" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C241">
-        <v>1071</v>
+        <v>930</v>
       </c>
       <c r="H241" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="I241" t="s">
+        <v>4</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B242" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C242">
-        <v>1078</v>
+        <v>938</v>
       </c>
       <c r="H242" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="I242" t="s">
+        <v>4</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
@@ -6014,10 +6020,10 @@
         <v>259</v>
       </c>
       <c r="B243" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C243">
-        <v>1079</v>
+        <v>935</v>
       </c>
       <c r="H243" t="s">
         <v>12</v>
@@ -6034,7 +6040,7 @@
         <v>141</v>
       </c>
       <c r="C244">
-        <v>1089</v>
+        <v>1071</v>
       </c>
       <c r="H244" t="s">
         <v>12</v>
@@ -6051,7 +6057,7 @@
         <v>141</v>
       </c>
       <c r="C245">
-        <v>1201</v>
+        <v>1078</v>
       </c>
       <c r="H245" t="s">
         <v>12</v>
@@ -6065,10 +6071,10 @@
         <v>259</v>
       </c>
       <c r="B246" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C246">
-        <v>2665</v>
+        <v>1079</v>
       </c>
       <c r="H246" t="s">
         <v>12</v>
@@ -6082,10 +6088,10 @@
         <v>259</v>
       </c>
       <c r="B247" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C247">
-        <v>2666</v>
+        <v>1089</v>
       </c>
       <c r="H247" t="s">
         <v>12</v>
@@ -6096,53 +6102,53 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C248">
-        <v>4536</v>
+        <v>1201</v>
       </c>
       <c r="H248" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B249" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C249">
-        <v>4567</v>
+        <v>2665</v>
       </c>
       <c r="H249" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C250">
-        <v>4591</v>
+        <v>2666</v>
       </c>
       <c r="H250" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
@@ -6150,10 +6156,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C251">
-        <v>4651</v>
+        <v>4536</v>
       </c>
       <c r="H251" t="s">
         <v>34</v>
@@ -6167,10 +6173,10 @@
         <v>260</v>
       </c>
       <c r="B252" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C252">
-        <v>4652</v>
+        <v>4567</v>
       </c>
       <c r="H252" t="s">
         <v>34</v>
@@ -6184,10 +6190,10 @@
         <v>260</v>
       </c>
       <c r="B253" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C253">
-        <v>5389</v>
+        <v>4591</v>
       </c>
       <c r="H253" t="s">
         <v>34</v>
@@ -6198,50 +6204,50 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B254" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C254">
-        <v>462</v>
+        <v>4651</v>
       </c>
       <c r="H254" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C255">
-        <v>470</v>
+        <v>4652</v>
       </c>
       <c r="H255" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C256">
-        <v>1629</v>
+        <v>5389</v>
       </c>
       <c r="H256" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>144</v>
@@ -6252,85 +6258,67 @@
         <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C257">
-        <v>1677</v>
+        <v>462</v>
       </c>
       <c r="H257" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C258">
-        <v>2705</v>
+        <v>470</v>
       </c>
       <c r="H258" t="s">
-        <v>124</v>
-      </c>
-      <c r="I258" t="s">
-        <v>124</v>
-      </c>
-      <c r="J258" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C259">
-        <v>2791</v>
+        <v>1629</v>
       </c>
       <c r="H259" t="s">
-        <v>124</v>
-      </c>
-      <c r="I259" t="s">
-        <v>124</v>
-      </c>
-      <c r="J259" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C260">
-        <v>2792</v>
+        <v>1677</v>
       </c>
       <c r="H260" t="s">
-        <v>124</v>
-      </c>
-      <c r="I260" t="s">
-        <v>124</v>
-      </c>
-      <c r="J260" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
@@ -6341,7 +6329,7 @@
         <v>152</v>
       </c>
       <c r="C261">
-        <v>2795</v>
+        <v>2705</v>
       </c>
       <c r="H261" t="s">
         <v>124</v>
@@ -6361,10 +6349,10 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C262">
-        <v>2879</v>
+        <v>2791</v>
       </c>
       <c r="H262" t="s">
         <v>124</v>
@@ -6384,10 +6372,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C263">
-        <v>2882</v>
+        <v>2792</v>
       </c>
       <c r="H263" t="s">
         <v>124</v>
@@ -6407,13 +6395,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C264">
-        <v>3169</v>
+        <v>2795</v>
       </c>
       <c r="H264" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I264" t="s">
         <v>124</v>
@@ -6430,13 +6418,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C265">
-        <v>3170</v>
+        <v>2879</v>
       </c>
       <c r="H265" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I265" t="s">
         <v>124</v>
@@ -6453,13 +6441,13 @@
         <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C266">
-        <v>3175</v>
+        <v>2882</v>
       </c>
       <c r="H266" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I266" t="s">
         <v>124</v>
@@ -6479,7 +6467,7 @@
         <v>155</v>
       </c>
       <c r="C267">
-        <v>3176</v>
+        <v>3169</v>
       </c>
       <c r="H267" t="s">
         <v>34</v>
@@ -6496,121 +6484,139 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B268" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C268">
-        <v>908</v>
+        <v>3170</v>
       </c>
       <c r="H268" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="I268" t="s">
+        <v>124</v>
+      </c>
+      <c r="J268" t="s">
+        <v>157</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C269">
-        <v>971</v>
+        <v>3175</v>
       </c>
       <c r="H269" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="I269" t="s">
+        <v>124</v>
+      </c>
+      <c r="J269" t="s">
+        <v>157</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B270" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C270">
-        <v>3116</v>
+        <v>3176</v>
       </c>
       <c r="H270" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="I270" t="s">
+        <v>124</v>
+      </c>
+      <c r="J270" t="s">
+        <v>157</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B271" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C271">
-        <v>3117</v>
+        <v>908</v>
       </c>
       <c r="H271" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B272" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C272">
-        <v>880</v>
+        <v>971</v>
       </c>
       <c r="H272" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B273" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C273">
-        <v>897</v>
+        <v>3116</v>
       </c>
       <c r="H273" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B274" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C274">
-        <v>906</v>
+        <v>3117</v>
       </c>
       <c r="H274" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
@@ -6621,7 +6627,7 @@
         <v>162</v>
       </c>
       <c r="C275">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="H275" t="s">
         <v>163</v>
@@ -6638,7 +6644,7 @@
         <v>162</v>
       </c>
       <c r="C276">
-        <v>1005</v>
+        <v>897</v>
       </c>
       <c r="H276" t="s">
         <v>163</v>
@@ -6652,76 +6658,67 @@
         <v>265</v>
       </c>
       <c r="B277" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C277">
-        <v>1628</v>
+        <v>906</v>
       </c>
       <c r="H277" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B278" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C278">
-        <v>1440</v>
+        <v>913</v>
       </c>
       <c r="H278" t="s">
-        <v>168</v>
-      </c>
-      <c r="I278" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B279" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C279">
-        <v>5774</v>
+        <v>1005</v>
       </c>
       <c r="H279" t="s">
-        <v>168</v>
-      </c>
-      <c r="I279" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B280" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C280">
-        <v>5778</v>
+        <v>1628</v>
       </c>
       <c r="H280" t="s">
-        <v>168</v>
-      </c>
-      <c r="I280" t="s">
         <v>22</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -6729,10 +6726,10 @@
         <v>266</v>
       </c>
       <c r="B281" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C281">
-        <v>5880</v>
+        <v>1440</v>
       </c>
       <c r="H281" t="s">
         <v>168</v>
@@ -6746,53 +6743,62 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B282" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C282">
-        <v>2765</v>
+        <v>5774</v>
       </c>
       <c r="H282" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I282" t="s">
+        <v>22</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B283" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C283">
-        <v>2781</v>
+        <v>5778</v>
       </c>
       <c r="H283" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I283" t="s">
+        <v>22</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B284" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C284">
-        <v>2786</v>
+        <v>5880</v>
       </c>
       <c r="H284" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I284" t="s">
+        <v>22</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
@@ -6803,7 +6809,7 @@
         <v>171</v>
       </c>
       <c r="C285">
-        <v>2787</v>
+        <v>2765</v>
       </c>
       <c r="H285" t="s">
         <v>173</v>
@@ -6820,7 +6826,7 @@
         <v>171</v>
       </c>
       <c r="C286">
-        <v>2790</v>
+        <v>2781</v>
       </c>
       <c r="H286" t="s">
         <v>173</v>
@@ -6837,7 +6843,7 @@
         <v>171</v>
       </c>
       <c r="C287">
-        <v>2792</v>
+        <v>2786</v>
       </c>
       <c r="H287" t="s">
         <v>173</v>
@@ -6848,71 +6854,53 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B288" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C288">
-        <v>371</v>
+        <v>2787</v>
       </c>
       <c r="H288" t="s">
-        <v>176</v>
-      </c>
-      <c r="I288" t="s">
-        <v>177</v>
-      </c>
-      <c r="J288" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B289" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C289">
-        <v>385</v>
+        <v>2790</v>
       </c>
       <c r="H289" t="s">
-        <v>176</v>
-      </c>
-      <c r="I289" t="s">
-        <v>177</v>
-      </c>
-      <c r="J289" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B290" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C290">
-        <v>419</v>
+        <v>2792</v>
       </c>
       <c r="H290" t="s">
-        <v>176</v>
-      </c>
-      <c r="I290" t="s">
-        <v>177</v>
-      </c>
-      <c r="J290" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -6923,7 +6911,7 @@
         <v>174</v>
       </c>
       <c r="C291">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="H291" t="s">
         <v>176</v>
@@ -6940,53 +6928,71 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B292" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C292">
-        <v>2107</v>
+        <v>385</v>
       </c>
       <c r="H292" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="I292" t="s">
+        <v>177</v>
+      </c>
+      <c r="J292" t="s">
+        <v>178</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B293" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C293">
-        <v>2126</v>
+        <v>419</v>
       </c>
       <c r="H293" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="I293" t="s">
+        <v>177</v>
+      </c>
+      <c r="J293" t="s">
+        <v>178</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B294" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C294">
-        <v>8210</v>
+        <v>426</v>
       </c>
       <c r="H294" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="I294" t="s">
+        <v>177</v>
+      </c>
+      <c r="J294" t="s">
+        <v>178</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -6994,16 +7000,16 @@
         <v>269</v>
       </c>
       <c r="B295" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C295">
-        <v>8430</v>
+        <v>2107</v>
       </c>
       <c r="H295" t="s">
         <v>64</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -7011,16 +7017,16 @@
         <v>269</v>
       </c>
       <c r="B296" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C296">
-        <v>8455</v>
+        <v>2126</v>
       </c>
       <c r="H296" t="s">
         <v>64</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
@@ -7028,10 +7034,10 @@
         <v>269</v>
       </c>
       <c r="B297" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C297">
-        <v>8522</v>
+        <v>8210</v>
       </c>
       <c r="H297" t="s">
         <v>64</v>
@@ -7045,16 +7051,16 @@
         <v>269</v>
       </c>
       <c r="B298" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C298">
-        <v>8631</v>
+        <v>8430</v>
       </c>
       <c r="H298" t="s">
         <v>64</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
@@ -7062,16 +7068,16 @@
         <v>269</v>
       </c>
       <c r="B299" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C299">
-        <v>8684</v>
+        <v>8455</v>
       </c>
       <c r="H299" t="s">
         <v>64</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -7082,7 +7088,7 @@
         <v>185</v>
       </c>
       <c r="C300">
-        <v>8684</v>
+        <v>8522</v>
       </c>
       <c r="H300" t="s">
         <v>64</v>
@@ -7091,38 +7097,38 @@
         <v>181</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>269</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>186</v>
+      <c r="B301" t="s">
+        <v>185</v>
       </c>
       <c r="C301">
-        <v>10389</v>
+        <v>8631</v>
       </c>
       <c r="H301" t="s">
         <v>64</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>269</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>186</v>
+      <c r="B302" t="s">
+        <v>185</v>
       </c>
       <c r="C302">
-        <v>10399</v>
+        <v>8684</v>
       </c>
       <c r="H302" t="s">
         <v>64</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -7130,27 +7136,27 @@
         <v>269</v>
       </c>
       <c r="B303" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C303">
-        <v>10499</v>
+        <v>8684</v>
       </c>
       <c r="H303" t="s">
         <v>64</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>269</v>
       </c>
-      <c r="B304" t="s">
-        <v>188</v>
+      <c r="B304" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C304">
-        <v>10500</v>
+        <v>10389</v>
       </c>
       <c r="H304" t="s">
         <v>64</v>
@@ -7159,15 +7165,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>269</v>
       </c>
-      <c r="B305" t="s">
-        <v>188</v>
+      <c r="B305" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C305">
-        <v>10596</v>
+        <v>10399</v>
       </c>
       <c r="H305" t="s">
         <v>64</v>
@@ -7184,7 +7190,7 @@
         <v>188</v>
       </c>
       <c r="C306">
-        <v>10597</v>
+        <v>10499</v>
       </c>
       <c r="H306" t="s">
         <v>64</v>
@@ -7198,16 +7204,16 @@
         <v>269</v>
       </c>
       <c r="B307" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C307">
-        <v>2107</v>
+        <v>10500</v>
       </c>
       <c r="H307" t="s">
         <v>64</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
@@ -7215,16 +7221,16 @@
         <v>269</v>
       </c>
       <c r="B308" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C308">
-        <v>2126</v>
+        <v>10596</v>
       </c>
       <c r="H308" t="s">
         <v>64</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -7232,16 +7238,16 @@
         <v>269</v>
       </c>
       <c r="B309" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C309">
-        <v>8210</v>
+        <v>10597</v>
       </c>
       <c r="H309" t="s">
         <v>64</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
@@ -7249,16 +7255,16 @@
         <v>269</v>
       </c>
       <c r="B310" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C310">
-        <v>8430</v>
+        <v>2107</v>
       </c>
       <c r="H310" t="s">
         <v>64</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
@@ -7266,16 +7272,16 @@
         <v>269</v>
       </c>
       <c r="B311" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C311">
-        <v>8455</v>
+        <v>2126</v>
       </c>
       <c r="H311" t="s">
         <v>64</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -7283,10 +7289,10 @@
         <v>269</v>
       </c>
       <c r="B312" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C312">
-        <v>8522</v>
+        <v>8210</v>
       </c>
       <c r="H312" t="s">
         <v>64</v>
@@ -7300,16 +7306,16 @@
         <v>269</v>
       </c>
       <c r="B313" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C313">
-        <v>8631</v>
+        <v>8430</v>
       </c>
       <c r="H313" t="s">
         <v>64</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
@@ -7317,16 +7323,16 @@
         <v>269</v>
       </c>
       <c r="B314" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C314">
-        <v>8684</v>
+        <v>8455</v>
       </c>
       <c r="H314" t="s">
         <v>64</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
@@ -7337,7 +7343,7 @@
         <v>185</v>
       </c>
       <c r="C315">
-        <v>8700</v>
+        <v>8522</v>
       </c>
       <c r="H315" t="s">
         <v>64</v>
@@ -7351,16 +7357,16 @@
         <v>269</v>
       </c>
       <c r="B316" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C316">
-        <v>10389</v>
+        <v>8631</v>
       </c>
       <c r="H316" t="s">
         <v>64</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
@@ -7368,16 +7374,16 @@
         <v>269</v>
       </c>
       <c r="B317" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C317">
-        <v>10399</v>
+        <v>8684</v>
       </c>
       <c r="H317" t="s">
         <v>64</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
@@ -7385,16 +7391,16 @@
         <v>269</v>
       </c>
       <c r="B318" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C318">
-        <v>10499</v>
+        <v>8700</v>
       </c>
       <c r="H318" t="s">
         <v>64</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
@@ -7405,7 +7411,7 @@
         <v>188</v>
       </c>
       <c r="C319">
-        <v>10500</v>
+        <v>10389</v>
       </c>
       <c r="H319" t="s">
         <v>64</v>
@@ -7422,7 +7428,7 @@
         <v>188</v>
       </c>
       <c r="C320">
-        <v>10596</v>
+        <v>10399</v>
       </c>
       <c r="H320" t="s">
         <v>64</v>
@@ -7439,7 +7445,7 @@
         <v>188</v>
       </c>
       <c r="C321">
-        <v>10597</v>
+        <v>10499</v>
       </c>
       <c r="H321" t="s">
         <v>64</v>
@@ -7450,70 +7456,70 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B322" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C322">
-        <v>943</v>
+        <v>10500</v>
       </c>
       <c r="H322" t="s">
         <v>64</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B323" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C323">
-        <v>275</v>
+        <v>10596</v>
       </c>
       <c r="H323" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B324" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C324">
-        <v>692</v>
+        <v>10597</v>
       </c>
       <c r="H324" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B325" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C325">
-        <v>715</v>
+        <v>943</v>
       </c>
       <c r="H325" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
@@ -7521,10 +7527,10 @@
         <v>271</v>
       </c>
       <c r="B326" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C326">
-        <v>735</v>
+        <v>275</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -7538,10 +7544,10 @@
         <v>271</v>
       </c>
       <c r="B327" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C327">
-        <v>1328</v>
+        <v>692</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -7555,10 +7561,10 @@
         <v>271</v>
       </c>
       <c r="B328" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C328">
-        <v>1356</v>
+        <v>715</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -7572,10 +7578,10 @@
         <v>271</v>
       </c>
       <c r="B329" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C329">
-        <v>1401</v>
+        <v>735</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -7592,7 +7598,7 @@
         <v>193</v>
       </c>
       <c r="C330">
-        <v>1482</v>
+        <v>1328</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -7609,7 +7615,7 @@
         <v>193</v>
       </c>
       <c r="C331">
-        <v>1485</v>
+        <v>1356</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -7626,7 +7632,7 @@
         <v>193</v>
       </c>
       <c r="C332">
-        <v>1497</v>
+        <v>1401</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -7643,7 +7649,7 @@
         <v>193</v>
       </c>
       <c r="C333">
-        <v>1582</v>
+        <v>1482</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -7657,10 +7663,10 @@
         <v>271</v>
       </c>
       <c r="B334" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C334">
-        <v>1620</v>
+        <v>1485</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -7674,10 +7680,10 @@
         <v>271</v>
       </c>
       <c r="B335" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C335">
-        <v>1682</v>
+        <v>1497</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -7691,10 +7697,10 @@
         <v>271</v>
       </c>
       <c r="B336" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C336">
-        <v>1694</v>
+        <v>1582</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -7708,10 +7714,10 @@
         <v>271</v>
       </c>
       <c r="B337" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C337">
-        <v>1793</v>
+        <v>1620</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -7725,10 +7731,10 @@
         <v>271</v>
       </c>
       <c r="B338" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C338">
-        <v>1801</v>
+        <v>1682</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -7739,184 +7745,175 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B339" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C339">
-        <v>2045</v>
+        <v>1694</v>
       </c>
       <c r="H339" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B340" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C340">
-        <v>2070</v>
+        <v>1793</v>
       </c>
       <c r="H340" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B341" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C341">
-        <v>2071</v>
+        <v>1801</v>
       </c>
       <c r="H341" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B342" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C342">
-        <v>1506</v>
+        <v>2045</v>
       </c>
       <c r="H342" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B343" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C343">
-        <v>1515</v>
+        <v>2070</v>
       </c>
       <c r="H343" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B344" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C344">
-        <v>195</v>
+        <v>2071</v>
       </c>
       <c r="H344" t="s">
         <v>10</v>
       </c>
-      <c r="I344" t="s">
-        <v>4</v>
-      </c>
       <c r="K344" s="1" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B345" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C345">
-        <v>411</v>
+        <v>1506</v>
       </c>
       <c r="H345" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B346" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C346">
-        <v>797</v>
+        <v>1515</v>
       </c>
       <c r="H346" t="s">
-        <v>204</v>
-      </c>
-      <c r="I346" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B347" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C347">
-        <v>805</v>
+        <v>195</v>
       </c>
       <c r="H347" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="I347" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B348" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C348">
-        <v>809</v>
+        <v>411</v>
       </c>
       <c r="H348" t="s">
-        <v>204</v>
-      </c>
-      <c r="I348" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
@@ -7927,7 +7924,7 @@
         <v>202</v>
       </c>
       <c r="C349">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="H349" t="s">
         <v>204</v>
@@ -7941,53 +7938,62 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B350" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C350">
-        <v>161</v>
+        <v>805</v>
       </c>
       <c r="H350" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="I350" t="s">
+        <v>205</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B351" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C351">
-        <v>171</v>
+        <v>809</v>
       </c>
       <c r="H351" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="I351" t="s">
+        <v>205</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B352" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C352">
-        <v>181</v>
+        <v>811</v>
       </c>
       <c r="H352" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="I352" t="s">
+        <v>205</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
@@ -7998,7 +8004,7 @@
         <v>207</v>
       </c>
       <c r="C353">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="H353" t="s">
         <v>56</v>
@@ -8015,7 +8021,7 @@
         <v>207</v>
       </c>
       <c r="C354">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="H354" t="s">
         <v>56</v>
@@ -8032,7 +8038,7 @@
         <v>207</v>
       </c>
       <c r="C355">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H355" t="s">
         <v>56</v>
@@ -8049,7 +8055,7 @@
         <v>207</v>
       </c>
       <c r="C356">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="H356" t="s">
         <v>56</v>
@@ -8066,7 +8072,7 @@
         <v>207</v>
       </c>
       <c r="C357">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="H357" t="s">
         <v>56</v>
@@ -8080,10 +8086,10 @@
         <v>277</v>
       </c>
       <c r="B358" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C358">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="H358" t="s">
         <v>56</v>
@@ -8094,53 +8100,53 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B359" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C359">
-        <v>673</v>
+        <v>248</v>
       </c>
       <c r="H359" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B360" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C360">
-        <v>673</v>
+        <v>261</v>
       </c>
       <c r="H360" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K360" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B361" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C361">
-        <v>686</v>
+        <v>433</v>
       </c>
       <c r="H361" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
@@ -8151,13 +8157,13 @@
         <v>209</v>
       </c>
       <c r="C362">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H362" t="s">
         <v>85</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
@@ -8168,13 +8174,13 @@
         <v>209</v>
       </c>
       <c r="C363">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="H363" t="s">
         <v>85</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
@@ -8185,13 +8191,13 @@
         <v>209</v>
       </c>
       <c r="C364">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H364" t="s">
         <v>85</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
@@ -8202,13 +8208,13 @@
         <v>209</v>
       </c>
       <c r="C365">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="H365" t="s">
         <v>85</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
@@ -8219,13 +8225,13 @@
         <v>209</v>
       </c>
       <c r="C366">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H366" t="s">
         <v>85</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
@@ -8236,13 +8242,13 @@
         <v>209</v>
       </c>
       <c r="C367">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="H367" t="s">
         <v>85</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
@@ -8253,13 +8259,13 @@
         <v>209</v>
       </c>
       <c r="C368">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="H368" t="s">
         <v>85</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
@@ -8270,13 +8276,13 @@
         <v>209</v>
       </c>
       <c r="C369">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="H369" t="s">
         <v>85</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
@@ -8287,13 +8293,13 @@
         <v>209</v>
       </c>
       <c r="C370">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H370" t="s">
         <v>85</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
@@ -8304,13 +8310,13 @@
         <v>209</v>
       </c>
       <c r="C371">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="H371" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -8321,7 +8327,7 @@
         <v>209</v>
       </c>
       <c r="C372">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="H372" t="s">
         <v>85</v>
@@ -8338,7 +8344,7 @@
         <v>209</v>
       </c>
       <c r="C373">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="H373" t="s">
         <v>85</v>
@@ -8352,16 +8358,16 @@
         <v>278</v>
       </c>
       <c r="B374" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C374">
-        <v>841</v>
+        <v>734</v>
       </c>
       <c r="H374" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K374" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
@@ -8369,16 +8375,16 @@
         <v>278</v>
       </c>
       <c r="B375" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C375">
-        <v>850</v>
+        <v>739</v>
       </c>
       <c r="H375" t="s">
         <v>85</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
@@ -8386,10 +8392,10 @@
         <v>278</v>
       </c>
       <c r="B376" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C376">
-        <v>852</v>
+        <v>739</v>
       </c>
       <c r="H376" t="s">
         <v>85</v>
@@ -8403,16 +8409,16 @@
         <v>278</v>
       </c>
       <c r="B377" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C377">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="H377" t="s">
         <v>85</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
@@ -8420,16 +8426,16 @@
         <v>278</v>
       </c>
       <c r="B378" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C378">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="H378" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
@@ -8437,16 +8443,16 @@
         <v>278</v>
       </c>
       <c r="B379" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C379">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="H379" t="s">
         <v>85</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
@@ -8457,12 +8463,63 @@
         <v>209</v>
       </c>
       <c r="C380">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="H380" t="s">
         <v>85</v>
       </c>
       <c r="K380" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>278</v>
+      </c>
+      <c r="B381" t="s">
+        <v>209</v>
+      </c>
+      <c r="C381">
+        <v>868</v>
+      </c>
+      <c r="H381" t="s">
+        <v>64</v>
+      </c>
+      <c r="K381" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>278</v>
+      </c>
+      <c r="B382" t="s">
+        <v>209</v>
+      </c>
+      <c r="C382">
+        <v>872</v>
+      </c>
+      <c r="H382" t="s">
+        <v>85</v>
+      </c>
+      <c r="K382" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>278</v>
+      </c>
+      <c r="B383" t="s">
+        <v>209</v>
+      </c>
+      <c r="C383">
+        <v>872</v>
+      </c>
+      <c r="H383" t="s">
+        <v>85</v>
+      </c>
+      <c r="K383" s="1" t="s">
         <v>211</v>
       </c>
     </row>

--- a/bugs_table.xlsx
+++ b/bugs_table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxbe\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EC9A45-2D93-4050-A38B-1F2D96927399}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383BFA45-E993-46D1-A614-9C5D47227213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88C54D22-CC6D-44EB-88DB-9A6383E82FD2}"/>
+    <workbookView xWindow="3612" yWindow="2100" windowWidth="17280" windowHeight="8964" xr2:uid="{88C54D22-CC6D-44EB-88DB-9A6383E82FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$383</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$386</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$O:$O</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="280">
   <si>
     <t>File</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>pkg1/wireshark-1.2-buggy/wiretap/pcapng.c</t>
+  </si>
+  <si>
+    <t>(number)</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEEF99E-85B6-452B-AB09-1A7819E6A45F}">
-  <dimension ref="A1:Q383"/>
+  <dimension ref="A1:Q386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,6 +1273,9 @@
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="L1" t="s">
+        <v>279</v>
+      </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,6 +1297,9 @@
       <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
@@ -1313,6 +1322,9 @@
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,6 +1346,9 @@
       <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,6 +1370,9 @@
       <c r="K5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,6 +1394,9 @@
       <c r="K6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,6 +1418,9 @@
       <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1418,6 +1442,9 @@
       <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,6 +1466,9 @@
       <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1466,6 +1496,9 @@
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,6 +1526,9 @@
       <c r="K11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,6 +1550,9 @@
       <c r="K12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,6 +1574,9 @@
       <c r="K13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,6 +1598,9 @@
       <c r="K14" s="1">
         <v>28025470</v>
       </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1576,6 +1621,9 @@
       <c r="K15" s="1">
         <v>28025470</v>
       </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,6 +1645,9 @@
       <c r="K16" s="1">
         <v>28025470</v>
       </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1624,6 +1675,9 @@
       <c r="K17" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1651,6 +1705,9 @@
       <c r="K18" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1678,6 +1735,9 @@
       <c r="K19" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1699,6 +1759,9 @@
       <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1720,6 +1783,9 @@
       <c r="K21" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1741,6 +1807,9 @@
       <c r="K22" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1762,6 +1831,9 @@
       <c r="K23" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1783,6 +1855,9 @@
       <c r="K24" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1804,6 +1879,9 @@
       <c r="K25" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1825,6 +1903,9 @@
       <c r="K26" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -1846,6 +1927,9 @@
       <c r="K27" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -1867,6 +1951,9 @@
       <c r="K28" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -1888,6 +1975,9 @@
       <c r="K29" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1909,6 +1999,9 @@
       <c r="K30" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -1919,16 +2012,19 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D31" t="s">
         <v>223</v>
       </c>
       <c r="H31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
       </c>
       <c r="O31" s="1"/>
     </row>
@@ -1940,7 +2036,7 @@
         <v>29</v>
       </c>
       <c r="C32">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="D32" t="s">
         <v>223</v>
@@ -1950,6 +2046,9 @@
       </c>
       <c r="K32" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
       </c>
       <c r="O32" s="1"/>
     </row>
@@ -1961,16 +2060,19 @@
         <v>29</v>
       </c>
       <c r="C33">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
       </c>
       <c r="O33" s="1"/>
     </row>
@@ -1982,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="C34">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="D34" t="s">
         <v>223</v>
@@ -1992,6 +2094,9 @@
       </c>
       <c r="K34" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
       </c>
       <c r="O34" s="1"/>
     </row>
@@ -2003,7 +2108,7 @@
         <v>29</v>
       </c>
       <c r="C35">
-        <v>647</v>
+        <v>607</v>
       </c>
       <c r="D35" t="s">
         <v>215</v>
@@ -2013,6 +2118,9 @@
       </c>
       <c r="K35" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
       </c>
       <c r="O35" s="1"/>
     </row>
@@ -2024,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="C36">
-        <v>657</v>
+        <v>616</v>
       </c>
       <c r="D36" t="s">
         <v>223</v>
@@ -2034,6 +2142,9 @@
       </c>
       <c r="K36" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
       </c>
       <c r="O36" s="1"/>
     </row>
@@ -2045,7 +2156,7 @@
         <v>29</v>
       </c>
       <c r="C37">
-        <v>695</v>
+        <v>647</v>
       </c>
       <c r="D37" t="s">
         <v>215</v>
@@ -2055,6 +2166,9 @@
       </c>
       <c r="K37" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
       </c>
       <c r="O37" s="1"/>
     </row>
@@ -2066,7 +2180,7 @@
         <v>29</v>
       </c>
       <c r="C38">
-        <v>705</v>
+        <v>657</v>
       </c>
       <c r="D38" t="s">
         <v>223</v>
@@ -2076,6 +2190,9 @@
       </c>
       <c r="K38" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
       </c>
       <c r="O38" s="1"/>
     </row>
@@ -2087,7 +2204,7 @@
         <v>29</v>
       </c>
       <c r="C39">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="D39" t="s">
         <v>215</v>
@@ -2097,6 +2214,9 @@
       </c>
       <c r="K39" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
       </c>
       <c r="O39" s="1"/>
     </row>
@@ -2108,7 +2228,7 @@
         <v>29</v>
       </c>
       <c r="C40">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="D40" t="s">
         <v>223</v>
@@ -2118,6 +2238,9 @@
       </c>
       <c r="K40" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L40">
+        <v>11</v>
       </c>
       <c r="O40" s="1"/>
     </row>
@@ -2129,7 +2252,7 @@
         <v>29</v>
       </c>
       <c r="C41">
-        <v>795</v>
+        <v>745</v>
       </c>
       <c r="D41" t="s">
         <v>215</v>
@@ -2139,6 +2262,9 @@
       </c>
       <c r="K41" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
       </c>
       <c r="O41" s="1"/>
     </row>
@@ -2150,7 +2276,7 @@
         <v>29</v>
       </c>
       <c r="C42">
-        <v>862</v>
+        <v>755</v>
       </c>
       <c r="D42" t="s">
         <v>223</v>
@@ -2160,6 +2286,9 @@
       </c>
       <c r="K42" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L42">
+        <v>12</v>
       </c>
       <c r="O42" s="1"/>
     </row>
@@ -2171,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="C43">
-        <v>948</v>
+        <v>795</v>
       </c>
       <c r="D43" t="s">
         <v>215</v>
@@ -2181,6 +2310,9 @@
       </c>
       <c r="K43" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L43">
+        <v>11</v>
       </c>
       <c r="O43" s="1"/>
     </row>
@@ -2192,7 +2324,7 @@
         <v>29</v>
       </c>
       <c r="C44">
-        <v>956</v>
+        <v>862</v>
       </c>
       <c r="D44" t="s">
         <v>223</v>
@@ -2202,6 +2334,9 @@
       </c>
       <c r="K44" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L44">
+        <v>14</v>
       </c>
       <c r="O44" s="1"/>
     </row>
@@ -2213,16 +2348,19 @@
         <v>29</v>
       </c>
       <c r="C45">
-        <v>995</v>
+        <v>948</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="L45">
+        <v>12</v>
       </c>
       <c r="O45" s="1"/>
     </row>
@@ -2234,16 +2372,19 @@
         <v>29</v>
       </c>
       <c r="C46">
-        <v>1007</v>
+        <v>956</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
       </c>
       <c r="O46" s="1"/>
     </row>
@@ -2255,7 +2396,7 @@
         <v>29</v>
       </c>
       <c r="C47">
-        <v>1106</v>
+        <v>995</v>
       </c>
       <c r="D47" t="s">
         <v>223</v>
@@ -2265,6 +2406,9 @@
       </c>
       <c r="K47" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
       </c>
       <c r="O47" s="1"/>
     </row>
@@ -2276,16 +2420,19 @@
         <v>29</v>
       </c>
       <c r="C48">
-        <v>1120</v>
+        <v>1007</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
       </c>
       <c r="O48" s="1"/>
     </row>
@@ -2297,7 +2444,7 @@
         <v>29</v>
       </c>
       <c r="C49">
-        <v>1209</v>
+        <v>1106</v>
       </c>
       <c r="D49" t="s">
         <v>223</v>
@@ -2307,6 +2454,9 @@
       </c>
       <c r="K49" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L49">
+        <v>16</v>
       </c>
       <c r="O49" s="1"/>
     </row>
@@ -2318,16 +2468,19 @@
         <v>29</v>
       </c>
       <c r="C50">
-        <v>1301</v>
+        <v>1120</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
       </c>
       <c r="O50" s="1"/>
     </row>
@@ -2339,7 +2492,7 @@
         <v>29</v>
       </c>
       <c r="C51">
-        <v>1308</v>
+        <v>1209</v>
       </c>
       <c r="D51" t="s">
         <v>223</v>
@@ -2349,6 +2502,9 @@
       </c>
       <c r="K51" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L51">
+        <v>18</v>
       </c>
       <c r="O51" s="1"/>
     </row>
@@ -2360,7 +2516,7 @@
         <v>29</v>
       </c>
       <c r="C52">
-        <v>1432</v>
+        <v>1301</v>
       </c>
       <c r="D52" t="s">
         <v>215</v>
@@ -2370,6 +2526,9 @@
       </c>
       <c r="K52" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
       </c>
       <c r="O52" s="1"/>
     </row>
@@ -2381,7 +2540,7 @@
         <v>29</v>
       </c>
       <c r="C53">
-        <v>1434</v>
+        <v>1303</v>
       </c>
       <c r="D53" t="s">
         <v>223</v>
@@ -2391,6 +2550,9 @@
       </c>
       <c r="K53" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L53">
+        <v>19</v>
       </c>
       <c r="O53" s="1"/>
     </row>
@@ -2402,16 +2564,19 @@
         <v>29</v>
       </c>
       <c r="C54">
-        <v>1511</v>
+        <v>1432</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="L54">
+        <v>15</v>
       </c>
       <c r="O54" s="1"/>
     </row>
@@ -2423,7 +2588,7 @@
         <v>29</v>
       </c>
       <c r="C55">
-        <v>1751</v>
+        <v>1434</v>
       </c>
       <c r="D55" t="s">
         <v>223</v>
@@ -2433,6 +2598,9 @@
       </c>
       <c r="K55" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
       </c>
       <c r="O55" s="1"/>
     </row>
@@ -2444,7 +2612,7 @@
         <v>29</v>
       </c>
       <c r="C56">
-        <v>1797</v>
+        <v>1511</v>
       </c>
       <c r="D56" t="s">
         <v>223</v>
@@ -2454,6 +2622,9 @@
       </c>
       <c r="K56" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L56">
+        <v>21</v>
       </c>
       <c r="O56" s="1"/>
     </row>
@@ -2465,7 +2636,7 @@
         <v>29</v>
       </c>
       <c r="C57">
-        <v>1930</v>
+        <v>1751</v>
       </c>
       <c r="D57" t="s">
         <v>223</v>
@@ -2475,6 +2646,9 @@
       </c>
       <c r="K57" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L57">
+        <v>22</v>
       </c>
       <c r="O57" s="1"/>
     </row>
@@ -2486,7 +2660,7 @@
         <v>29</v>
       </c>
       <c r="C58">
-        <v>1953</v>
+        <v>1797</v>
       </c>
       <c r="D58" t="s">
         <v>223</v>
@@ -2496,6 +2670,9 @@
       </c>
       <c r="K58" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L58">
+        <v>23</v>
       </c>
       <c r="O58" s="1"/>
     </row>
@@ -2507,16 +2684,19 @@
         <v>29</v>
       </c>
       <c r="C59">
-        <v>2052</v>
+        <v>1930</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L59">
+        <v>24</v>
       </c>
       <c r="O59" s="1"/>
     </row>
@@ -2528,7 +2708,7 @@
         <v>29</v>
       </c>
       <c r="C60">
-        <v>2104</v>
+        <v>1953</v>
       </c>
       <c r="D60" t="s">
         <v>223</v>
@@ -2538,6 +2718,9 @@
       </c>
       <c r="K60" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L60">
+        <v>25</v>
       </c>
       <c r="O60" s="1"/>
     </row>
@@ -2549,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="C61">
-        <v>2236</v>
+        <v>2052</v>
       </c>
       <c r="D61" t="s">
         <v>215</v>
@@ -2559,6 +2742,9 @@
       </c>
       <c r="K61" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L61">
+        <v>16</v>
       </c>
       <c r="O61" s="1"/>
     </row>
@@ -2570,7 +2756,7 @@
         <v>29</v>
       </c>
       <c r="C62">
-        <v>2345</v>
+        <v>2104</v>
       </c>
       <c r="D62" t="s">
         <v>223</v>
@@ -2580,6 +2766,9 @@
       </c>
       <c r="K62" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L62">
+        <v>26</v>
       </c>
       <c r="O62" s="1"/>
     </row>
@@ -2591,16 +2780,19 @@
         <v>29</v>
       </c>
       <c r="C63">
-        <v>2447</v>
+        <v>2236</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="L63">
+        <v>17</v>
       </c>
       <c r="O63" s="1"/>
     </row>
@@ -2612,16 +2804,19 @@
         <v>29</v>
       </c>
       <c r="C64">
-        <v>2578</v>
+        <v>2345</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="L64">
+        <v>27</v>
       </c>
       <c r="O64" s="1"/>
     </row>
@@ -2633,7 +2828,7 @@
         <v>29</v>
       </c>
       <c r="C65">
-        <v>2590</v>
+        <v>2447</v>
       </c>
       <c r="D65" t="s">
         <v>223</v>
@@ -2643,6 +2838,9 @@
       </c>
       <c r="K65" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="L65">
+        <v>28</v>
       </c>
       <c r="O65" s="1"/>
     </row>
@@ -2654,16 +2852,19 @@
         <v>29</v>
       </c>
       <c r="C66">
-        <v>2758</v>
+        <v>2578</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
       </c>
       <c r="O66" s="1"/>
     </row>
@@ -2672,19 +2873,22 @@
         <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C67">
-        <v>2811</v>
+        <v>2590</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L67">
+        <v>29</v>
       </c>
       <c r="O67" s="1"/>
     </row>
@@ -2693,19 +2897,22 @@
         <v>234</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C68">
-        <v>2823</v>
+        <v>2758</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
       </c>
       <c r="O68" s="1"/>
     </row>
@@ -2714,10 +2921,10 @@
         <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69">
-        <v>2876</v>
+        <v>2811</v>
       </c>
       <c r="D69" t="s">
         <v>215</v>
@@ -2727,6 +2934,9 @@
       </c>
       <c r="K69" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L69">
+        <v>18</v>
       </c>
       <c r="O69" s="1"/>
     </row>
@@ -2735,10 +2945,10 @@
         <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70">
-        <v>2881</v>
+        <v>2823</v>
       </c>
       <c r="D70" t="s">
         <v>215</v>
@@ -2748,6 +2958,9 @@
       </c>
       <c r="K70" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L70">
+        <v>19</v>
       </c>
       <c r="O70" s="1"/>
     </row>
@@ -2759,7 +2972,7 @@
         <v>36</v>
       </c>
       <c r="C71">
-        <v>2891</v>
+        <v>2876</v>
       </c>
       <c r="D71" t="s">
         <v>215</v>
@@ -2769,6 +2982,9 @@
       </c>
       <c r="K71" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L71">
+        <v>20</v>
       </c>
       <c r="O71" s="1"/>
     </row>
@@ -2780,7 +2996,7 @@
         <v>36</v>
       </c>
       <c r="C72">
-        <v>2894</v>
+        <v>2881</v>
       </c>
       <c r="D72" t="s">
         <v>215</v>
@@ -2791,6 +3007,10 @@
       <c r="K72" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="L72">
+        <v>21</v>
+      </c>
+      <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -2800,7 +3020,7 @@
         <v>36</v>
       </c>
       <c r="C73">
-        <v>2907</v>
+        <v>2891</v>
       </c>
       <c r="D73" t="s">
         <v>215</v>
@@ -2811,16 +3031,20 @@
       <c r="K73" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="L73">
+        <v>22</v>
+      </c>
+      <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74">
-        <v>2964</v>
+        <v>2894</v>
       </c>
       <c r="D74" t="s">
         <v>215</v>
@@ -2830,6 +3054,9 @@
       </c>
       <c r="K74" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L74">
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2837,10 +3064,10 @@
         <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75">
-        <v>2977</v>
+        <v>2907</v>
       </c>
       <c r="D75" t="s">
         <v>215</v>
@@ -2850,6 +3077,9 @@
       </c>
       <c r="K75" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L75">
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2860,7 +3090,7 @@
         <v>37</v>
       </c>
       <c r="C76">
-        <v>2989</v>
+        <v>2964</v>
       </c>
       <c r="D76" t="s">
         <v>215</v>
@@ -2870,6 +3100,9 @@
       </c>
       <c r="K76" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L76">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2880,7 +3113,7 @@
         <v>37</v>
       </c>
       <c r="C77">
-        <v>3021</v>
+        <v>2977</v>
       </c>
       <c r="D77" t="s">
         <v>215</v>
@@ -2890,6 +3123,9 @@
       </c>
       <c r="K77" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L77">
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -2900,7 +3136,7 @@
         <v>37</v>
       </c>
       <c r="C78">
-        <v>3022</v>
+        <v>2989</v>
       </c>
       <c r="D78" t="s">
         <v>215</v>
@@ -2910,6 +3146,9 @@
       </c>
       <c r="K78" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L78">
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -2920,7 +3159,7 @@
         <v>37</v>
       </c>
       <c r="C79">
-        <v>3029</v>
+        <v>3021</v>
       </c>
       <c r="D79" t="s">
         <v>215</v>
@@ -2930,6 +3169,9 @@
       </c>
       <c r="K79" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="L79">
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -2940,7 +3182,7 @@
         <v>37</v>
       </c>
       <c r="C80">
-        <v>3056</v>
+        <v>3022</v>
       </c>
       <c r="D80" t="s">
         <v>215</v>
@@ -2951,8 +3193,11 @@
       <c r="K80" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>234</v>
       </c>
@@ -2960,7 +3205,7 @@
         <v>37</v>
       </c>
       <c r="C81">
-        <v>3058</v>
+        <v>3029</v>
       </c>
       <c r="D81" t="s">
         <v>215</v>
@@ -2971,70 +3216,88 @@
       <c r="K81" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82">
-        <v>220</v>
+        <v>3056</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="L82">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C83">
-        <v>262</v>
+        <v>3058</v>
+      </c>
+      <c r="D83" t="s">
+        <v>215</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="L83">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>235</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C84">
-        <v>273</v>
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
+        <v>221</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
@@ -3042,16 +3305,19 @@
       <c r="K85" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C86">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
@@ -3059,8 +3325,11 @@
       <c r="K86" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>235</v>
       </c>
@@ -3068,7 +3337,7 @@
         <v>41</v>
       </c>
       <c r="C87">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="H87" t="s">
         <v>15</v>
@@ -3076,112 +3345,79 @@
       <c r="K87" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>235</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88">
-        <v>396</v>
-      </c>
-      <c r="D88" t="s">
-        <v>221</v>
-      </c>
-      <c r="E88" t="s">
-        <v>222</v>
-      </c>
-      <c r="F88" t="s">
-        <v>224</v>
-      </c>
-      <c r="G88" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="H88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I88" t="s">
-        <v>45</v>
-      </c>
-      <c r="K88" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>235</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C89">
-        <v>463</v>
-      </c>
-      <c r="D89" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" t="s">
-        <v>222</v>
-      </c>
-      <c r="F89" t="s">
-        <v>224</v>
-      </c>
-      <c r="G89" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
-      </c>
-      <c r="I89" t="s">
-        <v>45</v>
-      </c>
-      <c r="K89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C90">
-        <v>470</v>
-      </c>
-      <c r="D90" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" t="s">
-        <v>222</v>
-      </c>
-      <c r="F90" t="s">
-        <v>224</v>
-      </c>
-      <c r="G90" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="H90" t="s">
-        <v>44</v>
-      </c>
-      <c r="I90" t="s">
-        <v>45</v>
-      </c>
-      <c r="K90" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>235</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C91">
-        <v>510</v>
+        <v>396</v>
       </c>
       <c r="D91" t="s">
         <v>221</v>
@@ -3204,16 +3440,19 @@
       <c r="K91" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>235</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C92">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D92" t="s">
         <v>221</v>
@@ -3221,22 +3460,34 @@
       <c r="E92" t="s">
         <v>222</v>
       </c>
+      <c r="F92" t="s">
+        <v>224</v>
+      </c>
+      <c r="G92" t="s">
+        <v>216</v>
+      </c>
       <c r="H92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>235</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C93">
-        <v>592</v>
+        <v>470</v>
       </c>
       <c r="D93" t="s">
         <v>221</v>
@@ -3244,74 +3495,95 @@
       <c r="E93" t="s">
         <v>222</v>
       </c>
+      <c r="F93" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" t="s">
+        <v>216</v>
+      </c>
       <c r="H93" t="s">
-        <v>12</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I93" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" t="s">
+        <v>43</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>235</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C94">
-        <v>884</v>
+        <v>510</v>
       </c>
       <c r="D94" t="s">
+        <v>221</v>
+      </c>
+      <c r="E94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" t="s">
+        <v>224</v>
+      </c>
+      <c r="G94" t="s">
         <v>216</v>
       </c>
-      <c r="E94" t="s">
-        <v>226</v>
-      </c>
       <c r="H94" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I94" t="s">
-        <v>100</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="K94" t="s">
+        <v>43</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>235</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C95">
-        <v>890</v>
+        <v>590</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H95" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>235</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C96">
-        <v>1114</v>
+        <v>592</v>
       </c>
       <c r="D96" t="s">
         <v>221</v>
@@ -3319,115 +3591,145 @@
       <c r="E96" t="s">
         <v>222</v>
       </c>
-      <c r="F96" t="s">
-        <v>224</v>
-      </c>
-      <c r="G96" t="s">
-        <v>216</v>
-      </c>
       <c r="H96" t="s">
-        <v>44</v>
-      </c>
-      <c r="I96" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>235</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C97">
-        <v>1115</v>
+        <v>884</v>
       </c>
       <c r="D97" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
-        <v>222</v>
-      </c>
-      <c r="F97" t="s">
-        <v>224</v>
-      </c>
-      <c r="G97" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H97" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I97" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="L97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>235</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C98">
-        <v>2831</v>
+        <v>888</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E98" t="s">
+        <v>226</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>100</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="L98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>235</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C99">
-        <v>2964</v>
+        <v>1114</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>221</v>
+      </c>
+      <c r="E99" t="s">
+        <v>222</v>
+      </c>
+      <c r="F99" t="s">
+        <v>224</v>
+      </c>
+      <c r="G99" t="s">
+        <v>216</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="I99" t="s">
+        <v>45</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100">
-        <v>2993</v>
+        <v>1115</v>
       </c>
       <c r="D100" t="s">
-        <v>215</v>
+        <v>221</v>
+      </c>
+      <c r="E100" t="s">
+        <v>222</v>
+      </c>
+      <c r="F100" t="s">
+        <v>224</v>
+      </c>
+      <c r="G100" t="s">
+        <v>216</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="I100" t="s">
+        <v>45</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>235</v>
       </c>
@@ -3435,7 +3737,7 @@
         <v>53</v>
       </c>
       <c r="C101">
-        <v>3003</v>
+        <v>2831</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3446,8 +3748,11 @@
       <c r="K101" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>235</v>
       </c>
@@ -3455,25 +3760,22 @@
         <v>53</v>
       </c>
       <c r="C102">
-        <v>3064</v>
+        <v>2964</v>
       </c>
       <c r="D102" t="s">
-        <v>227</v>
-      </c>
-      <c r="E102" t="s">
-        <v>228</v>
-      </c>
-      <c r="F102" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H102" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>235</v>
       </c>
@@ -3481,211 +3783,235 @@
         <v>53</v>
       </c>
       <c r="C103">
-        <v>3084</v>
+        <v>2993</v>
       </c>
       <c r="D103" t="s">
-        <v>227</v>
-      </c>
-      <c r="E103" t="s">
-        <v>228</v>
-      </c>
-      <c r="F103" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H103" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>235</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C104">
-        <v>3097</v>
+        <v>3003</v>
       </c>
       <c r="D104" t="s">
         <v>215</v>
       </c>
       <c r="H104" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>235</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105">
+        <v>3064</v>
+      </c>
+      <c r="D105" t="s">
+        <v>227</v>
+      </c>
+      <c r="E105" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" t="s">
+        <v>229</v>
+      </c>
+      <c r="H105" t="s">
+        <v>56</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106">
+        <v>3084</v>
+      </c>
+      <c r="D106" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" t="s">
+        <v>228</v>
+      </c>
+      <c r="F106" t="s">
+        <v>229</v>
+      </c>
+      <c r="H106" t="s">
+        <v>56</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107">
+        <v>3097</v>
+      </c>
+      <c r="D107" t="s">
+        <v>215</v>
+      </c>
+      <c r="H107" t="s">
+        <v>34</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>236</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B108" t="s">
         <v>59</v>
       </c>
-      <c r="C105">
+      <c r="C108">
         <v>654</v>
-      </c>
-      <c r="D105" t="s">
-        <v>216</v>
-      </c>
-      <c r="E105" t="s">
-        <v>215</v>
-      </c>
-      <c r="H105" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" t="s">
-        <v>4</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>237</v>
-      </c>
-      <c r="B106" t="s">
-        <v>61</v>
-      </c>
-      <c r="C106">
-        <v>421</v>
-      </c>
-      <c r="D106" t="s">
-        <v>216</v>
-      </c>
-      <c r="H106" t="s">
-        <v>45</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>237</v>
-      </c>
-      <c r="B107" t="s">
-        <v>61</v>
-      </c>
-      <c r="C107">
-        <v>423</v>
-      </c>
-      <c r="D107" t="s">
-        <v>216</v>
-      </c>
-      <c r="H107" t="s">
-        <v>45</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>237</v>
-      </c>
-      <c r="B108" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108">
-        <v>426</v>
       </c>
       <c r="D108" t="s">
         <v>216</v>
       </c>
+      <c r="E108" t="s">
+        <v>215</v>
+      </c>
       <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109">
+        <v>421</v>
+      </c>
+      <c r="D109" t="s">
+        <v>216</v>
+      </c>
+      <c r="H109" t="s">
         <v>45</v>
       </c>
-      <c r="K108" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>238</v>
-      </c>
-      <c r="B109" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109">
-        <v>192</v>
-      </c>
-      <c r="D109" t="s">
-        <v>221</v>
-      </c>
-      <c r="E109" t="s">
-        <v>222</v>
-      </c>
-      <c r="H109" t="s">
-        <v>12</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C110">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D110" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H110" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C111">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D111" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H111" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C112">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="D112" t="s">
+        <v>221</v>
+      </c>
+      <c r="E112" t="s">
         <v>222</v>
       </c>
       <c r="H112" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -3696,16 +4022,16 @@
         <v>66</v>
       </c>
       <c r="C113">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D113" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -3716,16 +4042,16 @@
         <v>66</v>
       </c>
       <c r="C114">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="D114" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -3736,7 +4062,7 @@
         <v>66</v>
       </c>
       <c r="C115">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="D115" t="s">
         <v>222</v>
@@ -3753,21 +4079,15 @@
         <v>238</v>
       </c>
       <c r="B116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C116">
-        <v>889</v>
+        <v>446</v>
       </c>
       <c r="D116" t="s">
-        <v>216</v>
-      </c>
-      <c r="E116" t="s">
         <v>215</v>
       </c>
       <c r="H116" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" t="s">
         <v>4</v>
       </c>
       <c r="K116" s="1" t="s">
@@ -3779,21 +4099,15 @@
         <v>238</v>
       </c>
       <c r="B117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C117">
-        <v>931</v>
+        <v>462</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
-      </c>
-      <c r="E117" t="s">
         <v>215</v>
       </c>
       <c r="H117" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" t="s">
         <v>4</v>
       </c>
       <c r="K117" s="1" t="s">
@@ -3805,25 +4119,19 @@
         <v>238</v>
       </c>
       <c r="B118" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C118">
-        <v>970</v>
+        <v>492</v>
       </c>
       <c r="D118" t="s">
-        <v>216</v>
-      </c>
-      <c r="E118" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H118" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -3834,7 +4142,7 @@
         <v>68</v>
       </c>
       <c r="C119">
-        <v>971</v>
+        <v>889</v>
       </c>
       <c r="D119" t="s">
         <v>216</v>
@@ -3860,16 +4168,13 @@
         <v>68</v>
       </c>
       <c r="C120">
-        <v>978</v>
+        <v>931</v>
       </c>
       <c r="D120" t="s">
         <v>216</v>
       </c>
       <c r="E120" t="s">
-        <v>226</v>
-      </c>
-      <c r="F120" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H120" t="s">
         <v>10</v>
@@ -3883,53 +4188,83 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C121">
-        <v>2774</v>
+        <v>970</v>
+      </c>
+      <c r="D121" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" t="s">
+        <v>215</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="I121" t="s">
+        <v>4</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C122">
-        <v>2782</v>
+        <v>971</v>
+      </c>
+      <c r="D122" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122" t="s">
+        <v>215</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="I122" t="s">
+        <v>4</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C123">
-        <v>2796</v>
+        <v>978</v>
+      </c>
+      <c r="D123" t="s">
+        <v>216</v>
+      </c>
+      <c r="E123" t="s">
+        <v>226</v>
+      </c>
+      <c r="F123" t="s">
+        <v>224</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="I123" t="s">
+        <v>4</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -3940,7 +4275,7 @@
         <v>69</v>
       </c>
       <c r="C124">
-        <v>2814</v>
+        <v>2774</v>
       </c>
       <c r="H124" t="s">
         <v>18</v>
@@ -3957,7 +4292,7 @@
         <v>69</v>
       </c>
       <c r="C125">
-        <v>2821</v>
+        <v>2782</v>
       </c>
       <c r="H125" t="s">
         <v>18</v>
@@ -3974,7 +4309,7 @@
         <v>69</v>
       </c>
       <c r="C126">
-        <v>2822</v>
+        <v>2796</v>
       </c>
       <c r="H126" t="s">
         <v>18</v>
@@ -3985,53 +4320,53 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C127">
-        <v>878</v>
+        <v>2814</v>
       </c>
       <c r="H127" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C128">
-        <v>914</v>
+        <v>2821</v>
       </c>
       <c r="H128" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C129">
-        <v>1062</v>
+        <v>2822</v>
       </c>
       <c r="H129" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -4042,7 +4377,7 @@
         <v>71</v>
       </c>
       <c r="C130">
-        <v>1073</v>
+        <v>878</v>
       </c>
       <c r="H130" t="s">
         <v>10</v>
@@ -4056,16 +4391,16 @@
         <v>240</v>
       </c>
       <c r="B131" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C131">
-        <v>3758</v>
+        <v>914</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -4073,67 +4408,67 @@
         <v>240</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C132">
-        <v>3920</v>
+        <v>1062</v>
       </c>
       <c r="H132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C133">
-        <v>370</v>
+        <v>1073</v>
       </c>
       <c r="H133" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C134">
-        <v>372</v>
+        <v>3758</v>
       </c>
       <c r="H134" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C135">
-        <v>417</v>
+        <v>3920</v>
       </c>
       <c r="H135" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -4141,10 +4476,10 @@
         <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C136">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="H136" t="s">
         <v>64</v>
@@ -4158,10 +4493,10 @@
         <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C137">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="H137" t="s">
         <v>64</v>
@@ -4178,7 +4513,7 @@
         <v>76</v>
       </c>
       <c r="C138">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="H138" t="s">
         <v>64</v>
@@ -4192,10 +4527,10 @@
         <v>241</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C139">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="H139" t="s">
         <v>64</v>
@@ -4209,10 +4544,10 @@
         <v>241</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C140">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="H140" t="s">
         <v>64</v>
@@ -4226,10 +4561,10 @@
         <v>241</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C141">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="H141" t="s">
         <v>64</v>
@@ -4246,7 +4581,7 @@
         <v>77</v>
       </c>
       <c r="C142">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="H142" t="s">
         <v>64</v>
@@ -4260,16 +4595,16 @@
         <v>241</v>
       </c>
       <c r="B143" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C143">
-        <v>672</v>
+        <v>518</v>
       </c>
       <c r="H143" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -4277,64 +4612,67 @@
         <v>241</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C144">
-        <v>673</v>
+        <v>520</v>
       </c>
       <c r="H144" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B145" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C145">
-        <v>1136</v>
+        <v>522</v>
       </c>
       <c r="H145" t="s">
-        <v>85</v>
-      </c>
-      <c r="I145" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B146" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C146">
-        <v>1160</v>
+        <v>672</v>
+      </c>
+      <c r="H146" t="s">
+        <v>34</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B147" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C147">
-        <v>1160</v>
+        <v>673</v>
+      </c>
+      <c r="H147" t="s">
+        <v>34</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -4342,13 +4680,19 @@
         <v>242</v>
       </c>
       <c r="B148" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C148">
-        <v>1293</v>
+        <v>1136</v>
+      </c>
+      <c r="H148" t="s">
+        <v>85</v>
+      </c>
+      <c r="I148" t="s">
+        <v>4</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -4359,16 +4703,10 @@
         <v>84</v>
       </c>
       <c r="C149">
-        <v>1300</v>
-      </c>
-      <c r="H149" t="s">
-        <v>85</v>
-      </c>
-      <c r="I149" t="s">
-        <v>4</v>
+        <v>1160</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -4379,16 +4717,10 @@
         <v>84</v>
       </c>
       <c r="C150">
-        <v>1302</v>
-      </c>
-      <c r="H150" t="s">
-        <v>85</v>
-      </c>
-      <c r="I150" t="s">
-        <v>4</v>
+        <v>1160</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -4399,16 +4731,10 @@
         <v>84</v>
       </c>
       <c r="C151">
-        <v>1307</v>
-      </c>
-      <c r="H151" t="s">
-        <v>85</v>
-      </c>
-      <c r="I151" t="s">
-        <v>4</v>
+        <v>1293</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -4419,7 +4745,7 @@
         <v>84</v>
       </c>
       <c r="C152">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="H152" t="s">
         <v>85</v>
@@ -4439,10 +4765,16 @@
         <v>84</v>
       </c>
       <c r="C153">
-        <v>1300</v>
+        <v>1302</v>
+      </c>
+      <c r="H153" t="s">
+        <v>85</v>
+      </c>
+      <c r="I153" t="s">
+        <v>4</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -4453,10 +4785,16 @@
         <v>84</v>
       </c>
       <c r="C154">
-        <v>1302</v>
+        <v>1307</v>
+      </c>
+      <c r="H154" t="s">
+        <v>85</v>
+      </c>
+      <c r="I154" t="s">
+        <v>4</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -4467,10 +4805,16 @@
         <v>84</v>
       </c>
       <c r="C155">
-        <v>1307</v>
+        <v>1309</v>
+      </c>
+      <c r="H155" t="s">
+        <v>85</v>
+      </c>
+      <c r="I155" t="s">
+        <v>4</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -4481,7 +4825,7 @@
         <v>84</v>
       </c>
       <c r="C156">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>82</v>
@@ -4495,10 +4839,10 @@
         <v>84</v>
       </c>
       <c r="C157">
-        <v>1321</v>
+        <v>1302</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -4509,10 +4853,10 @@
         <v>84</v>
       </c>
       <c r="C158">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -4523,10 +4867,10 @@
         <v>84</v>
       </c>
       <c r="C159">
-        <v>1327</v>
+        <v>1309</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -4537,7 +4881,7 @@
         <v>84</v>
       </c>
       <c r="C160">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>83</v>
@@ -4551,16 +4895,10 @@
         <v>84</v>
       </c>
       <c r="C161">
-        <v>1321</v>
-      </c>
-      <c r="H161" t="s">
-        <v>85</v>
-      </c>
-      <c r="I161" t="s">
-        <v>4</v>
+        <v>1323</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -4571,16 +4909,10 @@
         <v>84</v>
       </c>
       <c r="C162">
-        <v>1323</v>
-      </c>
-      <c r="H162" t="s">
-        <v>85</v>
-      </c>
-      <c r="I162" t="s">
-        <v>4</v>
+        <v>1327</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -4591,16 +4923,10 @@
         <v>84</v>
       </c>
       <c r="C163">
-        <v>1327</v>
-      </c>
-      <c r="H163" t="s">
-        <v>85</v>
-      </c>
-      <c r="I163" t="s">
-        <v>4</v>
+        <v>1329</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -4611,7 +4937,7 @@
         <v>84</v>
       </c>
       <c r="C164">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="H164" t="s">
         <v>85</v>
@@ -4628,19 +4954,19 @@
         <v>242</v>
       </c>
       <c r="B165" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C165">
-        <v>1636</v>
+        <v>1323</v>
       </c>
       <c r="H165" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I165" t="s">
         <v>4</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -4648,19 +4974,19 @@
         <v>242</v>
       </c>
       <c r="B166" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C166">
-        <v>1649</v>
+        <v>1327</v>
       </c>
       <c r="H166" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I166" t="s">
         <v>4</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -4668,121 +4994,130 @@
         <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C167">
-        <v>1650</v>
+        <v>1329</v>
       </c>
       <c r="H167" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I167" t="s">
         <v>4</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C168">
-        <v>185</v>
+        <v>1636</v>
       </c>
       <c r="H168" t="s">
         <v>10</v>
       </c>
+      <c r="I168" t="s">
+        <v>4</v>
+      </c>
       <c r="K168" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C169">
-        <v>244</v>
+        <v>1649</v>
       </c>
       <c r="H169" t="s">
         <v>10</v>
       </c>
+      <c r="I169" t="s">
+        <v>4</v>
+      </c>
       <c r="K169" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B170" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C170">
-        <v>248</v>
+        <v>1650</v>
       </c>
       <c r="H170" t="s">
         <v>10</v>
       </c>
+      <c r="I170" t="s">
+        <v>4</v>
+      </c>
       <c r="K170" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C171">
-        <v>388</v>
+        <v>185</v>
       </c>
       <c r="H171" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>243</v>
+      </c>
+      <c r="B172" t="s">
+        <v>88</v>
+      </c>
+      <c r="C172">
         <v>244</v>
       </c>
-      <c r="B172" t="s">
-        <v>91</v>
-      </c>
-      <c r="C172">
-        <v>390</v>
-      </c>
       <c r="H172" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B173" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C173">
-        <v>394</v>
+        <v>248</v>
       </c>
       <c r="H173" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -4793,10 +5128,10 @@
         <v>91</v>
       </c>
       <c r="C174">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H174" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>93</v>
@@ -4804,53 +5139,53 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B175" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C175">
-        <v>453</v>
+        <v>390</v>
       </c>
       <c r="H175" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C176">
-        <v>494</v>
+        <v>394</v>
       </c>
       <c r="H176" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B177" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C177">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="H177" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -4861,7 +5196,7 @@
         <v>96</v>
       </c>
       <c r="C178">
-        <v>547</v>
+        <v>453</v>
       </c>
       <c r="H178" t="s">
         <v>64</v>
@@ -4878,7 +5213,7 @@
         <v>96</v>
       </c>
       <c r="C179">
-        <v>562</v>
+        <v>494</v>
       </c>
       <c r="H179" t="s">
         <v>64</v>
@@ -4895,7 +5230,7 @@
         <v>96</v>
       </c>
       <c r="C180">
-        <v>611</v>
+        <v>501</v>
       </c>
       <c r="H180" t="s">
         <v>64</v>
@@ -4906,62 +5241,53 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B181" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C181">
-        <v>1332</v>
+        <v>547</v>
       </c>
       <c r="H181" t="s">
-        <v>10</v>
-      </c>
-      <c r="I181" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B182" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C182">
-        <v>2204</v>
+        <v>562</v>
       </c>
       <c r="H182" t="s">
-        <v>10</v>
-      </c>
-      <c r="I182" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B183" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C183">
-        <v>2327</v>
+        <v>611</v>
       </c>
       <c r="H183" t="s">
-        <v>10</v>
-      </c>
-      <c r="I183" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -4969,10 +5295,10 @@
         <v>246</v>
       </c>
       <c r="B184" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C184">
-        <v>2467</v>
+        <v>1332</v>
       </c>
       <c r="H184" t="s">
         <v>10</v>
@@ -4992,7 +5318,7 @@
         <v>99</v>
       </c>
       <c r="C185">
-        <v>2468</v>
+        <v>2204</v>
       </c>
       <c r="H185" t="s">
         <v>10</v>
@@ -5012,7 +5338,7 @@
         <v>99</v>
       </c>
       <c r="C186">
-        <v>2471</v>
+        <v>2327</v>
       </c>
       <c r="H186" t="s">
         <v>10</v>
@@ -5032,7 +5358,7 @@
         <v>99</v>
       </c>
       <c r="C187">
-        <v>2479</v>
+        <v>2467</v>
       </c>
       <c r="H187" t="s">
         <v>10</v>
@@ -5052,7 +5378,7 @@
         <v>99</v>
       </c>
       <c r="C188">
-        <v>2483</v>
+        <v>2468</v>
       </c>
       <c r="H188" t="s">
         <v>10</v>
@@ -5072,7 +5398,7 @@
         <v>99</v>
       </c>
       <c r="C189">
-        <v>2509</v>
+        <v>2471</v>
       </c>
       <c r="H189" t="s">
         <v>10</v>
@@ -5092,7 +5418,7 @@
         <v>99</v>
       </c>
       <c r="C190">
-        <v>2553</v>
+        <v>2479</v>
       </c>
       <c r="H190" t="s">
         <v>10</v>
@@ -5112,7 +5438,7 @@
         <v>99</v>
       </c>
       <c r="C191">
-        <v>2577</v>
+        <v>2483</v>
       </c>
       <c r="H191" t="s">
         <v>10</v>
@@ -5132,7 +5458,7 @@
         <v>99</v>
       </c>
       <c r="C192">
-        <v>2593</v>
+        <v>2509</v>
       </c>
       <c r="H192" t="s">
         <v>10</v>
@@ -5146,104 +5472,113 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B193" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C193">
-        <v>606</v>
+        <v>2553</v>
       </c>
       <c r="H193" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I193" t="s">
+        <v>100</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B194" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C194">
-        <v>638</v>
+        <v>2577</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I194" t="s">
+        <v>100</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B195" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C195">
-        <v>646</v>
+        <v>2593</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I195" t="s">
+        <v>100</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B196" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C196">
-        <v>197</v>
+        <v>606</v>
       </c>
       <c r="H196" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B197" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C197">
-        <v>198</v>
+        <v>638</v>
       </c>
       <c r="H197" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B198" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C198">
-        <v>225</v>
+        <v>646</v>
       </c>
       <c r="H198" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -5254,7 +5589,7 @@
         <v>103</v>
       </c>
       <c r="C199">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="H199" t="s">
         <v>34</v>
@@ -5271,7 +5606,7 @@
         <v>103</v>
       </c>
       <c r="C200">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="H200" t="s">
         <v>34</v>
@@ -5288,7 +5623,7 @@
         <v>103</v>
       </c>
       <c r="C201">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="H201" t="s">
         <v>34</v>
@@ -5305,7 +5640,7 @@
         <v>103</v>
       </c>
       <c r="C202">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H202" t="s">
         <v>34</v>
@@ -5316,271 +5651,271 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B203" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C203">
-        <v>700</v>
+        <v>241</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B204" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C204">
-        <v>702</v>
+        <v>248</v>
       </c>
       <c r="H204" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B205" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C205">
-        <v>5869</v>
+        <v>253</v>
       </c>
       <c r="H205" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B206" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C206">
-        <v>5872</v>
+        <v>700</v>
       </c>
       <c r="H206" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B207" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C207">
-        <v>251</v>
+        <v>702</v>
+      </c>
+      <c r="H207" t="s">
+        <v>12</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B208" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C208">
-        <v>262</v>
+        <v>5869</v>
+      </c>
+      <c r="H208" t="s">
+        <v>108</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B209" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C209">
-        <v>910</v>
+        <v>5872</v>
       </c>
       <c r="H209" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B210" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C210">
-        <v>2258</v>
-      </c>
-      <c r="H210" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B211" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C211">
-        <v>297</v>
-      </c>
-      <c r="H211" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B212" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C212">
-        <v>571</v>
+        <v>910</v>
       </c>
       <c r="H212" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B213" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C213">
-        <v>4024</v>
+        <v>2258</v>
       </c>
       <c r="H213" t="s">
-        <v>119</v>
-      </c>
-      <c r="I213" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B214" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C214">
-        <v>4509</v>
+        <v>297</v>
       </c>
       <c r="H214" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B215" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C215">
-        <v>4529</v>
+        <v>571</v>
       </c>
       <c r="H215" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B216" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C216">
-        <v>500</v>
+        <v>4024</v>
       </c>
       <c r="H216" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="I216" t="s">
+        <v>45</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C217">
-        <v>503</v>
+        <v>4509</v>
       </c>
       <c r="H217" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B218" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C218">
-        <v>506</v>
+        <v>4529</v>
       </c>
       <c r="H218" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
@@ -5591,7 +5926,7 @@
         <v>123</v>
       </c>
       <c r="C219">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="H219" t="s">
         <v>124</v>
@@ -5608,7 +5943,7 @@
         <v>123</v>
       </c>
       <c r="C220">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H220" t="s">
         <v>124</v>
@@ -5625,7 +5960,7 @@
         <v>123</v>
       </c>
       <c r="C221">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="H221" t="s">
         <v>124</v>
@@ -5642,7 +5977,7 @@
         <v>123</v>
       </c>
       <c r="C222">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="H222" t="s">
         <v>124</v>
@@ -5659,7 +5994,7 @@
         <v>123</v>
       </c>
       <c r="C223">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H223" t="s">
         <v>124</v>
@@ -5676,7 +6011,7 @@
         <v>123</v>
       </c>
       <c r="C224">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H224" t="s">
         <v>124</v>
@@ -5693,7 +6028,7 @@
         <v>123</v>
       </c>
       <c r="C225">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H225" t="s">
         <v>124</v>
@@ -5710,7 +6045,7 @@
         <v>123</v>
       </c>
       <c r="C226">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="H226" t="s">
         <v>124</v>
@@ -5727,7 +6062,7 @@
         <v>123</v>
       </c>
       <c r="C227">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="H227" t="s">
         <v>124</v>
@@ -5741,10 +6076,10 @@
         <v>255</v>
       </c>
       <c r="B228" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C228">
-        <v>581</v>
+        <v>527</v>
       </c>
       <c r="H228" t="s">
         <v>124</v>
@@ -5758,10 +6093,10 @@
         <v>255</v>
       </c>
       <c r="B229" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C229">
-        <v>583</v>
+        <v>530</v>
       </c>
       <c r="H229" t="s">
         <v>124</v>
@@ -5775,70 +6110,67 @@
         <v>255</v>
       </c>
       <c r="B230" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C230">
-        <v>942</v>
+        <v>533</v>
       </c>
       <c r="H230" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B231" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C231">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="H231" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B232" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C232">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="H232" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B233" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C233">
-        <v>758</v>
+        <v>942</v>
       </c>
       <c r="H233" t="s">
-        <v>124</v>
-      </c>
-      <c r="I233" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -5846,19 +6178,16 @@
         <v>256</v>
       </c>
       <c r="B234" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C234">
-        <v>760</v>
+        <v>642</v>
       </c>
       <c r="H234" t="s">
-        <v>124</v>
-      </c>
-      <c r="I234" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
@@ -5866,19 +6195,16 @@
         <v>256</v>
       </c>
       <c r="B235" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C235">
-        <v>761</v>
+        <v>650</v>
       </c>
       <c r="H235" t="s">
-        <v>124</v>
-      </c>
-      <c r="I235" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
@@ -5886,16 +6212,19 @@
         <v>256</v>
       </c>
       <c r="B236" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C236">
-        <v>1145</v>
+        <v>758</v>
       </c>
       <c r="H236" t="s">
-        <v>64</v>
+        <v>124</v>
+      </c>
+      <c r="I236" t="s">
+        <v>4</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
@@ -5903,87 +6232,84 @@
         <v>256</v>
       </c>
       <c r="B237" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C237">
-        <v>1290</v>
+        <v>760</v>
       </c>
       <c r="H237" t="s">
-        <v>64</v>
+        <v>124</v>
+      </c>
+      <c r="I237" t="s">
+        <v>4</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B238" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C238">
-        <v>2740</v>
+        <v>761</v>
       </c>
       <c r="H238" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="I238" t="s">
         <v>4</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B239" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C239">
-        <v>2743</v>
+        <v>1145</v>
       </c>
       <c r="H239" t="s">
-        <v>92</v>
-      </c>
-      <c r="I239" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B240" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C240">
-        <v>2746</v>
+        <v>1290</v>
       </c>
       <c r="H240" t="s">
-        <v>92</v>
-      </c>
-      <c r="I240" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B241" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C241">
-        <v>930</v>
+        <v>2740</v>
       </c>
       <c r="H241" t="s">
         <v>92</v>
@@ -5992,18 +6318,18 @@
         <v>4</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B242" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C242">
-        <v>938</v>
+        <v>2743</v>
       </c>
       <c r="H242" t="s">
         <v>92</v>
@@ -6012,58 +6338,67 @@
         <v>4</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B243" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C243">
-        <v>935</v>
+        <v>2746</v>
       </c>
       <c r="H243" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="I243" t="s">
+        <v>4</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B244" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C244">
-        <v>1071</v>
+        <v>930</v>
       </c>
       <c r="H244" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="I244" t="s">
+        <v>4</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B245" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C245">
-        <v>1078</v>
+        <v>938</v>
       </c>
       <c r="H245" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="I245" t="s">
+        <v>4</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
@@ -6071,10 +6406,10 @@
         <v>259</v>
       </c>
       <c r="B246" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C246">
-        <v>1079</v>
+        <v>935</v>
       </c>
       <c r="H246" t="s">
         <v>12</v>
@@ -6091,7 +6426,7 @@
         <v>141</v>
       </c>
       <c r="C247">
-        <v>1089</v>
+        <v>1071</v>
       </c>
       <c r="H247" t="s">
         <v>12</v>
@@ -6108,7 +6443,7 @@
         <v>141</v>
       </c>
       <c r="C248">
-        <v>1201</v>
+        <v>1078</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>
@@ -6122,10 +6457,10 @@
         <v>259</v>
       </c>
       <c r="B249" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C249">
-        <v>2665</v>
+        <v>1079</v>
       </c>
       <c r="H249" t="s">
         <v>12</v>
@@ -6139,10 +6474,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C250">
-        <v>2666</v>
+        <v>1089</v>
       </c>
       <c r="H250" t="s">
         <v>12</v>
@@ -6153,53 +6488,53 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B251" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C251">
-        <v>4536</v>
+        <v>1201</v>
       </c>
       <c r="H251" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B252" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C252">
-        <v>4567</v>
+        <v>2665</v>
       </c>
       <c r="H252" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B253" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C253">
-        <v>4591</v>
+        <v>2666</v>
       </c>
       <c r="H253" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
@@ -6207,10 +6542,10 @@
         <v>260</v>
       </c>
       <c r="B254" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C254">
-        <v>4651</v>
+        <v>4536</v>
       </c>
       <c r="H254" t="s">
         <v>34</v>
@@ -6224,10 +6559,10 @@
         <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C255">
-        <v>4652</v>
+        <v>4567</v>
       </c>
       <c r="H255" t="s">
         <v>34</v>
@@ -6241,10 +6576,10 @@
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C256">
-        <v>5389</v>
+        <v>4591</v>
       </c>
       <c r="H256" t="s">
         <v>34</v>
@@ -6255,50 +6590,50 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C257">
-        <v>462</v>
+        <v>4651</v>
       </c>
       <c r="H257" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C258">
-        <v>470</v>
+        <v>4652</v>
       </c>
       <c r="H258" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C259">
-        <v>1629</v>
+        <v>5389</v>
       </c>
       <c r="H259" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>144</v>
@@ -6309,85 +6644,67 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C260">
-        <v>1677</v>
+        <v>462</v>
       </c>
       <c r="H260" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C261">
-        <v>2705</v>
+        <v>470</v>
       </c>
       <c r="H261" t="s">
-        <v>124</v>
-      </c>
-      <c r="I261" t="s">
-        <v>124</v>
-      </c>
-      <c r="J261" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C262">
-        <v>2791</v>
+        <v>1629</v>
       </c>
       <c r="H262" t="s">
-        <v>124</v>
-      </c>
-      <c r="I262" t="s">
-        <v>124</v>
-      </c>
-      <c r="J262" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C263">
-        <v>2792</v>
+        <v>1677</v>
       </c>
       <c r="H263" t="s">
-        <v>124</v>
-      </c>
-      <c r="I263" t="s">
-        <v>124</v>
-      </c>
-      <c r="J263" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -6398,7 +6715,7 @@
         <v>152</v>
       </c>
       <c r="C264">
-        <v>2795</v>
+        <v>2705</v>
       </c>
       <c r="H264" t="s">
         <v>124</v>
@@ -6418,10 +6735,10 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C265">
-        <v>2879</v>
+        <v>2791</v>
       </c>
       <c r="H265" t="s">
         <v>124</v>
@@ -6441,10 +6758,10 @@
         <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C266">
-        <v>2882</v>
+        <v>2792</v>
       </c>
       <c r="H266" t="s">
         <v>124</v>
@@ -6464,13 +6781,13 @@
         <v>262</v>
       </c>
       <c r="B267" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C267">
-        <v>3169</v>
+        <v>2795</v>
       </c>
       <c r="H267" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I267" t="s">
         <v>124</v>
@@ -6487,13 +6804,13 @@
         <v>262</v>
       </c>
       <c r="B268" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C268">
-        <v>3170</v>
+        <v>2879</v>
       </c>
       <c r="H268" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I268" t="s">
         <v>124</v>
@@ -6510,13 +6827,13 @@
         <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C269">
-        <v>3175</v>
+        <v>2882</v>
       </c>
       <c r="H269" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I269" t="s">
         <v>124</v>
@@ -6536,7 +6853,7 @@
         <v>155</v>
       </c>
       <c r="C270">
-        <v>3176</v>
+        <v>3169</v>
       </c>
       <c r="H270" t="s">
         <v>34</v>
@@ -6553,121 +6870,139 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B271" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C271">
-        <v>908</v>
+        <v>3170</v>
       </c>
       <c r="H271" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="I271" t="s">
+        <v>124</v>
+      </c>
+      <c r="J271" t="s">
+        <v>157</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B272" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C272">
-        <v>971</v>
+        <v>3175</v>
       </c>
       <c r="H272" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="I272" t="s">
+        <v>124</v>
+      </c>
+      <c r="J272" t="s">
+        <v>157</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B273" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C273">
-        <v>3116</v>
+        <v>3176</v>
       </c>
       <c r="H273" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="I273" t="s">
+        <v>124</v>
+      </c>
+      <c r="J273" t="s">
+        <v>157</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B274" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C274">
-        <v>3117</v>
+        <v>908</v>
       </c>
       <c r="H274" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B275" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C275">
-        <v>880</v>
+        <v>971</v>
       </c>
       <c r="H275" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C276">
-        <v>897</v>
+        <v>3116</v>
       </c>
       <c r="H276" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C277">
-        <v>906</v>
+        <v>3117</v>
       </c>
       <c r="H277" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
@@ -6678,7 +7013,7 @@
         <v>162</v>
       </c>
       <c r="C278">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="H278" t="s">
         <v>163</v>
@@ -6695,7 +7030,7 @@
         <v>162</v>
       </c>
       <c r="C279">
-        <v>1005</v>
+        <v>897</v>
       </c>
       <c r="H279" t="s">
         <v>163</v>
@@ -6709,76 +7044,67 @@
         <v>265</v>
       </c>
       <c r="B280" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C280">
-        <v>1628</v>
+        <v>906</v>
       </c>
       <c r="H280" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B281" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C281">
-        <v>1440</v>
+        <v>913</v>
       </c>
       <c r="H281" t="s">
-        <v>168</v>
-      </c>
-      <c r="I281" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B282" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C282">
-        <v>5774</v>
+        <v>1005</v>
       </c>
       <c r="H282" t="s">
-        <v>168</v>
-      </c>
-      <c r="I282" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B283" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C283">
-        <v>5778</v>
+        <v>1628</v>
       </c>
       <c r="H283" t="s">
-        <v>168</v>
-      </c>
-      <c r="I283" t="s">
         <v>22</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -6786,10 +7112,10 @@
         <v>266</v>
       </c>
       <c r="B284" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C284">
-        <v>5880</v>
+        <v>1440</v>
       </c>
       <c r="H284" t="s">
         <v>168</v>
@@ -6803,53 +7129,62 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B285" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C285">
-        <v>2765</v>
+        <v>5774</v>
       </c>
       <c r="H285" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I285" t="s">
+        <v>22</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B286" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C286">
-        <v>2781</v>
+        <v>5778</v>
       </c>
       <c r="H286" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I286" t="s">
+        <v>22</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C287">
-        <v>2786</v>
+        <v>5880</v>
       </c>
       <c r="H287" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I287" t="s">
+        <v>22</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -6860,7 +7195,7 @@
         <v>171</v>
       </c>
       <c r="C288">
-        <v>2787</v>
+        <v>2765</v>
       </c>
       <c r="H288" t="s">
         <v>173</v>
@@ -6877,7 +7212,7 @@
         <v>171</v>
       </c>
       <c r="C289">
-        <v>2790</v>
+        <v>2781</v>
       </c>
       <c r="H289" t="s">
         <v>173</v>
@@ -6894,7 +7229,7 @@
         <v>171</v>
       </c>
       <c r="C290">
-        <v>2792</v>
+        <v>2786</v>
       </c>
       <c r="H290" t="s">
         <v>173</v>
@@ -6905,71 +7240,53 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B291" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C291">
-        <v>371</v>
+        <v>2787</v>
       </c>
       <c r="H291" t="s">
-        <v>176</v>
-      </c>
-      <c r="I291" t="s">
-        <v>177</v>
-      </c>
-      <c r="J291" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B292" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C292">
-        <v>385</v>
+        <v>2790</v>
       </c>
       <c r="H292" t="s">
-        <v>176</v>
-      </c>
-      <c r="I292" t="s">
-        <v>177</v>
-      </c>
-      <c r="J292" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B293" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C293">
-        <v>419</v>
+        <v>2792</v>
       </c>
       <c r="H293" t="s">
-        <v>176</v>
-      </c>
-      <c r="I293" t="s">
-        <v>177</v>
-      </c>
-      <c r="J293" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
@@ -6980,7 +7297,7 @@
         <v>174</v>
       </c>
       <c r="C294">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="H294" t="s">
         <v>176</v>
@@ -6997,53 +7314,71 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B295" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C295">
-        <v>2107</v>
+        <v>385</v>
       </c>
       <c r="H295" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="I295" t="s">
+        <v>177</v>
+      </c>
+      <c r="J295" t="s">
+        <v>178</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B296" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C296">
-        <v>2126</v>
+        <v>419</v>
       </c>
       <c r="H296" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="I296" t="s">
+        <v>177</v>
+      </c>
+      <c r="J296" t="s">
+        <v>178</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B297" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C297">
-        <v>8210</v>
+        <v>426</v>
       </c>
       <c r="H297" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="I297" t="s">
+        <v>177</v>
+      </c>
+      <c r="J297" t="s">
+        <v>178</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
@@ -7051,16 +7386,16 @@
         <v>269</v>
       </c>
       <c r="B298" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C298">
-        <v>8430</v>
+        <v>2107</v>
       </c>
       <c r="H298" t="s">
         <v>64</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
@@ -7068,16 +7403,16 @@
         <v>269</v>
       </c>
       <c r="B299" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C299">
-        <v>8455</v>
+        <v>2126</v>
       </c>
       <c r="H299" t="s">
         <v>64</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -7085,10 +7420,10 @@
         <v>269</v>
       </c>
       <c r="B300" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C300">
-        <v>8522</v>
+        <v>8210</v>
       </c>
       <c r="H300" t="s">
         <v>64</v>
@@ -7102,16 +7437,16 @@
         <v>269</v>
       </c>
       <c r="B301" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C301">
-        <v>8631</v>
+        <v>8430</v>
       </c>
       <c r="H301" t="s">
         <v>64</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
@@ -7119,16 +7454,16 @@
         <v>269</v>
       </c>
       <c r="B302" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C302">
-        <v>8684</v>
+        <v>8455</v>
       </c>
       <c r="H302" t="s">
         <v>64</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -7139,7 +7474,7 @@
         <v>185</v>
       </c>
       <c r="C303">
-        <v>8684</v>
+        <v>8522</v>
       </c>
       <c r="H303" t="s">
         <v>64</v>
@@ -7148,38 +7483,38 @@
         <v>181</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>269</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>186</v>
+      <c r="B304" t="s">
+        <v>185</v>
       </c>
       <c r="C304">
-        <v>10389</v>
+        <v>8631</v>
       </c>
       <c r="H304" t="s">
         <v>64</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>269</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>186</v>
+      <c r="B305" t="s">
+        <v>185</v>
       </c>
       <c r="C305">
-        <v>10399</v>
+        <v>8684</v>
       </c>
       <c r="H305" t="s">
         <v>64</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
@@ -7187,27 +7522,27 @@
         <v>269</v>
       </c>
       <c r="B306" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C306">
-        <v>10499</v>
+        <v>8684</v>
       </c>
       <c r="H306" t="s">
         <v>64</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>269</v>
       </c>
-      <c r="B307" t="s">
-        <v>188</v>
+      <c r="B307" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C307">
-        <v>10500</v>
+        <v>10389</v>
       </c>
       <c r="H307" t="s">
         <v>64</v>
@@ -7216,15 +7551,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>269</v>
       </c>
-      <c r="B308" t="s">
-        <v>188</v>
+      <c r="B308" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C308">
-        <v>10596</v>
+        <v>10399</v>
       </c>
       <c r="H308" t="s">
         <v>64</v>
@@ -7241,7 +7576,7 @@
         <v>188</v>
       </c>
       <c r="C309">
-        <v>10597</v>
+        <v>10499</v>
       </c>
       <c r="H309" t="s">
         <v>64</v>
@@ -7255,16 +7590,16 @@
         <v>269</v>
       </c>
       <c r="B310" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C310">
-        <v>2107</v>
+        <v>10500</v>
       </c>
       <c r="H310" t="s">
         <v>64</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
@@ -7272,16 +7607,16 @@
         <v>269</v>
       </c>
       <c r="B311" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C311">
-        <v>2126</v>
+        <v>10596</v>
       </c>
       <c r="H311" t="s">
         <v>64</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -7289,16 +7624,16 @@
         <v>269</v>
       </c>
       <c r="B312" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C312">
-        <v>8210</v>
+        <v>10597</v>
       </c>
       <c r="H312" t="s">
         <v>64</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
@@ -7306,16 +7641,16 @@
         <v>269</v>
       </c>
       <c r="B313" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C313">
-        <v>8430</v>
+        <v>2107</v>
       </c>
       <c r="H313" t="s">
         <v>64</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
@@ -7323,16 +7658,16 @@
         <v>269</v>
       </c>
       <c r="B314" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C314">
-        <v>8455</v>
+        <v>2126</v>
       </c>
       <c r="H314" t="s">
         <v>64</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
@@ -7340,10 +7675,10 @@
         <v>269</v>
       </c>
       <c r="B315" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C315">
-        <v>8522</v>
+        <v>8210</v>
       </c>
       <c r="H315" t="s">
         <v>64</v>
@@ -7357,16 +7692,16 @@
         <v>269</v>
       </c>
       <c r="B316" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C316">
-        <v>8631</v>
+        <v>8430</v>
       </c>
       <c r="H316" t="s">
         <v>64</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
@@ -7374,16 +7709,16 @@
         <v>269</v>
       </c>
       <c r="B317" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C317">
-        <v>8684</v>
+        <v>8455</v>
       </c>
       <c r="H317" t="s">
         <v>64</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
@@ -7394,7 +7729,7 @@
         <v>185</v>
       </c>
       <c r="C318">
-        <v>8700</v>
+        <v>8522</v>
       </c>
       <c r="H318" t="s">
         <v>64</v>
@@ -7408,16 +7743,16 @@
         <v>269</v>
       </c>
       <c r="B319" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C319">
-        <v>10389</v>
+        <v>8631</v>
       </c>
       <c r="H319" t="s">
         <v>64</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
@@ -7425,16 +7760,16 @@
         <v>269</v>
       </c>
       <c r="B320" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C320">
-        <v>10399</v>
+        <v>8684</v>
       </c>
       <c r="H320" t="s">
         <v>64</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -7442,16 +7777,16 @@
         <v>269</v>
       </c>
       <c r="B321" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C321">
-        <v>10499</v>
+        <v>8700</v>
       </c>
       <c r="H321" t="s">
         <v>64</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
@@ -7462,7 +7797,7 @@
         <v>188</v>
       </c>
       <c r="C322">
-        <v>10500</v>
+        <v>10389</v>
       </c>
       <c r="H322" t="s">
         <v>64</v>
@@ -7479,7 +7814,7 @@
         <v>188</v>
       </c>
       <c r="C323">
-        <v>10596</v>
+        <v>10399</v>
       </c>
       <c r="H323" t="s">
         <v>64</v>
@@ -7496,7 +7831,7 @@
         <v>188</v>
       </c>
       <c r="C324">
-        <v>10597</v>
+        <v>10499</v>
       </c>
       <c r="H324" t="s">
         <v>64</v>
@@ -7507,70 +7842,70 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B325" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C325">
-        <v>943</v>
+        <v>10500</v>
       </c>
       <c r="H325" t="s">
         <v>64</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B326" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C326">
-        <v>275</v>
+        <v>10596</v>
       </c>
       <c r="H326" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B327" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C327">
-        <v>692</v>
+        <v>10597</v>
       </c>
       <c r="H327" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B328" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C328">
-        <v>715</v>
+        <v>943</v>
       </c>
       <c r="H328" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -7578,10 +7913,10 @@
         <v>271</v>
       </c>
       <c r="B329" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C329">
-        <v>735</v>
+        <v>275</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -7595,10 +7930,10 @@
         <v>271</v>
       </c>
       <c r="B330" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C330">
-        <v>1328</v>
+        <v>692</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -7612,10 +7947,10 @@
         <v>271</v>
       </c>
       <c r="B331" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C331">
-        <v>1356</v>
+        <v>715</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -7629,10 +7964,10 @@
         <v>271</v>
       </c>
       <c r="B332" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C332">
-        <v>1401</v>
+        <v>735</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -7649,7 +7984,7 @@
         <v>193</v>
       </c>
       <c r="C333">
-        <v>1482</v>
+        <v>1328</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -7666,7 +8001,7 @@
         <v>193</v>
       </c>
       <c r="C334">
-        <v>1485</v>
+        <v>1356</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -7683,7 +8018,7 @@
         <v>193</v>
       </c>
       <c r="C335">
-        <v>1497</v>
+        <v>1401</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -7700,7 +8035,7 @@
         <v>193</v>
       </c>
       <c r="C336">
-        <v>1582</v>
+        <v>1482</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -7714,10 +8049,10 @@
         <v>271</v>
       </c>
       <c r="B337" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C337">
-        <v>1620</v>
+        <v>1485</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -7731,10 +8066,10 @@
         <v>271</v>
       </c>
       <c r="B338" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C338">
-        <v>1682</v>
+        <v>1497</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -7748,10 +8083,10 @@
         <v>271</v>
       </c>
       <c r="B339" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C339">
-        <v>1694</v>
+        <v>1582</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -7765,10 +8100,10 @@
         <v>271</v>
       </c>
       <c r="B340" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C340">
-        <v>1793</v>
+        <v>1620</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -7782,10 +8117,10 @@
         <v>271</v>
       </c>
       <c r="B341" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C341">
-        <v>1801</v>
+        <v>1682</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -7796,184 +8131,175 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B342" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C342">
-        <v>2045</v>
+        <v>1694</v>
       </c>
       <c r="H342" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B343" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C343">
-        <v>2070</v>
+        <v>1793</v>
       </c>
       <c r="H343" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B344" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C344">
-        <v>2071</v>
+        <v>1801</v>
       </c>
       <c r="H344" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B345" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C345">
-        <v>1506</v>
+        <v>2045</v>
       </c>
       <c r="H345" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B346" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C346">
-        <v>1515</v>
+        <v>2070</v>
       </c>
       <c r="H346" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B347" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C347">
-        <v>195</v>
+        <v>2071</v>
       </c>
       <c r="H347" t="s">
         <v>10</v>
       </c>
-      <c r="I347" t="s">
-        <v>4</v>
-      </c>
       <c r="K347" s="1" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B348" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C348">
-        <v>411</v>
+        <v>1506</v>
       </c>
       <c r="H348" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B349" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C349">
-        <v>797</v>
+        <v>1515</v>
       </c>
       <c r="H349" t="s">
-        <v>204</v>
-      </c>
-      <c r="I349" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B350" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C350">
-        <v>805</v>
+        <v>195</v>
       </c>
       <c r="H350" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="I350" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B351" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C351">
-        <v>809</v>
+        <v>411</v>
       </c>
       <c r="H351" t="s">
-        <v>204</v>
-      </c>
-      <c r="I351" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
@@ -7984,7 +8310,7 @@
         <v>202</v>
       </c>
       <c r="C352">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="H352" t="s">
         <v>204</v>
@@ -7998,53 +8324,62 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B353" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C353">
-        <v>161</v>
+        <v>805</v>
       </c>
       <c r="H353" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="I353" t="s">
+        <v>205</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B354" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C354">
-        <v>171</v>
+        <v>809</v>
       </c>
       <c r="H354" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="I354" t="s">
+        <v>205</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B355" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C355">
-        <v>181</v>
+        <v>811</v>
       </c>
       <c r="H355" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="I355" t="s">
+        <v>205</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
@@ -8055,7 +8390,7 @@
         <v>207</v>
       </c>
       <c r="C356">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="H356" t="s">
         <v>56</v>
@@ -8072,7 +8407,7 @@
         <v>207</v>
       </c>
       <c r="C357">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="H357" t="s">
         <v>56</v>
@@ -8089,7 +8424,7 @@
         <v>207</v>
       </c>
       <c r="C358">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H358" t="s">
         <v>56</v>
@@ -8106,7 +8441,7 @@
         <v>207</v>
       </c>
       <c r="C359">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="H359" t="s">
         <v>56</v>
@@ -8123,7 +8458,7 @@
         <v>207</v>
       </c>
       <c r="C360">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="H360" t="s">
         <v>56</v>
@@ -8137,10 +8472,10 @@
         <v>277</v>
       </c>
       <c r="B361" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C361">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="H361" t="s">
         <v>56</v>
@@ -8151,53 +8486,53 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B362" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C362">
-        <v>673</v>
+        <v>248</v>
       </c>
       <c r="H362" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B363" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C363">
-        <v>673</v>
+        <v>261</v>
       </c>
       <c r="H363" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B364" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C364">
-        <v>686</v>
+        <v>433</v>
       </c>
       <c r="H364" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
@@ -8208,13 +8543,13 @@
         <v>209</v>
       </c>
       <c r="C365">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H365" t="s">
         <v>85</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
@@ -8225,13 +8560,13 @@
         <v>209</v>
       </c>
       <c r="C366">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="H366" t="s">
         <v>85</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
@@ -8242,13 +8577,13 @@
         <v>209</v>
       </c>
       <c r="C367">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H367" t="s">
         <v>85</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
@@ -8259,13 +8594,13 @@
         <v>209</v>
       </c>
       <c r="C368">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="H368" t="s">
         <v>85</v>
       </c>
       <c r="K368" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
@@ -8276,13 +8611,13 @@
         <v>209</v>
       </c>
       <c r="C369">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H369" t="s">
         <v>85</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
@@ -8293,13 +8628,13 @@
         <v>209</v>
       </c>
       <c r="C370">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="H370" t="s">
         <v>85</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
@@ -8310,13 +8645,13 @@
         <v>209</v>
       </c>
       <c r="C371">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="H371" t="s">
         <v>85</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -8327,13 +8662,13 @@
         <v>209</v>
       </c>
       <c r="C372">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="H372" t="s">
         <v>85</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
@@ -8344,13 +8679,13 @@
         <v>209</v>
       </c>
       <c r="C373">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H373" t="s">
         <v>85</v>
       </c>
       <c r="K373" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
@@ -8361,13 +8696,13 @@
         <v>209</v>
       </c>
       <c r="C374">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="H374" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K374" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
@@ -8378,7 +8713,7 @@
         <v>209</v>
       </c>
       <c r="C375">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="H375" t="s">
         <v>85</v>
@@ -8395,7 +8730,7 @@
         <v>209</v>
       </c>
       <c r="C376">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="H376" t="s">
         <v>85</v>
@@ -8409,16 +8744,16 @@
         <v>278</v>
       </c>
       <c r="B377" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C377">
-        <v>841</v>
+        <v>734</v>
       </c>
       <c r="H377" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
@@ -8426,16 +8761,16 @@
         <v>278</v>
       </c>
       <c r="B378" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C378">
-        <v>850</v>
+        <v>739</v>
       </c>
       <c r="H378" t="s">
         <v>85</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
@@ -8443,10 +8778,10 @@
         <v>278</v>
       </c>
       <c r="B379" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C379">
-        <v>852</v>
+        <v>739</v>
       </c>
       <c r="H379" t="s">
         <v>85</v>
@@ -8460,16 +8795,16 @@
         <v>278</v>
       </c>
       <c r="B380" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C380">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="H380" t="s">
         <v>85</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
@@ -8477,16 +8812,16 @@
         <v>278</v>
       </c>
       <c r="B381" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C381">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="H381" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K381" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
@@ -8494,16 +8829,16 @@
         <v>278</v>
       </c>
       <c r="B382" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C382">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="H382" t="s">
         <v>85</v>
       </c>
       <c r="K382" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
@@ -8514,12 +8849,63 @@
         <v>209</v>
       </c>
       <c r="C383">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="H383" t="s">
         <v>85</v>
       </c>
       <c r="K383" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>278</v>
+      </c>
+      <c r="B384" t="s">
+        <v>209</v>
+      </c>
+      <c r="C384">
+        <v>868</v>
+      </c>
+      <c r="H384" t="s">
+        <v>64</v>
+      </c>
+      <c r="K384" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>278</v>
+      </c>
+      <c r="B385" t="s">
+        <v>209</v>
+      </c>
+      <c r="C385">
+        <v>872</v>
+      </c>
+      <c r="H385" t="s">
+        <v>85</v>
+      </c>
+      <c r="K385" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>278</v>
+      </c>
+      <c r="B386" t="s">
+        <v>209</v>
+      </c>
+      <c r="C386">
+        <v>872</v>
+      </c>
+      <c r="H386" t="s">
+        <v>85</v>
+      </c>
+      <c r="K386" s="1" t="s">
         <v>211</v>
       </c>
     </row>

--- a/bugs_table.xlsx
+++ b/bugs_table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxbe\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383BFA45-E993-46D1-A614-9C5D47227213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AF5BA-36C5-48A9-ABAB-C5E3DC81A24C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="2100" windowWidth="17280" windowHeight="8964" xr2:uid="{88C54D22-CC6D-44EB-88DB-9A6383E82FD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88C54D22-CC6D-44EB-88DB-9A6383E82FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$386</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$388</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$O:$O</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="280">
   <si>
     <t>File</t>
   </si>
@@ -1225,15 +1225,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEEF99E-85B6-452B-AB09-1A7819E6A45F}">
-  <dimension ref="A1:Q386"/>
+  <dimension ref="A1:Q388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="91" workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L276" sqref="L276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+    <col min="1" max="1" width="59.109375" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
@@ -3950,6 +3950,9 @@
       <c r="K109" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -3970,6 +3973,9 @@
       <c r="K110" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -3990,6 +3996,9 @@
       <c r="K111" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -4013,8 +4022,11 @@
       <c r="K112" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -4033,8 +4045,11 @@
       <c r="K113" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>238</v>
       </c>
@@ -4053,8 +4068,11 @@
       <c r="K114" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -4073,8 +4091,11 @@
       <c r="K115" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -4093,8 +4114,11 @@
       <c r="K116" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>238</v>
       </c>
@@ -4113,8 +4137,11 @@
       <c r="K117" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>238</v>
       </c>
@@ -4133,8 +4160,11 @@
       <c r="K118" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -4159,8 +4189,11 @@
       <c r="K119" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -4185,8 +4218,11 @@
       <c r="K120" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -4211,8 +4247,11 @@
       <c r="K121" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>238</v>
       </c>
@@ -4237,8 +4276,11 @@
       <c r="K122" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>238</v>
       </c>
@@ -4266,8 +4308,11 @@
       <c r="K123" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -4283,8 +4328,11 @@
       <c r="K124" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>239</v>
       </c>
@@ -4300,8 +4348,11 @@
       <c r="K125" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>239</v>
       </c>
@@ -4317,8 +4368,11 @@
       <c r="K126" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>239</v>
       </c>
@@ -4334,8 +4388,11 @@
       <c r="K127" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>239</v>
       </c>
@@ -4351,8 +4408,11 @@
       <c r="K128" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>239</v>
       </c>
@@ -4368,8 +4428,11 @@
       <c r="K129" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>240</v>
       </c>
@@ -4385,8 +4448,11 @@
       <c r="K130" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>240</v>
       </c>
@@ -4402,8 +4468,11 @@
       <c r="K131" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>240</v>
       </c>
@@ -4419,8 +4488,11 @@
       <c r="K132" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>240</v>
       </c>
@@ -4436,8 +4508,11 @@
       <c r="K133" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>240</v>
       </c>
@@ -4453,8 +4528,11 @@
       <c r="K134" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>240</v>
       </c>
@@ -4470,8 +4548,11 @@
       <c r="K135" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>241</v>
       </c>
@@ -4487,8 +4568,11 @@
       <c r="K136" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>241</v>
       </c>
@@ -4504,8 +4588,11 @@
       <c r="K137" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>241</v>
       </c>
@@ -4521,8 +4608,11 @@
       <c r="K138" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>241</v>
       </c>
@@ -4538,8 +4628,11 @@
       <c r="K139" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>241</v>
       </c>
@@ -4555,8 +4648,11 @@
       <c r="K140" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>241</v>
       </c>
@@ -4572,8 +4668,11 @@
       <c r="K141" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>241</v>
       </c>
@@ -4589,8 +4688,11 @@
       <c r="K142" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>241</v>
       </c>
@@ -4606,8 +4708,11 @@
       <c r="K143" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>241</v>
       </c>
@@ -4623,8 +4728,11 @@
       <c r="K144" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>241</v>
       </c>
@@ -4640,8 +4748,11 @@
       <c r="K145" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>241</v>
       </c>
@@ -4657,8 +4768,11 @@
       <c r="K146" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>241</v>
       </c>
@@ -4674,8 +4788,11 @@
       <c r="K147" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>242</v>
       </c>
@@ -4694,8 +4811,11 @@
       <c r="K148" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>242</v>
       </c>
@@ -4705,11 +4825,20 @@
       <c r="C149">
         <v>1160</v>
       </c>
+      <c r="H149" t="s">
+        <v>85</v>
+      </c>
+      <c r="I149" t="s">
+        <v>4</v>
+      </c>
       <c r="K149" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>242</v>
       </c>
@@ -4722,8 +4851,11 @@
       <c r="K150" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>242</v>
       </c>
@@ -4733,11 +4865,20 @@
       <c r="C151">
         <v>1293</v>
       </c>
+      <c r="H151" t="s">
+        <v>85</v>
+      </c>
+      <c r="I151" t="s">
+        <v>4</v>
+      </c>
       <c r="K151" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>242</v>
       </c>
@@ -4756,8 +4897,11 @@
       <c r="K152" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>242</v>
       </c>
@@ -4765,7 +4909,7 @@
         <v>84</v>
       </c>
       <c r="C153">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="H153" t="s">
         <v>85</v>
@@ -4774,10 +4918,13 @@
         <v>4</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>242</v>
       </c>
@@ -4785,7 +4932,7 @@
         <v>84</v>
       </c>
       <c r="C154">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="H154" t="s">
         <v>85</v>
@@ -4796,8 +4943,11 @@
       <c r="K154" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>242</v>
       </c>
@@ -4805,7 +4955,7 @@
         <v>84</v>
       </c>
       <c r="C155">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H155" t="s">
         <v>85</v>
@@ -4816,8 +4966,11 @@
       <c r="K155" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>242</v>
       </c>
@@ -4825,13 +4978,22 @@
         <v>84</v>
       </c>
       <c r="C156">
-        <v>1300</v>
+        <v>1309</v>
+      </c>
+      <c r="H156" t="s">
+        <v>85</v>
+      </c>
+      <c r="I156" t="s">
+        <v>4</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="L156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>242</v>
       </c>
@@ -4839,13 +5001,16 @@
         <v>84</v>
       </c>
       <c r="C157">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>242</v>
       </c>
@@ -4853,13 +5018,16 @@
         <v>84</v>
       </c>
       <c r="C158">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>242</v>
       </c>
@@ -4867,13 +5035,16 @@
         <v>84</v>
       </c>
       <c r="C159">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>242</v>
       </c>
@@ -4881,13 +5052,16 @@
         <v>84</v>
       </c>
       <c r="C160">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="L160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>242</v>
       </c>
@@ -4895,13 +5069,16 @@
         <v>84</v>
       </c>
       <c r="C161">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>242</v>
       </c>
@@ -4909,13 +5086,16 @@
         <v>84</v>
       </c>
       <c r="C162">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>242</v>
       </c>
@@ -4923,13 +5103,16 @@
         <v>84</v>
       </c>
       <c r="C163">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>242</v>
       </c>
@@ -4937,19 +5120,16 @@
         <v>84</v>
       </c>
       <c r="C164">
-        <v>1321</v>
-      </c>
-      <c r="H164" t="s">
-        <v>85</v>
-      </c>
-      <c r="I164" t="s">
-        <v>4</v>
+        <v>1327</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="L164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>242</v>
       </c>
@@ -4957,19 +5137,16 @@
         <v>84</v>
       </c>
       <c r="C165">
-        <v>1323</v>
-      </c>
-      <c r="H165" t="s">
-        <v>85</v>
-      </c>
-      <c r="I165" t="s">
-        <v>4</v>
+        <v>1329</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="L165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>242</v>
       </c>
@@ -4977,7 +5154,7 @@
         <v>84</v>
       </c>
       <c r="C166">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="H166" t="s">
         <v>85</v>
@@ -4988,8 +5165,11 @@
       <c r="K166" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>242</v>
       </c>
@@ -4997,7 +5177,7 @@
         <v>84</v>
       </c>
       <c r="C167">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="H167" t="s">
         <v>85</v>
@@ -5008,48 +5188,57 @@
       <c r="K167" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>242</v>
       </c>
       <c r="B168" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C168">
-        <v>1636</v>
+        <v>1327</v>
       </c>
       <c r="H168" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I168" t="s">
         <v>4</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="L168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>242</v>
       </c>
       <c r="B169" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C169">
-        <v>1649</v>
+        <v>1329</v>
       </c>
       <c r="H169" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I169" t="s">
         <v>4</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="L169">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>242</v>
       </c>
@@ -5057,7 +5246,7 @@
         <v>87</v>
       </c>
       <c r="C170">
-        <v>1650</v>
+        <v>1636</v>
       </c>
       <c r="H170" t="s">
         <v>10</v>
@@ -5068,42 +5257,57 @@
       <c r="K170" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C171">
-        <v>185</v>
+        <v>1649</v>
       </c>
       <c r="H171" t="s">
         <v>10</v>
       </c>
+      <c r="I171" t="s">
+        <v>4</v>
+      </c>
       <c r="K171" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C172">
-        <v>244</v>
+        <v>1650</v>
       </c>
       <c r="H172" t="s">
         <v>10</v>
       </c>
+      <c r="I172" t="s">
+        <v>4</v>
+      </c>
       <c r="K172" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>243</v>
       </c>
@@ -5111,7 +5315,7 @@
         <v>88</v>
       </c>
       <c r="C173">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="H173" t="s">
         <v>10</v>
@@ -5119,42 +5323,51 @@
       <c r="K173" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>243</v>
+      </c>
+      <c r="B174" t="s">
+        <v>88</v>
+      </c>
+      <c r="C174">
         <v>244</v>
       </c>
-      <c r="B174" t="s">
-        <v>91</v>
-      </c>
-      <c r="C174">
-        <v>388</v>
-      </c>
       <c r="H174" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B175" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C175">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="H175" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>244</v>
       </c>
@@ -5162,16 +5375,19 @@
         <v>91</v>
       </c>
       <c r="C176">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H176" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>244</v>
       </c>
@@ -5179,50 +5395,59 @@
         <v>91</v>
       </c>
       <c r="C177">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H177" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B178" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C178">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="H178" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="L178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C179">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="H179" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>245</v>
       </c>
@@ -5230,7 +5455,7 @@
         <v>96</v>
       </c>
       <c r="C180">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="H180" t="s">
         <v>64</v>
@@ -5238,8 +5463,11 @@
       <c r="K180" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>245</v>
       </c>
@@ -5247,7 +5475,7 @@
         <v>96</v>
       </c>
       <c r="C181">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="H181" t="s">
         <v>64</v>
@@ -5255,8 +5483,11 @@
       <c r="K181" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>245</v>
       </c>
@@ -5264,7 +5495,7 @@
         <v>96</v>
       </c>
       <c r="C182">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="H182" t="s">
         <v>64</v>
@@ -5272,8 +5503,11 @@
       <c r="K182" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>245</v>
       </c>
@@ -5281,7 +5515,7 @@
         <v>96</v>
       </c>
       <c r="C183">
-        <v>611</v>
+        <v>547</v>
       </c>
       <c r="H183" t="s">
         <v>64</v>
@@ -5289,56 +5523,59 @@
       <c r="K183" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B184" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C184">
-        <v>1332</v>
+        <v>562</v>
       </c>
       <c r="H184" t="s">
-        <v>10</v>
-      </c>
-      <c r="I184" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C185">
-        <v>2204</v>
+        <v>611</v>
       </c>
       <c r="H185" t="s">
-        <v>10</v>
-      </c>
-      <c r="I185" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C186">
-        <v>2327</v>
+        <v>1332</v>
       </c>
       <c r="H186" t="s">
         <v>10</v>
@@ -5349,8 +5586,11 @@
       <c r="K186" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>246</v>
       </c>
@@ -5358,7 +5598,7 @@
         <v>99</v>
       </c>
       <c r="C187">
-        <v>2467</v>
+        <v>2204</v>
       </c>
       <c r="H187" t="s">
         <v>10</v>
@@ -5369,8 +5609,11 @@
       <c r="K187" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>246</v>
       </c>
@@ -5378,7 +5621,7 @@
         <v>99</v>
       </c>
       <c r="C188">
-        <v>2468</v>
+        <v>2327</v>
       </c>
       <c r="H188" t="s">
         <v>10</v>
@@ -5389,8 +5632,11 @@
       <c r="K188" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>246</v>
       </c>
@@ -5398,7 +5644,7 @@
         <v>99</v>
       </c>
       <c r="C189">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="H189" t="s">
         <v>10</v>
@@ -5409,8 +5655,11 @@
       <c r="K189" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>246</v>
       </c>
@@ -5418,7 +5667,7 @@
         <v>99</v>
       </c>
       <c r="C190">
-        <v>2479</v>
+        <v>2468</v>
       </c>
       <c r="H190" t="s">
         <v>10</v>
@@ -5429,8 +5678,11 @@
       <c r="K190" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>246</v>
       </c>
@@ -5438,7 +5690,7 @@
         <v>99</v>
       </c>
       <c r="C191">
-        <v>2483</v>
+        <v>2471</v>
       </c>
       <c r="H191" t="s">
         <v>10</v>
@@ -5449,8 +5701,11 @@
       <c r="K191" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>246</v>
       </c>
@@ -5458,7 +5713,7 @@
         <v>99</v>
       </c>
       <c r="C192">
-        <v>2509</v>
+        <v>2479</v>
       </c>
       <c r="H192" t="s">
         <v>10</v>
@@ -5469,8 +5724,11 @@
       <c r="K192" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>246</v>
       </c>
@@ -5478,7 +5736,7 @@
         <v>99</v>
       </c>
       <c r="C193">
-        <v>2553</v>
+        <v>2483</v>
       </c>
       <c r="H193" t="s">
         <v>10</v>
@@ -5489,8 +5747,11 @@
       <c r="K193" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>246</v>
       </c>
@@ -5498,7 +5759,7 @@
         <v>99</v>
       </c>
       <c r="C194">
-        <v>2577</v>
+        <v>2509</v>
       </c>
       <c r="H194" t="s">
         <v>10</v>
@@ -5509,8 +5770,11 @@
       <c r="K194" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>246</v>
       </c>
@@ -5518,7 +5782,7 @@
         <v>99</v>
       </c>
       <c r="C195">
-        <v>2593</v>
+        <v>2553</v>
       </c>
       <c r="H195" t="s">
         <v>10</v>
@@ -5529,42 +5793,57 @@
       <c r="K195" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B196" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C196">
-        <v>606</v>
+        <v>2577</v>
       </c>
       <c r="H196" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I196" t="s">
+        <v>100</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="L196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B197" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C197">
-        <v>638</v>
+        <v>2593</v>
       </c>
       <c r="H197" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I197" t="s">
+        <v>100</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="L197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>247</v>
       </c>
@@ -5572,7 +5851,7 @@
         <v>101</v>
       </c>
       <c r="C198">
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
@@ -5580,42 +5859,51 @@
       <c r="K198" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B199" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C199">
-        <v>197</v>
+        <v>638</v>
       </c>
       <c r="H199" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B200" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C200">
-        <v>198</v>
+        <v>646</v>
       </c>
       <c r="H200" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>248</v>
       </c>
@@ -5623,7 +5911,7 @@
         <v>103</v>
       </c>
       <c r="C201">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="H201" t="s">
         <v>34</v>
@@ -5631,8 +5919,11 @@
       <c r="K201" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>248</v>
       </c>
@@ -5640,7 +5931,7 @@
         <v>103</v>
       </c>
       <c r="C202">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="H202" t="s">
         <v>34</v>
@@ -5648,8 +5939,11 @@
       <c r="K202" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>248</v>
       </c>
@@ -5657,7 +5951,7 @@
         <v>103</v>
       </c>
       <c r="C203">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H203" t="s">
         <v>34</v>
@@ -5665,8 +5959,11 @@
       <c r="K203" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>248</v>
       </c>
@@ -5674,7 +5971,7 @@
         <v>103</v>
       </c>
       <c r="C204">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H204" t="s">
         <v>34</v>
@@ -5682,8 +5979,11 @@
       <c r="K204" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>248</v>
       </c>
@@ -5691,7 +5991,7 @@
         <v>103</v>
       </c>
       <c r="C205">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H205" t="s">
         <v>34</v>
@@ -5699,260 +5999,308 @@
       <c r="K205" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>248</v>
+      </c>
+      <c r="B206" t="s">
+        <v>103</v>
+      </c>
+      <c r="C206">
+        <v>248</v>
+      </c>
+      <c r="H206" t="s">
+        <v>34</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>248</v>
+      </c>
+      <c r="B207" t="s">
+        <v>103</v>
+      </c>
+      <c r="C207">
+        <v>253</v>
+      </c>
+      <c r="H207" t="s">
+        <v>34</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L207">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>249</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B208" t="s">
         <v>105</v>
       </c>
-      <c r="C206">
+      <c r="C208">
         <v>700</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H208" t="s">
         <v>12</v>
       </c>
-      <c r="K206" s="1" t="s">
+      <c r="K208" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="L208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>249</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B209" t="s">
         <v>105</v>
       </c>
-      <c r="C207">
+      <c r="C209">
         <v>702</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H209" t="s">
         <v>12</v>
       </c>
-      <c r="K207" s="1" t="s">
+      <c r="K209" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="L209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>250</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B210" t="s">
         <v>107</v>
       </c>
-      <c r="C208">
+      <c r="C210">
         <v>5869</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H210" t="s">
         <v>108</v>
       </c>
-      <c r="K208" s="1" t="s">
+      <c r="K210" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="L210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>250</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B211" t="s">
         <v>107</v>
       </c>
-      <c r="C209">
+      <c r="C211">
         <v>5872</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H211" t="s">
         <v>108</v>
       </c>
-      <c r="K209" s="1" t="s">
+      <c r="K211" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>251</v>
-      </c>
-      <c r="B210" t="s">
-        <v>110</v>
-      </c>
-      <c r="C210">
-        <v>251</v>
-      </c>
-      <c r="K210" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>251</v>
-      </c>
-      <c r="B211" t="s">
-        <v>110</v>
-      </c>
-      <c r="C211">
-        <v>262</v>
-      </c>
-      <c r="K211" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>251</v>
       </c>
       <c r="B212" t="s">
+        <v>110</v>
+      </c>
+      <c r="C212">
+        <v>251</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>251</v>
+      </c>
+      <c r="B213" t="s">
+        <v>110</v>
+      </c>
+      <c r="C213">
+        <v>262</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>251</v>
+      </c>
+      <c r="B214" t="s">
         <v>112</v>
       </c>
-      <c r="C212">
+      <c r="C214">
         <v>910</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H214" t="s">
         <v>113</v>
       </c>
-      <c r="K212" s="1" t="s">
+      <c r="K214" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="L214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>252</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B215" t="s">
         <v>115</v>
       </c>
-      <c r="C213">
+      <c r="C215">
         <v>2258</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H215" t="s">
         <v>22</v>
       </c>
-      <c r="K213" s="1" t="s">
+      <c r="K215" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="L215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>253</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B216" t="s">
         <v>117</v>
       </c>
-      <c r="C214">
+      <c r="C216">
         <v>297</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H216" t="s">
         <v>18</v>
       </c>
-      <c r="K214" s="1" t="s">
+      <c r="K216" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="L216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>253</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B217" t="s">
         <v>117</v>
       </c>
-      <c r="C215">
+      <c r="C217">
         <v>571</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H217" t="s">
         <v>18</v>
       </c>
-      <c r="K215" s="1" t="s">
+      <c r="K217" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>254</v>
-      </c>
-      <c r="B216" t="s">
-        <v>120</v>
-      </c>
-      <c r="C216">
-        <v>4024</v>
-      </c>
-      <c r="H216" t="s">
-        <v>119</v>
-      </c>
-      <c r="I216" t="s">
-        <v>45</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>254</v>
-      </c>
-      <c r="B217" t="s">
-        <v>121</v>
-      </c>
-      <c r="C217">
-        <v>4509</v>
-      </c>
-      <c r="H217" t="s">
-        <v>4</v>
-      </c>
-      <c r="K217" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>254</v>
       </c>
       <c r="B218" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218">
+        <v>4024</v>
+      </c>
+      <c r="H218" t="s">
+        <v>119</v>
+      </c>
+      <c r="I218" t="s">
+        <v>45</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>254</v>
+      </c>
+      <c r="B219" t="s">
         <v>121</v>
       </c>
-      <c r="C218">
+      <c r="C219">
+        <v>4509</v>
+      </c>
+      <c r="H219" t="s">
+        <v>4</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>254</v>
+      </c>
+      <c r="B220" t="s">
+        <v>121</v>
+      </c>
+      <c r="C220">
         <v>4529</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H220" t="s">
         <v>4</v>
       </c>
-      <c r="K218" s="1" t="s">
+      <c r="K220" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>255</v>
-      </c>
-      <c r="B219" t="s">
-        <v>123</v>
-      </c>
-      <c r="C219">
-        <v>500</v>
-      </c>
-      <c r="H219" t="s">
-        <v>124</v>
-      </c>
-      <c r="K219" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>255</v>
-      </c>
-      <c r="B220" t="s">
-        <v>123</v>
-      </c>
-      <c r="C220">
-        <v>503</v>
-      </c>
-      <c r="H220" t="s">
-        <v>124</v>
-      </c>
-      <c r="K220" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>255</v>
       </c>
@@ -5960,7 +6308,7 @@
         <v>123</v>
       </c>
       <c r="C221">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H221" t="s">
         <v>124</v>
@@ -5968,8 +6316,11 @@
       <c r="K221" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>255</v>
       </c>
@@ -5977,7 +6328,7 @@
         <v>123</v>
       </c>
       <c r="C222">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H222" t="s">
         <v>124</v>
@@ -5985,8 +6336,11 @@
       <c r="K222" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>255</v>
       </c>
@@ -5994,7 +6348,7 @@
         <v>123</v>
       </c>
       <c r="C223">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H223" t="s">
         <v>124</v>
@@ -6002,8 +6356,11 @@
       <c r="K223" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>255</v>
       </c>
@@ -6011,7 +6368,7 @@
         <v>123</v>
       </c>
       <c r="C224">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H224" t="s">
         <v>124</v>
@@ -6019,8 +6376,11 @@
       <c r="K224" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>255</v>
       </c>
@@ -6028,7 +6388,7 @@
         <v>123</v>
       </c>
       <c r="C225">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H225" t="s">
         <v>124</v>
@@ -6036,8 +6396,11 @@
       <c r="K225" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>255</v>
       </c>
@@ -6045,7 +6408,7 @@
         <v>123</v>
       </c>
       <c r="C226">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H226" t="s">
         <v>124</v>
@@ -6053,8 +6416,11 @@
       <c r="K226" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>255</v>
       </c>
@@ -6062,7 +6428,7 @@
         <v>123</v>
       </c>
       <c r="C227">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H227" t="s">
         <v>124</v>
@@ -6070,8 +6436,11 @@
       <c r="K227" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L227">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>255</v>
       </c>
@@ -6079,7 +6448,7 @@
         <v>123</v>
       </c>
       <c r="C228">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H228" t="s">
         <v>124</v>
@@ -6087,8 +6456,11 @@
       <c r="K228" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>255</v>
       </c>
@@ -6096,7 +6468,7 @@
         <v>123</v>
       </c>
       <c r="C229">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H229" t="s">
         <v>124</v>
@@ -6104,8 +6476,11 @@
       <c r="K229" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>255</v>
       </c>
@@ -6113,7 +6488,7 @@
         <v>123</v>
       </c>
       <c r="C230">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H230" t="s">
         <v>124</v>
@@ -6121,16 +6496,19 @@
       <c r="K230" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>255</v>
       </c>
       <c r="B231" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C231">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="H231" t="s">
         <v>124</v>
@@ -6138,16 +6516,19 @@
       <c r="K231" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>255</v>
       </c>
       <c r="B232" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C232">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="H232" t="s">
         <v>124</v>
@@ -6155,99 +6536,111 @@
       <c r="K232" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>255</v>
       </c>
       <c r="B233" t="s">
+        <v>126</v>
+      </c>
+      <c r="C233">
+        <v>581</v>
+      </c>
+      <c r="H233" t="s">
+        <v>124</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L233">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>255</v>
+      </c>
+      <c r="B234" t="s">
+        <v>126</v>
+      </c>
+      <c r="C234">
+        <v>583</v>
+      </c>
+      <c r="H234" t="s">
+        <v>124</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>255</v>
+      </c>
+      <c r="B235" t="s">
         <v>127</v>
       </c>
-      <c r="C233">
+      <c r="C235">
         <v>942</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H235" t="s">
         <v>22</v>
       </c>
-      <c r="K233" s="1" t="s">
+      <c r="K235" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>256</v>
-      </c>
-      <c r="B234" t="s">
-        <v>128</v>
-      </c>
-      <c r="C234">
-        <v>642</v>
-      </c>
-      <c r="H234" t="s">
-        <v>129</v>
-      </c>
-      <c r="K234" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>256</v>
-      </c>
-      <c r="B235" t="s">
-        <v>128</v>
-      </c>
-      <c r="C235">
-        <v>650</v>
-      </c>
-      <c r="H235" t="s">
-        <v>129</v>
-      </c>
-      <c r="K235" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>256</v>
       </c>
       <c r="B236" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C236">
-        <v>758</v>
+        <v>642</v>
       </c>
       <c r="H236" t="s">
-        <v>124</v>
-      </c>
-      <c r="I236" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>256</v>
       </c>
       <c r="B237" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C237">
-        <v>760</v>
+        <v>650</v>
       </c>
       <c r="H237" t="s">
-        <v>124</v>
-      </c>
-      <c r="I237" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>256</v>
       </c>
@@ -6255,7 +6648,7 @@
         <v>130</v>
       </c>
       <c r="C238">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H238" t="s">
         <v>124</v>
@@ -6266,82 +6659,97 @@
       <c r="K238" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>256</v>
       </c>
       <c r="B239" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C239">
-        <v>1145</v>
+        <v>760</v>
       </c>
       <c r="H239" t="s">
-        <v>64</v>
+        <v>124</v>
+      </c>
+      <c r="I239" t="s">
+        <v>4</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>256</v>
       </c>
       <c r="B240" t="s">
+        <v>130</v>
+      </c>
+      <c r="C240">
+        <v>761</v>
+      </c>
+      <c r="H240" t="s">
+        <v>124</v>
+      </c>
+      <c r="I240" t="s">
+        <v>4</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>256</v>
+      </c>
+      <c r="B241" t="s">
+        <v>133</v>
+      </c>
+      <c r="C241">
+        <v>1145</v>
+      </c>
+      <c r="H241" t="s">
+        <v>64</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>256</v>
+      </c>
+      <c r="B242" t="s">
         <v>134</v>
       </c>
-      <c r="C240">
+      <c r="C242">
         <v>1290</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H242" t="s">
         <v>64</v>
       </c>
-      <c r="K240" s="1" t="s">
+      <c r="K242" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>257</v>
-      </c>
-      <c r="B241" t="s">
-        <v>135</v>
-      </c>
-      <c r="C241">
-        <v>2740</v>
-      </c>
-      <c r="H241" t="s">
-        <v>92</v>
-      </c>
-      <c r="I241" t="s">
-        <v>4</v>
-      </c>
-      <c r="K241" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>257</v>
-      </c>
-      <c r="B242" t="s">
-        <v>135</v>
-      </c>
-      <c r="C242">
-        <v>2743</v>
-      </c>
-      <c r="H242" t="s">
-        <v>92</v>
-      </c>
-      <c r="I242" t="s">
-        <v>4</v>
-      </c>
-      <c r="K242" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>257</v>
       </c>
@@ -6349,7 +6757,7 @@
         <v>135</v>
       </c>
       <c r="C243">
-        <v>2746</v>
+        <v>2740</v>
       </c>
       <c r="H243" t="s">
         <v>92</v>
@@ -6360,16 +6768,19 @@
       <c r="K243" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B244" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C244">
-        <v>930</v>
+        <v>2743</v>
       </c>
       <c r="H244" t="s">
         <v>92</v>
@@ -6378,18 +6789,21 @@
         <v>4</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="L244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B245" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C245">
-        <v>938</v>
+        <v>2746</v>
       </c>
       <c r="H245" t="s">
         <v>92</v>
@@ -6398,52 +6812,67 @@
         <v>4</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>258</v>
+      </c>
+      <c r="B246" t="s">
+        <v>137</v>
+      </c>
+      <c r="C246">
+        <v>930</v>
+      </c>
+      <c r="H246" t="s">
+        <v>92</v>
+      </c>
+      <c r="I246" t="s">
+        <v>4</v>
+      </c>
+      <c r="K246" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>259</v>
-      </c>
-      <c r="B246" t="s">
-        <v>139</v>
-      </c>
-      <c r="C246">
-        <v>935</v>
-      </c>
-      <c r="H246" t="s">
-        <v>12</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C247">
-        <v>1071</v>
+        <v>938</v>
       </c>
       <c r="H247" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="I247" t="s">
+        <v>4</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C248">
-        <v>1078</v>
+        <v>935</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>
@@ -6451,8 +6880,11 @@
       <c r="K248" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>259</v>
       </c>
@@ -6460,7 +6892,7 @@
         <v>141</v>
       </c>
       <c r="C249">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="H249" t="s">
         <v>12</v>
@@ -6468,8 +6900,11 @@
       <c r="K249" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>259</v>
       </c>
@@ -6477,7 +6912,7 @@
         <v>141</v>
       </c>
       <c r="C250">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="H250" t="s">
         <v>12</v>
@@ -6485,8 +6920,11 @@
       <c r="K250" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>259</v>
       </c>
@@ -6494,7 +6932,7 @@
         <v>141</v>
       </c>
       <c r="C251">
-        <v>1201</v>
+        <v>1079</v>
       </c>
       <c r="H251" t="s">
         <v>12</v>
@@ -6502,16 +6940,19 @@
       <c r="K251" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>259</v>
       </c>
       <c r="B252" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C252">
-        <v>2665</v>
+        <v>1089</v>
       </c>
       <c r="H252" t="s">
         <v>12</v>
@@ -6519,16 +6960,19 @@
       <c r="K252" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>259</v>
       </c>
       <c r="B253" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C253">
-        <v>2666</v>
+        <v>1201</v>
       </c>
       <c r="H253" t="s">
         <v>12</v>
@@ -6536,50 +6980,59 @@
       <c r="K253" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C254">
-        <v>4536</v>
+        <v>2665</v>
       </c>
       <c r="H254" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="L254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C255">
-        <v>4567</v>
+        <v>2666</v>
       </c>
       <c r="H255" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="L255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C256">
-        <v>4591</v>
+        <v>4536</v>
       </c>
       <c r="H256" t="s">
         <v>34</v>
@@ -6587,16 +7040,19 @@
       <c r="K256" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C257">
-        <v>4651</v>
+        <v>4567</v>
       </c>
       <c r="H257" t="s">
         <v>34</v>
@@ -6604,16 +7060,19 @@
       <c r="K257" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C258">
-        <v>4652</v>
+        <v>4591</v>
       </c>
       <c r="H258" t="s">
         <v>34</v>
@@ -6621,16 +7080,19 @@
       <c r="K258" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C259">
-        <v>5389</v>
+        <v>4651</v>
       </c>
       <c r="H259" t="s">
         <v>34</v>
@@ -6638,122 +7100,131 @@
       <c r="K259" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C260">
-        <v>462</v>
+        <v>4652</v>
       </c>
       <c r="H260" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="L260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C261">
-        <v>470</v>
+        <v>5389</v>
       </c>
       <c r="H261" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C262">
-        <v>1629</v>
+        <v>462</v>
       </c>
       <c r="H262" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>261</v>
       </c>
       <c r="B263" t="s">
+        <v>149</v>
+      </c>
+      <c r="C263">
+        <v>470</v>
+      </c>
+      <c r="H263" t="s">
+        <v>12</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>261</v>
+      </c>
+      <c r="B264" t="s">
         <v>151</v>
       </c>
-      <c r="C263">
+      <c r="C264">
+        <v>1629</v>
+      </c>
+      <c r="H264" t="s">
+        <v>64</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L264">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>261</v>
+      </c>
+      <c r="B265" t="s">
+        <v>151</v>
+      </c>
+      <c r="C265">
         <v>1677</v>
       </c>
-      <c r="H263" t="s">
+      <c r="H265" t="s">
         <v>64</v>
       </c>
-      <c r="K263" s="1" t="s">
+      <c r="K265" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>152</v>
-      </c>
-      <c r="C264">
-        <v>2705</v>
-      </c>
-      <c r="H264" t="s">
-        <v>124</v>
-      </c>
-      <c r="I264" t="s">
-        <v>124</v>
-      </c>
-      <c r="J264" t="s">
-        <v>157</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>262</v>
-      </c>
-      <c r="B265" t="s">
-        <v>152</v>
-      </c>
-      <c r="C265">
-        <v>2791</v>
-      </c>
-      <c r="H265" t="s">
-        <v>124</v>
-      </c>
-      <c r="I265" t="s">
-        <v>124</v>
-      </c>
-      <c r="J265" t="s">
-        <v>157</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>262</v>
       </c>
@@ -6761,7 +7232,7 @@
         <v>152</v>
       </c>
       <c r="C266">
-        <v>2792</v>
+        <v>2778</v>
       </c>
       <c r="H266" t="s">
         <v>124</v>
@@ -6775,8 +7246,11 @@
       <c r="K266" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>262</v>
       </c>
@@ -6784,7 +7258,7 @@
         <v>152</v>
       </c>
       <c r="C267">
-        <v>2795</v>
+        <v>2791</v>
       </c>
       <c r="H267" t="s">
         <v>124</v>
@@ -6798,16 +7272,19 @@
       <c r="K267" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>262</v>
       </c>
       <c r="B268" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C268">
-        <v>2879</v>
+        <v>2792</v>
       </c>
       <c r="H268" t="s">
         <v>124</v>
@@ -6821,16 +7298,19 @@
       <c r="K268" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C269">
-        <v>2882</v>
+        <v>2795</v>
       </c>
       <c r="H269" t="s">
         <v>124</v>
@@ -6844,19 +7324,22 @@
       <c r="K269" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>262</v>
       </c>
       <c r="B270" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C270">
-        <v>3169</v>
+        <v>2879</v>
       </c>
       <c r="H270" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I270" t="s">
         <v>124</v>
@@ -6867,19 +7350,22 @@
       <c r="K270" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>262</v>
       </c>
       <c r="B271" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C271">
-        <v>3170</v>
+        <v>2882</v>
       </c>
       <c r="H271" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I271" t="s">
         <v>124</v>
@@ -6890,8 +7376,11 @@
       <c r="K271" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>262</v>
       </c>
@@ -6899,7 +7388,7 @@
         <v>155</v>
       </c>
       <c r="C272">
-        <v>3175</v>
+        <v>3169</v>
       </c>
       <c r="H272" t="s">
         <v>34</v>
@@ -6913,8 +7402,11 @@
       <c r="K272" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>262</v>
       </c>
@@ -6922,7 +7414,7 @@
         <v>155</v>
       </c>
       <c r="C273">
-        <v>3176</v>
+        <v>3170</v>
       </c>
       <c r="H273" t="s">
         <v>34</v>
@@ -6936,110 +7428,131 @@
       <c r="K273" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>262</v>
+      </c>
+      <c r="B274" t="s">
+        <v>155</v>
+      </c>
+      <c r="C274">
+        <v>3175</v>
+      </c>
+      <c r="H274" t="s">
+        <v>34</v>
+      </c>
+      <c r="I274" t="s">
+        <v>124</v>
+      </c>
+      <c r="J274" t="s">
+        <v>157</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L274">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>262</v>
+      </c>
+      <c r="B275" t="s">
+        <v>155</v>
+      </c>
+      <c r="C275">
+        <v>3176</v>
+      </c>
+      <c r="H275" t="s">
+        <v>34</v>
+      </c>
+      <c r="I275" t="s">
+        <v>124</v>
+      </c>
+      <c r="J275" t="s">
+        <v>157</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>263</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B276" t="s">
         <v>158</v>
       </c>
-      <c r="C274">
+      <c r="C276">
         <v>908</v>
       </c>
-      <c r="H274" t="s">
+      <c r="H276" t="s">
         <v>12</v>
       </c>
-      <c r="K274" s="1" t="s">
+      <c r="K276" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>263</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B277" t="s">
         <v>158</v>
       </c>
-      <c r="C275">
+      <c r="C277">
         <v>971</v>
       </c>
-      <c r="H275" t="s">
+      <c r="H277" t="s">
         <v>12</v>
       </c>
-      <c r="K275" s="1" t="s">
+      <c r="K277" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>264</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B278" t="s">
         <v>160</v>
       </c>
-      <c r="C276">
+      <c r="C278">
         <v>3116</v>
       </c>
-      <c r="H276" t="s">
+      <c r="H278" t="s">
         <v>10</v>
       </c>
-      <c r="K276" s="1" t="s">
+      <c r="K278" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>264</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B279" t="s">
         <v>160</v>
       </c>
-      <c r="C277">
+      <c r="C279">
         <v>3117</v>
       </c>
-      <c r="H277" t="s">
+      <c r="H279" t="s">
         <v>10</v>
       </c>
-      <c r="K277" s="1" t="s">
+      <c r="K279" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>265</v>
-      </c>
-      <c r="B278" t="s">
-        <v>162</v>
-      </c>
-      <c r="C278">
-        <v>880</v>
-      </c>
-      <c r="H278" t="s">
-        <v>163</v>
-      </c>
-      <c r="K278" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>265</v>
-      </c>
-      <c r="B279" t="s">
-        <v>162</v>
-      </c>
-      <c r="C279">
-        <v>897</v>
-      </c>
-      <c r="H279" t="s">
-        <v>163</v>
-      </c>
-      <c r="K279" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>265</v>
       </c>
@@ -7047,7 +7560,7 @@
         <v>162</v>
       </c>
       <c r="C280">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="H280" t="s">
         <v>163</v>
@@ -7056,7 +7569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>265</v>
       </c>
@@ -7064,7 +7577,7 @@
         <v>162</v>
       </c>
       <c r="C281">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="H281" t="s">
         <v>163</v>
@@ -7073,7 +7586,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>265</v>
       </c>
@@ -7081,7 +7594,7 @@
         <v>162</v>
       </c>
       <c r="C282">
-        <v>1005</v>
+        <v>906</v>
       </c>
       <c r="H282" t="s">
         <v>163</v>
@@ -7090,72 +7603,66 @@
         <v>164</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>265</v>
       </c>
       <c r="B283" t="s">
+        <v>162</v>
+      </c>
+      <c r="C283">
+        <v>913</v>
+      </c>
+      <c r="H283" t="s">
+        <v>163</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>265</v>
+      </c>
+      <c r="B284" t="s">
+        <v>162</v>
+      </c>
+      <c r="C284">
+        <v>1005</v>
+      </c>
+      <c r="H284" t="s">
+        <v>163</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>265</v>
+      </c>
+      <c r="B285" t="s">
         <v>165</v>
       </c>
-      <c r="C283">
+      <c r="C285">
         <v>1628</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H285" t="s">
         <v>22</v>
       </c>
-      <c r="K283" s="1" t="s">
+      <c r="K285" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>266</v>
-      </c>
-      <c r="B284" t="s">
-        <v>167</v>
-      </c>
-      <c r="C284">
-        <v>1440</v>
-      </c>
-      <c r="H284" t="s">
-        <v>168</v>
-      </c>
-      <c r="I284" t="s">
-        <v>22</v>
-      </c>
-      <c r="K284" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>266</v>
-      </c>
-      <c r="B285" t="s">
-        <v>170</v>
-      </c>
-      <c r="C285">
-        <v>5774</v>
-      </c>
-      <c r="H285" t="s">
-        <v>168</v>
-      </c>
-      <c r="I285" t="s">
-        <v>22</v>
-      </c>
-      <c r="K285" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>266</v>
       </c>
       <c r="B286" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C286">
-        <v>5778</v>
+        <v>1440</v>
       </c>
       <c r="H286" t="s">
         <v>168</v>
@@ -7167,7 +7674,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>266</v>
       </c>
@@ -7175,7 +7682,7 @@
         <v>170</v>
       </c>
       <c r="C287">
-        <v>5880</v>
+        <v>5774</v>
       </c>
       <c r="H287" t="s">
         <v>168</v>
@@ -7187,38 +7694,44 @@
         <v>169</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B288" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C288">
-        <v>2765</v>
+        <v>5778</v>
       </c>
       <c r="H288" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I288" t="s">
+        <v>22</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B289" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C289">
-        <v>2781</v>
+        <v>5880</v>
       </c>
       <c r="H289" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="I289" t="s">
+        <v>22</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -7229,7 +7742,7 @@
         <v>171</v>
       </c>
       <c r="C290">
-        <v>2786</v>
+        <v>2765</v>
       </c>
       <c r="H290" t="s">
         <v>173</v>
@@ -7246,7 +7759,7 @@
         <v>171</v>
       </c>
       <c r="C291">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="H291" t="s">
         <v>173</v>
@@ -7263,7 +7776,7 @@
         <v>171</v>
       </c>
       <c r="C292">
-        <v>2790</v>
+        <v>2786</v>
       </c>
       <c r="H292" t="s">
         <v>173</v>
@@ -7280,7 +7793,7 @@
         <v>171</v>
       </c>
       <c r="C293">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="H293" t="s">
         <v>173</v>
@@ -7291,48 +7804,36 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B294" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C294">
-        <v>371</v>
+        <v>2790</v>
       </c>
       <c r="H294" t="s">
-        <v>176</v>
-      </c>
-      <c r="I294" t="s">
-        <v>177</v>
-      </c>
-      <c r="J294" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B295" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C295">
-        <v>385</v>
+        <v>2792</v>
       </c>
       <c r="H295" t="s">
-        <v>176</v>
-      </c>
-      <c r="I295" t="s">
-        <v>177</v>
-      </c>
-      <c r="J295" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -7343,7 +7844,7 @@
         <v>174</v>
       </c>
       <c r="C296">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="H296" t="s">
         <v>176</v>
@@ -7366,7 +7867,7 @@
         <v>174</v>
       </c>
       <c r="C297">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="H297" t="s">
         <v>176</v>
@@ -7383,36 +7884,48 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B298" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C298">
-        <v>2107</v>
+        <v>419</v>
       </c>
       <c r="H298" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="I298" t="s">
+        <v>177</v>
+      </c>
+      <c r="J298" t="s">
+        <v>178</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B299" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C299">
-        <v>2126</v>
+        <v>426</v>
       </c>
       <c r="H299" t="s">
-        <v>64</v>
+        <v>176</v>
+      </c>
+      <c r="I299" t="s">
+        <v>177</v>
+      </c>
+      <c r="J299" t="s">
+        <v>178</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -7420,16 +7933,16 @@
         <v>269</v>
       </c>
       <c r="B300" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C300">
-        <v>8210</v>
+        <v>2107</v>
       </c>
       <c r="H300" t="s">
         <v>64</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -7437,16 +7950,16 @@
         <v>269</v>
       </c>
       <c r="B301" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C301">
-        <v>8430</v>
+        <v>2126</v>
       </c>
       <c r="H301" t="s">
         <v>64</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
@@ -7454,16 +7967,16 @@
         <v>269</v>
       </c>
       <c r="B302" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C302">
-        <v>8455</v>
+        <v>8210</v>
       </c>
       <c r="H302" t="s">
         <v>64</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -7471,16 +7984,16 @@
         <v>269</v>
       </c>
       <c r="B303" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C303">
-        <v>8522</v>
+        <v>8430</v>
       </c>
       <c r="H303" t="s">
         <v>64</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
@@ -7488,16 +8001,16 @@
         <v>269</v>
       </c>
       <c r="B304" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C304">
-        <v>8631</v>
+        <v>8455</v>
       </c>
       <c r="H304" t="s">
         <v>64</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
@@ -7508,7 +8021,7 @@
         <v>185</v>
       </c>
       <c r="C305">
-        <v>8684</v>
+        <v>8522</v>
       </c>
       <c r="H305" t="s">
         <v>64</v>
@@ -7525,7 +8038,7 @@
         <v>185</v>
       </c>
       <c r="C306">
-        <v>8684</v>
+        <v>8631</v>
       </c>
       <c r="H306" t="s">
         <v>64</v>
@@ -7534,49 +8047,49 @@
         <v>181</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>269</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>186</v>
+      <c r="B307" t="s">
+        <v>185</v>
       </c>
       <c r="C307">
-        <v>10389</v>
+        <v>8684</v>
       </c>
       <c r="H307" t="s">
         <v>64</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>269</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>186</v>
+      <c r="B308" t="s">
+        <v>185</v>
       </c>
       <c r="C308">
-        <v>10399</v>
+        <v>8684</v>
       </c>
       <c r="H308" t="s">
         <v>64</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>269</v>
       </c>
-      <c r="B309" t="s">
-        <v>188</v>
+      <c r="B309" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C309">
-        <v>10499</v>
+        <v>10389</v>
       </c>
       <c r="H309" t="s">
         <v>64</v>
@@ -7585,15 +8098,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>269</v>
       </c>
-      <c r="B310" t="s">
-        <v>188</v>
+      <c r="B310" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C310">
-        <v>10500</v>
+        <v>10399</v>
       </c>
       <c r="H310" t="s">
         <v>64</v>
@@ -7610,7 +8123,7 @@
         <v>188</v>
       </c>
       <c r="C311">
-        <v>10596</v>
+        <v>10499</v>
       </c>
       <c r="H311" t="s">
         <v>64</v>
@@ -7627,7 +8140,7 @@
         <v>188</v>
       </c>
       <c r="C312">
-        <v>10597</v>
+        <v>10500</v>
       </c>
       <c r="H312" t="s">
         <v>64</v>
@@ -7641,16 +8154,16 @@
         <v>269</v>
       </c>
       <c r="B313" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C313">
-        <v>2107</v>
+        <v>10596</v>
       </c>
       <c r="H313" t="s">
         <v>64</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
@@ -7658,16 +8171,16 @@
         <v>269</v>
       </c>
       <c r="B314" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C314">
-        <v>2126</v>
+        <v>10597</v>
       </c>
       <c r="H314" t="s">
         <v>64</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
@@ -7675,16 +8188,16 @@
         <v>269</v>
       </c>
       <c r="B315" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C315">
-        <v>8210</v>
+        <v>2107</v>
       </c>
       <c r="H315" t="s">
         <v>64</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
@@ -7692,16 +8205,16 @@
         <v>269</v>
       </c>
       <c r="B316" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C316">
-        <v>8430</v>
+        <v>2126</v>
       </c>
       <c r="H316" t="s">
         <v>64</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
@@ -7709,16 +8222,16 @@
         <v>269</v>
       </c>
       <c r="B317" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C317">
-        <v>8455</v>
+        <v>8210</v>
       </c>
       <c r="H317" t="s">
         <v>64</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
@@ -7726,16 +8239,16 @@
         <v>269</v>
       </c>
       <c r="B318" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C318">
-        <v>8522</v>
+        <v>8430</v>
       </c>
       <c r="H318" t="s">
         <v>64</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
@@ -7743,16 +8256,16 @@
         <v>269</v>
       </c>
       <c r="B319" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C319">
-        <v>8631</v>
+        <v>8455</v>
       </c>
       <c r="H319" t="s">
         <v>64</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
@@ -7763,7 +8276,7 @@
         <v>185</v>
       </c>
       <c r="C320">
-        <v>8684</v>
+        <v>8522</v>
       </c>
       <c r="H320" t="s">
         <v>64</v>
@@ -7780,7 +8293,7 @@
         <v>185</v>
       </c>
       <c r="C321">
-        <v>8700</v>
+        <v>8631</v>
       </c>
       <c r="H321" t="s">
         <v>64</v>
@@ -7794,16 +8307,16 @@
         <v>269</v>
       </c>
       <c r="B322" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C322">
-        <v>10389</v>
+        <v>8684</v>
       </c>
       <c r="H322" t="s">
         <v>64</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
@@ -7811,16 +8324,16 @@
         <v>269</v>
       </c>
       <c r="B323" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C323">
-        <v>10399</v>
+        <v>8700</v>
       </c>
       <c r="H323" t="s">
         <v>64</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
@@ -7831,7 +8344,7 @@
         <v>188</v>
       </c>
       <c r="C324">
-        <v>10499</v>
+        <v>10389</v>
       </c>
       <c r="H324" t="s">
         <v>64</v>
@@ -7848,7 +8361,7 @@
         <v>188</v>
       </c>
       <c r="C325">
-        <v>10500</v>
+        <v>10399</v>
       </c>
       <c r="H325" t="s">
         <v>64</v>
@@ -7865,7 +8378,7 @@
         <v>188</v>
       </c>
       <c r="C326">
-        <v>10596</v>
+        <v>10499</v>
       </c>
       <c r="H326" t="s">
         <v>64</v>
@@ -7882,7 +8395,7 @@
         <v>188</v>
       </c>
       <c r="C327">
-        <v>10597</v>
+        <v>10500</v>
       </c>
       <c r="H327" t="s">
         <v>64</v>
@@ -7893,53 +8406,53 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B328" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C328">
-        <v>943</v>
+        <v>10596</v>
       </c>
       <c r="H328" t="s">
         <v>64</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B329" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C329">
-        <v>275</v>
+        <v>10597</v>
       </c>
       <c r="H329" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B330" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C330">
-        <v>692</v>
+        <v>943</v>
       </c>
       <c r="H330" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -7947,10 +8460,10 @@
         <v>271</v>
       </c>
       <c r="B331" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C331">
-        <v>715</v>
+        <v>275</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -7967,7 +8480,7 @@
         <v>192</v>
       </c>
       <c r="C332">
-        <v>735</v>
+        <v>692</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -7981,10 +8494,10 @@
         <v>271</v>
       </c>
       <c r="B333" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C333">
-        <v>1328</v>
+        <v>715</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -7998,10 +8511,10 @@
         <v>271</v>
       </c>
       <c r="B334" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C334">
-        <v>1356</v>
+        <v>735</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -8018,7 +8531,7 @@
         <v>193</v>
       </c>
       <c r="C335">
-        <v>1401</v>
+        <v>1328</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -8035,7 +8548,7 @@
         <v>193</v>
       </c>
       <c r="C336">
-        <v>1482</v>
+        <v>1356</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -8052,7 +8565,7 @@
         <v>193</v>
       </c>
       <c r="C337">
-        <v>1485</v>
+        <v>1401</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -8069,7 +8582,7 @@
         <v>193</v>
       </c>
       <c r="C338">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -8086,7 +8599,7 @@
         <v>193</v>
       </c>
       <c r="C339">
-        <v>1582</v>
+        <v>1485</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -8100,10 +8613,10 @@
         <v>271</v>
       </c>
       <c r="B340" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C340">
-        <v>1620</v>
+        <v>1497</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -8117,10 +8630,10 @@
         <v>271</v>
       </c>
       <c r="B341" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C341">
-        <v>1682</v>
+        <v>1582</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -8134,10 +8647,10 @@
         <v>271</v>
       </c>
       <c r="B342" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C342">
-        <v>1694</v>
+        <v>1620</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -8151,10 +8664,10 @@
         <v>271</v>
       </c>
       <c r="B343" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C343">
-        <v>1793</v>
+        <v>1682</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -8168,10 +8681,10 @@
         <v>271</v>
       </c>
       <c r="B344" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C344">
-        <v>1801</v>
+        <v>1694</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -8182,36 +8695,36 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B345" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C345">
-        <v>2045</v>
+        <v>1793</v>
       </c>
       <c r="H345" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B346" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C346">
-        <v>2070</v>
+        <v>1801</v>
       </c>
       <c r="H346" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
@@ -8222,7 +8735,7 @@
         <v>197</v>
       </c>
       <c r="C347">
-        <v>2071</v>
+        <v>2045</v>
       </c>
       <c r="H347" t="s">
         <v>10</v>
@@ -8233,113 +8746,107 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B348" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C348">
-        <v>1506</v>
+        <v>2070</v>
       </c>
       <c r="H348" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B349" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C349">
-        <v>1515</v>
+        <v>2071</v>
       </c>
       <c r="H349" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B350" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C350">
-        <v>195</v>
+        <v>1506</v>
       </c>
       <c r="H350" t="s">
-        <v>10</v>
-      </c>
-      <c r="I350" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B351" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C351">
-        <v>411</v>
+        <v>1515</v>
       </c>
       <c r="H351" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B352" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C352">
-        <v>797</v>
+        <v>195</v>
       </c>
       <c r="H352" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="I352" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B353" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C353">
-        <v>805</v>
+        <v>411</v>
       </c>
       <c r="H353" t="s">
-        <v>204</v>
-      </c>
-      <c r="I353" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
@@ -8350,7 +8857,7 @@
         <v>202</v>
       </c>
       <c r="C354">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="H354" t="s">
         <v>204</v>
@@ -8370,7 +8877,7 @@
         <v>202</v>
       </c>
       <c r="C355">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H355" t="s">
         <v>204</v>
@@ -8384,36 +8891,42 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B356" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C356">
-        <v>161</v>
+        <v>809</v>
       </c>
       <c r="H356" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="I356" t="s">
+        <v>205</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B357" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C357">
-        <v>171</v>
+        <v>811</v>
       </c>
       <c r="H357" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="I357" t="s">
+        <v>205</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
@@ -8424,7 +8937,7 @@
         <v>207</v>
       </c>
       <c r="C358">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H358" t="s">
         <v>56</v>
@@ -8441,7 +8954,7 @@
         <v>207</v>
       </c>
       <c r="C359">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H359" t="s">
         <v>56</v>
@@ -8458,7 +8971,7 @@
         <v>207</v>
       </c>
       <c r="C360">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="H360" t="s">
         <v>56</v>
@@ -8475,7 +8988,7 @@
         <v>207</v>
       </c>
       <c r="C361">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H361" t="s">
         <v>56</v>
@@ -8492,7 +9005,7 @@
         <v>207</v>
       </c>
       <c r="C362">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="H362" t="s">
         <v>56</v>
@@ -8509,7 +9022,7 @@
         <v>207</v>
       </c>
       <c r="C363">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="H363" t="s">
         <v>56</v>
@@ -8523,10 +9036,10 @@
         <v>277</v>
       </c>
       <c r="B364" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C364">
-        <v>433</v>
+        <v>248</v>
       </c>
       <c r="H364" t="s">
         <v>56</v>
@@ -8537,36 +9050,36 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B365" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C365">
-        <v>673</v>
+        <v>261</v>
       </c>
       <c r="H365" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B366" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C366">
-        <v>673</v>
+        <v>433</v>
       </c>
       <c r="H366" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
@@ -8577,7 +9090,7 @@
         <v>209</v>
       </c>
       <c r="C367">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="H367" t="s">
         <v>85</v>
@@ -8594,7 +9107,7 @@
         <v>209</v>
       </c>
       <c r="C368">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H368" t="s">
         <v>85</v>
@@ -8611,7 +9124,7 @@
         <v>209</v>
       </c>
       <c r="C369">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H369" t="s">
         <v>85</v>
@@ -8628,7 +9141,7 @@
         <v>209</v>
       </c>
       <c r="C370">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="H370" t="s">
         <v>85</v>
@@ -8645,7 +9158,7 @@
         <v>209</v>
       </c>
       <c r="C371">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H371" t="s">
         <v>85</v>
@@ -8662,7 +9175,7 @@
         <v>209</v>
       </c>
       <c r="C372">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H372" t="s">
         <v>85</v>
@@ -8679,7 +9192,7 @@
         <v>209</v>
       </c>
       <c r="C373">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="H373" t="s">
         <v>85</v>
@@ -8696,7 +9209,7 @@
         <v>209</v>
       </c>
       <c r="C374">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="H374" t="s">
         <v>85</v>
@@ -8713,7 +9226,7 @@
         <v>209</v>
       </c>
       <c r="C375">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="H375" t="s">
         <v>85</v>
@@ -8730,7 +9243,7 @@
         <v>209</v>
       </c>
       <c r="C376">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="H376" t="s">
         <v>85</v>
@@ -8747,13 +9260,13 @@
         <v>209</v>
       </c>
       <c r="C377">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="H377" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K377" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
@@ -8764,13 +9277,13 @@
         <v>209</v>
       </c>
       <c r="C378">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="H378" t="s">
         <v>85</v>
       </c>
       <c r="K378" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
@@ -8781,13 +9294,13 @@
         <v>209</v>
       </c>
       <c r="C379">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H379" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
@@ -8795,16 +9308,16 @@
         <v>278</v>
       </c>
       <c r="B380" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C380">
-        <v>841</v>
+        <v>739</v>
       </c>
       <c r="H380" t="s">
         <v>85</v>
       </c>
       <c r="K380" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
@@ -8812,10 +9325,10 @@
         <v>278</v>
       </c>
       <c r="B381" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C381">
-        <v>850</v>
+        <v>739</v>
       </c>
       <c r="H381" t="s">
         <v>85</v>
@@ -8832,7 +9345,7 @@
         <v>213</v>
       </c>
       <c r="C382">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="H382" t="s">
         <v>85</v>
@@ -8846,16 +9359,16 @@
         <v>278</v>
       </c>
       <c r="B383" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C383">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="H383" t="s">
         <v>85</v>
       </c>
       <c r="K383" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
@@ -8863,16 +9376,16 @@
         <v>278</v>
       </c>
       <c r="B384" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C384">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="H384" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K384" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
@@ -8883,7 +9396,7 @@
         <v>209</v>
       </c>
       <c r="C385">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="H385" t="s">
         <v>85</v>
@@ -8900,12 +9413,46 @@
         <v>209</v>
       </c>
       <c r="C386">
+        <v>868</v>
+      </c>
+      <c r="H386" t="s">
+        <v>64</v>
+      </c>
+      <c r="K386" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>278</v>
+      </c>
+      <c r="B387" t="s">
+        <v>209</v>
+      </c>
+      <c r="C387">
         <v>872</v>
       </c>
-      <c r="H386" t="s">
+      <c r="H387" t="s">
         <v>85</v>
       </c>
-      <c r="K386" s="1" t="s">
+      <c r="K387" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>278</v>
+      </c>
+      <c r="B388" t="s">
+        <v>209</v>
+      </c>
+      <c r="C388">
+        <v>872</v>
+      </c>
+      <c r="H388" t="s">
+        <v>85</v>
+      </c>
+      <c r="K388" s="1" t="s">
         <v>211</v>
       </c>
     </row>

--- a/bugs_table.xlsx
+++ b/bugs_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxbe\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AF5BA-36C5-48A9-ABAB-C5E3DC81A24C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7305B9-6DE3-46E5-B514-B8085A32B00C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88C54D22-CC6D-44EB-88DB-9A6383E82FD2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$388</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$373</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$O:$O</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="280">
   <si>
     <t>File</t>
   </si>
@@ -1225,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEEF99E-85B6-452B-AB09-1A7819E6A45F}">
-  <dimension ref="A1:Q388"/>
+  <dimension ref="A1:Q373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="91" workbookViewId="0">
-      <selection activeCell="L276" sqref="L276"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L374" sqref="L374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7492,13 +7492,16 @@
         <v>158</v>
       </c>
       <c r="C276">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H276" t="s">
         <v>12</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -7517,6 +7520,9 @@
       <c r="K277" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
@@ -7534,6 +7540,9 @@
       <c r="K278" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
@@ -7551,6 +7560,9 @@
       <c r="K279" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
@@ -7568,6 +7580,9 @@
       <c r="K280" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
@@ -7585,6 +7600,9 @@
       <c r="K281" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="L281">
+        <v>2</v>
+      </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
@@ -7602,6 +7620,9 @@
       <c r="K282" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="L282">
+        <v>3</v>
+      </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
@@ -7619,6 +7640,9 @@
       <c r="K283" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="L283">
+        <v>4</v>
+      </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
@@ -7636,6 +7660,9 @@
       <c r="K284" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="L284">
+        <v>5</v>
+      </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
@@ -7653,6 +7680,9 @@
       <c r="K285" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="L285">
+        <v>4</v>
+      </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
@@ -7673,6 +7703,9 @@
       <c r="K286" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="L286">
+        <v>5</v>
+      </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
@@ -7693,6 +7726,9 @@
       <c r="K287" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
@@ -7713,8 +7749,11 @@
       <c r="K288" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>266</v>
       </c>
@@ -7733,8 +7772,11 @@
       <c r="K289" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>267</v>
       </c>
@@ -7750,8 +7792,11 @@
       <c r="K290" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>267</v>
       </c>
@@ -7767,8 +7812,11 @@
       <c r="K291" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>267</v>
       </c>
@@ -7784,8 +7832,11 @@
       <c r="K292" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>267</v>
       </c>
@@ -7801,8 +7852,11 @@
       <c r="K293" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>267</v>
       </c>
@@ -7818,8 +7872,11 @@
       <c r="K294" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>267</v>
       </c>
@@ -7835,8 +7892,11 @@
       <c r="K295" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>268</v>
       </c>
@@ -7858,8 +7918,11 @@
       <c r="K296" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>268</v>
       </c>
@@ -7881,8 +7944,11 @@
       <c r="K297" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>268</v>
       </c>
@@ -7904,8 +7970,11 @@
       <c r="K298" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>268</v>
       </c>
@@ -7927,8 +7996,11 @@
       <c r="K299" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>269</v>
       </c>
@@ -7944,8 +8016,11 @@
       <c r="K300" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>269</v>
       </c>
@@ -7961,8 +8036,11 @@
       <c r="K301" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>269</v>
       </c>
@@ -7978,8 +8056,11 @@
       <c r="K302" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>269</v>
       </c>
@@ -7995,8 +8076,11 @@
       <c r="K303" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>269</v>
       </c>
@@ -8012,8 +8096,11 @@
       <c r="K304" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>269</v>
       </c>
@@ -8029,8 +8116,11 @@
       <c r="K305" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>269</v>
       </c>
@@ -8046,8 +8136,11 @@
       <c r="K306" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>269</v>
       </c>
@@ -8063,8 +8156,11 @@
       <c r="K307" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>269</v>
       </c>
@@ -8080,8 +8176,11 @@
       <c r="K308" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>269</v>
       </c>
@@ -8097,8 +8196,11 @@
       <c r="K309" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>269</v>
       </c>
@@ -8114,8 +8216,11 @@
       <c r="K310" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>269</v>
       </c>
@@ -8131,8 +8236,11 @@
       <c r="K311" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>269</v>
       </c>
@@ -8148,8 +8256,11 @@
       <c r="K312" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>269</v>
       </c>
@@ -8165,8 +8276,11 @@
       <c r="K313" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L313">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>269</v>
       </c>
@@ -8182,288 +8296,339 @@
       <c r="K314" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B315" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C315">
-        <v>2107</v>
+        <v>943</v>
       </c>
       <c r="H315" t="s">
         <v>64</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="L315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B316" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C316">
-        <v>2126</v>
+        <v>275</v>
       </c>
       <c r="H316" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B317" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C317">
-        <v>8210</v>
+        <v>692</v>
       </c>
       <c r="H317" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B318" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C318">
-        <v>8430</v>
+        <v>715</v>
       </c>
       <c r="H318" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B319" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C319">
-        <v>8455</v>
+        <v>735</v>
       </c>
       <c r="H319" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L319">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B320" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C320">
-        <v>8522</v>
+        <v>1328</v>
       </c>
       <c r="H320" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L320">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B321" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C321">
-        <v>8631</v>
+        <v>1356</v>
       </c>
       <c r="H321" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B322" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C322">
-        <v>8684</v>
+        <v>1401</v>
       </c>
       <c r="H322" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L322">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B323" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C323">
-        <v>8700</v>
+        <v>1482</v>
       </c>
       <c r="H323" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B324" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C324">
-        <v>10389</v>
+        <v>1485</v>
       </c>
       <c r="H324" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B325" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C325">
-        <v>10399</v>
+        <v>1497</v>
       </c>
       <c r="H325" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B326" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C326">
-        <v>10499</v>
+        <v>1582</v>
       </c>
       <c r="H326" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L326">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B327" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C327">
-        <v>10500</v>
+        <v>1620</v>
       </c>
       <c r="H327" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L327">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B328" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C328">
-        <v>10596</v>
+        <v>1682</v>
       </c>
       <c r="H328" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L328">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B329" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C329">
-        <v>10597</v>
+        <v>1694</v>
       </c>
       <c r="H329" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L329">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B330" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C330">
-        <v>943</v>
+        <v>1793</v>
       </c>
       <c r="H330" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="L330">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>271</v>
       </c>
       <c r="B331" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C331">
-        <v>275</v>
+        <v>1801</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -8471,643 +8636,754 @@
       <c r="K331" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L331">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B332" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C332">
-        <v>692</v>
+        <v>2045</v>
       </c>
       <c r="H332" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L332">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B333" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C333">
-        <v>715</v>
+        <v>2070</v>
       </c>
       <c r="H333" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B334" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C334">
-        <v>735</v>
+        <v>2071</v>
       </c>
       <c r="H334" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B335" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C335">
-        <v>1328</v>
+        <v>1506</v>
       </c>
       <c r="H335" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B336" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C336">
-        <v>1356</v>
+        <v>1515</v>
       </c>
       <c r="H336" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="L336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B337" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C337">
-        <v>1401</v>
+        <v>195</v>
       </c>
       <c r="H337" t="s">
+        <v>10</v>
+      </c>
+      <c r="I337" t="s">
         <v>4</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B338" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C338">
-        <v>1482</v>
+        <v>411</v>
       </c>
       <c r="H338" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="L338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B339" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C339">
-        <v>1485</v>
+        <v>797</v>
       </c>
       <c r="H339" t="s">
-        <v>4</v>
+        <v>204</v>
+      </c>
+      <c r="I339" t="s">
+        <v>205</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B340" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C340">
-        <v>1497</v>
+        <v>805</v>
       </c>
       <c r="H340" t="s">
-        <v>4</v>
+        <v>204</v>
+      </c>
+      <c r="I340" t="s">
+        <v>205</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="L340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B341" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C341">
-        <v>1582</v>
+        <v>809</v>
       </c>
       <c r="H341" t="s">
-        <v>4</v>
+        <v>204</v>
+      </c>
+      <c r="I341" t="s">
+        <v>205</v>
       </c>
       <c r="K341" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="L341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B342" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C342">
-        <v>1620</v>
+        <v>811</v>
       </c>
       <c r="H342" t="s">
-        <v>4</v>
+        <v>204</v>
+      </c>
+      <c r="I342" t="s">
+        <v>205</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="L342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B343" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C343">
-        <v>1682</v>
+        <v>161</v>
       </c>
       <c r="H343" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B344" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C344">
-        <v>1694</v>
+        <v>171</v>
       </c>
       <c r="H344" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B345" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C345">
-        <v>1793</v>
+        <v>181</v>
       </c>
       <c r="H345" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B346" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C346">
-        <v>1801</v>
+        <v>184</v>
       </c>
       <c r="H346" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B347" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C347">
-        <v>2045</v>
+        <v>202</v>
       </c>
       <c r="H347" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B348" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C348">
-        <v>2070</v>
+        <v>205</v>
       </c>
       <c r="H348" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B349" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C349">
-        <v>2071</v>
+        <v>248</v>
       </c>
       <c r="H349" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L349">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B350" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C350">
-        <v>1506</v>
+        <v>261</v>
       </c>
       <c r="H350" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="K350" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L350">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B351" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C351">
-        <v>1515</v>
+        <v>433</v>
       </c>
       <c r="H351" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="L351">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B352" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C352">
-        <v>195</v>
+        <v>673</v>
       </c>
       <c r="H352" t="s">
-        <v>10</v>
-      </c>
-      <c r="I352" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B353" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C353">
-        <v>411</v>
+        <v>673</v>
       </c>
       <c r="H353" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="K353" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B354" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C354">
-        <v>797</v>
+        <v>686</v>
       </c>
       <c r="H354" t="s">
-        <v>204</v>
-      </c>
-      <c r="I354" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B355" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C355">
-        <v>805</v>
+        <v>687</v>
       </c>
       <c r="H355" t="s">
-        <v>204</v>
-      </c>
-      <c r="I355" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B356" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C356">
-        <v>809</v>
+        <v>693</v>
       </c>
       <c r="H356" t="s">
-        <v>204</v>
-      </c>
-      <c r="I356" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="K356" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B357" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C357">
-        <v>811</v>
+        <v>694</v>
       </c>
       <c r="H357" t="s">
-        <v>204</v>
-      </c>
-      <c r="I357" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="K357" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B358" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C358">
-        <v>161</v>
+        <v>697</v>
       </c>
       <c r="H358" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B359" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C359">
-        <v>171</v>
+        <v>697</v>
       </c>
       <c r="H359" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B360" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C360">
-        <v>181</v>
+        <v>710</v>
       </c>
       <c r="H360" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K360" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B361" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C361">
-        <v>184</v>
+        <v>711</v>
       </c>
       <c r="H361" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K361" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L361">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B362" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C362">
-        <v>202</v>
+        <v>717</v>
       </c>
       <c r="H362" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L362">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B363" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C363">
-        <v>205</v>
+        <v>718</v>
       </c>
       <c r="H363" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K363" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B364" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C364">
-        <v>248</v>
+        <v>734</v>
       </c>
       <c r="H364" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B365" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C365">
-        <v>261</v>
+        <v>739</v>
       </c>
       <c r="H365" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L365">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B366" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C366">
-        <v>433</v>
+        <v>739</v>
       </c>
       <c r="H366" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K366" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>278</v>
       </c>
       <c r="B367" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C367">
-        <v>673</v>
+        <v>841</v>
       </c>
       <c r="H367" t="s">
         <v>85</v>
       </c>
       <c r="K367" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L367">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>278</v>
       </c>
       <c r="B368" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C368">
-        <v>673</v>
+        <v>850</v>
       </c>
       <c r="H368" t="s">
         <v>85</v>
@@ -9115,25 +9391,31 @@
       <c r="K368" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L368">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>278</v>
       </c>
       <c r="B369" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C369">
-        <v>686</v>
+        <v>852</v>
       </c>
       <c r="H369" t="s">
         <v>85</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L369">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>278</v>
       </c>
@@ -9141,16 +9423,19 @@
         <v>209</v>
       </c>
       <c r="C370">
-        <v>687</v>
+        <v>855</v>
       </c>
       <c r="H370" t="s">
         <v>85</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L370">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>278</v>
       </c>
@@ -9158,16 +9443,19 @@
         <v>209</v>
       </c>
       <c r="C371">
-        <v>693</v>
+        <v>868</v>
       </c>
       <c r="H371" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K371" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="L371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>278</v>
       </c>
@@ -9175,16 +9463,19 @@
         <v>209</v>
       </c>
       <c r="C372">
-        <v>694</v>
+        <v>872</v>
       </c>
       <c r="H372" t="s">
         <v>85</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="L372">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>278</v>
       </c>
@@ -9192,268 +9483,16 @@
         <v>209</v>
       </c>
       <c r="C373">
-        <v>697</v>
+        <v>872</v>
       </c>
       <c r="H373" t="s">
         <v>85</v>
       </c>
       <c r="K373" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>278</v>
-      </c>
-      <c r="B374" t="s">
-        <v>209</v>
-      </c>
-      <c r="C374">
-        <v>697</v>
-      </c>
-      <c r="H374" t="s">
-        <v>85</v>
-      </c>
-      <c r="K374" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>278</v>
-      </c>
-      <c r="B375" t="s">
-        <v>209</v>
-      </c>
-      <c r="C375">
-        <v>710</v>
-      </c>
-      <c r="H375" t="s">
-        <v>85</v>
-      </c>
-      <c r="K375" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>278</v>
-      </c>
-      <c r="B376" t="s">
-        <v>209</v>
-      </c>
-      <c r="C376">
-        <v>711</v>
-      </c>
-      <c r="H376" t="s">
-        <v>85</v>
-      </c>
-      <c r="K376" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>278</v>
-      </c>
-      <c r="B377" t="s">
-        <v>209</v>
-      </c>
-      <c r="C377">
-        <v>717</v>
-      </c>
-      <c r="H377" t="s">
-        <v>85</v>
-      </c>
-      <c r="K377" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>278</v>
-      </c>
-      <c r="B378" t="s">
-        <v>209</v>
-      </c>
-      <c r="C378">
-        <v>718</v>
-      </c>
-      <c r="H378" t="s">
-        <v>85</v>
-      </c>
-      <c r="K378" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>278</v>
-      </c>
-      <c r="B379" t="s">
-        <v>209</v>
-      </c>
-      <c r="C379">
-        <v>734</v>
-      </c>
-      <c r="H379" t="s">
-        <v>64</v>
-      </c>
-      <c r="K379" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>278</v>
-      </c>
-      <c r="B380" t="s">
-        <v>209</v>
-      </c>
-      <c r="C380">
-        <v>739</v>
-      </c>
-      <c r="H380" t="s">
-        <v>85</v>
-      </c>
-      <c r="K380" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>278</v>
-      </c>
-      <c r="B381" t="s">
-        <v>209</v>
-      </c>
-      <c r="C381">
-        <v>739</v>
-      </c>
-      <c r="H381" t="s">
-        <v>85</v>
-      </c>
-      <c r="K381" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>278</v>
-      </c>
-      <c r="B382" t="s">
-        <v>213</v>
-      </c>
-      <c r="C382">
-        <v>841</v>
-      </c>
-      <c r="H382" t="s">
-        <v>85</v>
-      </c>
-      <c r="K382" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>278</v>
-      </c>
-      <c r="B383" t="s">
-        <v>213</v>
-      </c>
-      <c r="C383">
-        <v>850</v>
-      </c>
-      <c r="H383" t="s">
-        <v>85</v>
-      </c>
-      <c r="K383" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>278</v>
-      </c>
-      <c r="B384" t="s">
-        <v>213</v>
-      </c>
-      <c r="C384">
-        <v>852</v>
-      </c>
-      <c r="H384" t="s">
-        <v>85</v>
-      </c>
-      <c r="K384" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>278</v>
-      </c>
-      <c r="B385" t="s">
-        <v>209</v>
-      </c>
-      <c r="C385">
-        <v>855</v>
-      </c>
-      <c r="H385" t="s">
-        <v>85</v>
-      </c>
-      <c r="K385" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>278</v>
-      </c>
-      <c r="B386" t="s">
-        <v>209</v>
-      </c>
-      <c r="C386">
-        <v>868</v>
-      </c>
-      <c r="H386" t="s">
-        <v>64</v>
-      </c>
-      <c r="K386" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>278</v>
-      </c>
-      <c r="B387" t="s">
-        <v>209</v>
-      </c>
-      <c r="C387">
-        <v>872</v>
-      </c>
-      <c r="H387" t="s">
-        <v>85</v>
-      </c>
-      <c r="K387" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>278</v>
-      </c>
-      <c r="B388" t="s">
-        <v>209</v>
-      </c>
-      <c r="C388">
-        <v>872</v>
-      </c>
-      <c r="H388" t="s">
-        <v>85</v>
-      </c>
-      <c r="K388" s="1" t="s">
-        <v>211</v>
+      <c r="L373">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/bugs_table.xlsx
+++ b/bugs_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxbe\Desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7305B9-6DE3-46E5-B514-B8085A32B00C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1DB77C-BD3A-4970-B5DF-66D340B0F3FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88C54D22-CC6D-44EB-88DB-9A6383E82FD2}"/>
   </bookViews>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEEF99E-85B6-452B-AB09-1A7819E6A45F}">
   <dimension ref="A1:Q373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="91" workbookViewId="0">
-      <selection activeCell="L374" sqref="L374"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A374" sqref="A374:XFD391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
